--- a/Code/Results/Cases/Case_4_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_54/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9869493896905469</v>
+        <v>0.986949389690548</v>
       </c>
       <c r="D2">
         <v>1.005238646451356</v>
       </c>
       <c r="E2">
-        <v>0.9952158800736696</v>
+        <v>0.995215880073671</v>
       </c>
       <c r="F2">
-        <v>0.9954998739642061</v>
+        <v>0.9954998739642072</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.037879945943604</v>
       </c>
       <c r="J2">
-        <v>1.009527574386749</v>
+        <v>1.009527574386751</v>
       </c>
       <c r="K2">
-        <v>1.016625477898961</v>
+        <v>1.016625477898962</v>
       </c>
       <c r="L2">
-        <v>1.006742270134418</v>
+        <v>1.006742270134419</v>
       </c>
       <c r="M2">
-        <v>1.007022260770396</v>
+        <v>1.007022260770397</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,10 +459,10 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9981989827238015</v>
+        <v>0.9981989827238018</v>
       </c>
       <c r="D3">
-        <v>1.014065202737814</v>
+        <v>1.014065202737815</v>
       </c>
       <c r="E3">
         <v>1.005905080427045</v>
@@ -477,10 +477,10 @@
         <v>1.042546225602256</v>
       </c>
       <c r="J3">
-        <v>1.01873886598957</v>
+        <v>1.018738865989571</v>
       </c>
       <c r="K3">
-        <v>1.024521224988082</v>
+        <v>1.024521224988083</v>
       </c>
       <c r="L3">
         <v>1.016462958124688</v>
@@ -521,7 +521,7 @@
         <v>1.029372202185614</v>
       </c>
       <c r="L4">
-        <v>1.022450377029357</v>
+        <v>1.022450377029356</v>
       </c>
       <c r="M4">
         <v>1.023510430365596</v>
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00797442558713</v>
+        <v>1.007974425587127</v>
       </c>
       <c r="D5">
-        <v>1.021730030572092</v>
+        <v>1.02173003057209</v>
       </c>
       <c r="E5">
-        <v>1.015202968253408</v>
+        <v>1.015202968253406</v>
       </c>
       <c r="F5">
-        <v>1.016401365684683</v>
+        <v>1.01640136568468</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046567557772901</v>
+        <v>1.0465675577729</v>
       </c>
       <c r="J5">
-        <v>1.026726484798694</v>
+        <v>1.026726484798691</v>
       </c>
       <c r="K5">
-        <v>1.031354872901045</v>
+        <v>1.031354872901043</v>
       </c>
       <c r="L5">
-        <v>1.024901216784986</v>
+        <v>1.024901216784983</v>
       </c>
       <c r="M5">
-        <v>1.026086049441044</v>
+        <v>1.026086049441042</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,7 +573,7 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008447104241206</v>
+        <v>1.008447104241205</v>
       </c>
       <c r="D6">
         <v>1.022100490831278</v>
@@ -620,7 +620,7 @@
         <v>1.01253689530953</v>
       </c>
       <c r="F7">
-        <v>1.013611173518142</v>
+        <v>1.013611173518143</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,7 +629,7 @@
         <v>1.045418334276986</v>
       </c>
       <c r="J7">
-        <v>1.02443862896222</v>
+        <v>1.024438628962221</v>
       </c>
       <c r="K7">
         <v>1.029398911222976</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9908271434564145</v>
+        <v>0.9908271434564153</v>
       </c>
       <c r="D8">
         <v>1.008281695218733</v>
       </c>
       <c r="E8">
-        <v>0.9988991529313861</v>
+        <v>0.9988991529313872</v>
       </c>
       <c r="F8">
-        <v>0.999349041224505</v>
+        <v>0.9993490412245056</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039492707285019</v>
+        <v>1.03949270728502</v>
       </c>
       <c r="J8">
-        <v>1.012704818661406</v>
+        <v>1.012704818661407</v>
       </c>
       <c r="K8">
         <v>1.019350642188095</v>
       </c>
       <c r="L8">
-        <v>1.010094056567223</v>
+        <v>1.010094056567224</v>
       </c>
       <c r="M8">
-        <v>1.010537837386025</v>
+        <v>1.010537837386026</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9625238329282992</v>
+        <v>0.962523832928299</v>
       </c>
       <c r="D9">
-        <v>0.986066615178127</v>
+        <v>0.9860666151781267</v>
       </c>
       <c r="E9">
-        <v>0.9720475202771173</v>
+        <v>0.9720475202771172</v>
       </c>
       <c r="F9">
-        <v>0.9713100303935671</v>
+        <v>0.9713100303935663</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.027633471846285</v>
       </c>
       <c r="J9">
-        <v>0.9894731026506772</v>
+        <v>0.9894731026506769</v>
       </c>
       <c r="K9">
-        <v>0.9993898706842985</v>
+        <v>0.9993898706842981</v>
       </c>
       <c r="L9">
-        <v>0.985610994106951</v>
+        <v>0.9856109941069509</v>
       </c>
       <c r="M9">
-        <v>0.9848863898541981</v>
+        <v>0.9848863898541973</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9409277403120063</v>
+        <v>0.9409277403120094</v>
       </c>
       <c r="D10">
-        <v>0.9691242518698786</v>
+        <v>0.9691242518698809</v>
       </c>
       <c r="E10">
-        <v>0.9516105832692917</v>
+        <v>0.9516105832692946</v>
       </c>
       <c r="F10">
-        <v>0.949997058147859</v>
+        <v>0.9499970581478616</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.018474127036875</v>
+        <v>1.018474127036876</v>
       </c>
       <c r="J10">
-        <v>0.9716982941423488</v>
+        <v>0.9716982941423515</v>
       </c>
       <c r="K10">
-        <v>0.9840742894731919</v>
+        <v>0.9840742894731943</v>
       </c>
       <c r="L10">
-        <v>0.9669121705651598</v>
+        <v>0.9669121705651627</v>
       </c>
       <c r="M10">
-        <v>0.965331894541284</v>
+        <v>0.9653318945412865</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,13 +763,13 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9307119996683656</v>
+        <v>0.9307119996683659</v>
       </c>
       <c r="D11">
         <v>0.9611176397814242</v>
       </c>
       <c r="E11">
-        <v>0.9419593700310286</v>
+        <v>0.9419593700310287</v>
       </c>
       <c r="F11">
         <v>0.9399382411752977</v>
@@ -778,19 +778,19 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.014116976009791</v>
+        <v>1.01411697600979</v>
       </c>
       <c r="J11">
-        <v>0.9632810298672397</v>
+        <v>0.9632810298672396</v>
       </c>
       <c r="K11">
         <v>0.9768120599570825</v>
       </c>
       <c r="L11">
-        <v>0.9580656390000843</v>
+        <v>0.9580656390000845</v>
       </c>
       <c r="M11">
-        <v>0.9560892621580406</v>
+        <v>0.9560892621580407</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9267620969476632</v>
+        <v>0.9267620969476624</v>
       </c>
       <c r="D12">
-        <v>0.9580237145127056</v>
+        <v>0.9580237145127047</v>
       </c>
       <c r="E12">
-        <v>0.9382306172260553</v>
+        <v>0.9382306172260546</v>
       </c>
       <c r="F12">
-        <v>0.9360528621313883</v>
+        <v>0.9360528621313872</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.012428843235464</v>
       </c>
       <c r="J12">
-        <v>0.9600254213716256</v>
+        <v>0.9600254213716247</v>
       </c>
       <c r="K12">
-        <v>0.9740018592662854</v>
+        <v>0.9740018592662847</v>
       </c>
       <c r="L12">
-        <v>0.9546452806681238</v>
+        <v>0.9546452806681233</v>
       </c>
       <c r="M12">
-        <v>0.9525170595113372</v>
+        <v>0.9525170595113363</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9276168863858113</v>
+        <v>0.9276168863858123</v>
       </c>
       <c r="D13">
-        <v>0.9586931694976989</v>
+        <v>0.9586931694976998</v>
       </c>
       <c r="E13">
-        <v>0.9390374104483793</v>
+        <v>0.9390374104483802</v>
       </c>
       <c r="F13">
-        <v>0.9368935076724452</v>
+        <v>0.9368935076724457</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.012794318805831</v>
+        <v>1.012794318805832</v>
       </c>
       <c r="J13">
-        <v>0.9607300034045505</v>
+        <v>0.9607300034045512</v>
       </c>
       <c r="K13">
-        <v>0.974610103762162</v>
+        <v>0.9746101037621626</v>
       </c>
       <c r="L13">
-        <v>0.9553854598016488</v>
+        <v>0.9553854598016499</v>
       </c>
       <c r="M13">
-        <v>0.953290040072307</v>
+        <v>0.9532900400723077</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9303888426912428</v>
+        <v>0.9303888426912421</v>
       </c>
       <c r="D14">
-        <v>0.960864472630692</v>
+        <v>0.9608644726306912</v>
       </c>
       <c r="E14">
-        <v>0.9416542453660517</v>
+        <v>0.9416542453660508</v>
       </c>
       <c r="F14">
-        <v>0.9396202830519567</v>
+        <v>0.9396202830519557</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.013978931099141</v>
       </c>
       <c r="J14">
-        <v>0.9630146956910429</v>
+        <v>0.9630146956910421</v>
       </c>
       <c r="K14">
-        <v>0.9765821897853103</v>
+        <v>0.9765821897853096</v>
       </c>
       <c r="L14">
-        <v>0.9577858010004578</v>
+        <v>0.9577858010004572</v>
       </c>
       <c r="M14">
-        <v>0.9557969748421836</v>
+        <v>0.9557969748421823</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9320752640447978</v>
+        <v>0.9320752640447965</v>
       </c>
       <c r="D15">
-        <v>0.9621857239557068</v>
+        <v>0.9621857239557058</v>
       </c>
       <c r="E15">
-        <v>0.9432466823402675</v>
+        <v>0.9432466823402662</v>
       </c>
       <c r="F15">
-        <v>0.9412797313557314</v>
+        <v>0.9412797313557306</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.014699192584909</v>
       </c>
       <c r="J15">
-        <v>0.9644045408154899</v>
+        <v>0.9644045408154887</v>
       </c>
       <c r="K15">
-        <v>0.9777816971647576</v>
+        <v>0.9777816971647567</v>
       </c>
       <c r="L15">
-        <v>0.9592461666293864</v>
+        <v>0.9592461666293851</v>
       </c>
       <c r="M15">
-        <v>0.9573223609393497</v>
+        <v>0.9573223609393491</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9415855045772045</v>
+        <v>0.9415855045772012</v>
       </c>
       <c r="D16">
-        <v>0.9696399838374948</v>
+        <v>0.9696399838374921</v>
       </c>
       <c r="E16">
-        <v>0.9522323619170941</v>
+        <v>0.9522323619170908</v>
       </c>
       <c r="F16">
-        <v>0.9506452156463906</v>
+        <v>0.9506452156463879</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.018754193513747</v>
+        <v>1.018754193513745</v>
       </c>
       <c r="J16">
-        <v>0.9722400959005112</v>
+        <v>0.9722400959005081</v>
       </c>
       <c r="K16">
-        <v>0.9845415581369471</v>
+        <v>0.9845415581369443</v>
       </c>
       <c r="L16">
-        <v>0.967481774421541</v>
+        <v>0.9674817744215378</v>
       </c>
       <c r="M16">
-        <v>0.9659271786532602</v>
+        <v>0.9659271786532576</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9473037978649329</v>
+        <v>0.94730379786493</v>
       </c>
       <c r="D17">
-        <v>0.9741244263803679</v>
+        <v>0.9741244263803654</v>
       </c>
       <c r="E17">
-        <v>0.957639636512543</v>
+        <v>0.9576396365125401</v>
       </c>
       <c r="F17">
-        <v>0.9562825595253664</v>
+        <v>0.9562825595253639</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021186288976345</v>
+        <v>1.021186288976343</v>
       </c>
       <c r="J17">
-        <v>0.9769492856447052</v>
+        <v>0.9769492856447023</v>
       </c>
       <c r="K17">
-        <v>0.9886018867983187</v>
+        <v>0.9886018867983162</v>
       </c>
       <c r="L17">
-        <v>0.9724335286495487</v>
+        <v>0.9724335286495458</v>
       </c>
       <c r="M17">
-        <v>0.9711031395204043</v>
+        <v>0.9711031395204015</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9505578134215714</v>
+        <v>0.9505578134215709</v>
       </c>
       <c r="D18">
-        <v>0.9766769743428493</v>
+        <v>0.9766769743428489</v>
       </c>
       <c r="E18">
-        <v>0.9607181144106236</v>
+        <v>0.9607181144106232</v>
       </c>
       <c r="F18">
-        <v>0.9594925836272221</v>
+        <v>0.9594925836272218</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.022568030879567</v>
       </c>
       <c r="J18">
-        <v>0.9796282114198409</v>
+        <v>0.9796282114198405</v>
       </c>
       <c r="K18">
-        <v>0.9909108157403015</v>
+        <v>0.990910815740301</v>
       </c>
       <c r="L18">
-        <v>0.9752511982261319</v>
+        <v>0.9752511982261314</v>
       </c>
       <c r="M18">
-        <v>0.9740491861506814</v>
+        <v>0.9740491861506811</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9516542056123999</v>
+        <v>0.951654205612396</v>
       </c>
       <c r="D19">
-        <v>0.9775371130700716</v>
+        <v>0.9775371130700689</v>
       </c>
       <c r="E19">
-        <v>0.9617555965791781</v>
+        <v>0.9617555965791745</v>
       </c>
       <c r="F19">
-        <v>0.9605744953748576</v>
+        <v>0.9605744953748547</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023033200872673</v>
+        <v>1.023033200872671</v>
       </c>
       <c r="J19">
-        <v>0.9805306834590158</v>
+        <v>0.9805306834590125</v>
       </c>
       <c r="K19">
-        <v>0.991688492519906</v>
+        <v>0.9916884925199032</v>
       </c>
       <c r="L19">
-        <v>0.976200537367984</v>
+        <v>0.9762005373679803</v>
       </c>
       <c r="M19">
-        <v>0.9750419140856783</v>
+        <v>0.9750419140856754</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9466988561270242</v>
+        <v>0.9466988561270266</v>
       </c>
       <c r="D20">
-        <v>0.9736499415786062</v>
+        <v>0.9736499415786077</v>
       </c>
       <c r="E20">
-        <v>0.9570674436728738</v>
+        <v>0.957067443672876</v>
       </c>
       <c r="F20">
-        <v>0.9556859625916495</v>
+        <v>0.9556859625916512</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.020929229755717</v>
+        <v>1.020929229755718</v>
       </c>
       <c r="J20">
-        <v>0.9764511852033854</v>
+        <v>0.9764511852033873</v>
       </c>
       <c r="K20">
-        <v>0.9881725087864744</v>
+        <v>0.9881725087864761</v>
       </c>
       <c r="L20">
-        <v>0.9719096925500565</v>
+        <v>0.9719096925500587</v>
       </c>
       <c r="M20">
-        <v>0.9705555017766035</v>
+        <v>0.9705555017766052</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9295771012076046</v>
+        <v>0.9295771012076053</v>
       </c>
       <c r="D21">
-        <v>0.9602285709975736</v>
+        <v>0.9602285709975742</v>
       </c>
       <c r="E21">
-        <v>0.9408878471272634</v>
+        <v>0.9408878471272643</v>
       </c>
       <c r="F21">
-        <v>0.9388216636776638</v>
+        <v>0.9388216636776644</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.013632120398076</v>
       </c>
       <c r="J21">
-        <v>0.9623456718035273</v>
+        <v>0.9623456718035277</v>
       </c>
       <c r="K21">
-        <v>0.9760047415086797</v>
+        <v>0.9760047415086802</v>
       </c>
       <c r="L21">
-        <v>0.9570828764994128</v>
+        <v>0.9570828764994133</v>
       </c>
       <c r="M21">
-        <v>0.9550627996882387</v>
+        <v>0.9550627996882393</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9178943950278499</v>
+        <v>0.9178943950278479</v>
       </c>
       <c r="D22">
-        <v>0.9510820239438369</v>
+        <v>0.9510820239438356</v>
       </c>
       <c r="E22">
-        <v>0.9298653764910557</v>
+        <v>0.9298653764910543</v>
       </c>
       <c r="F22">
-        <v>0.9273377314685777</v>
+        <v>0.9273377314685758</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.008632809807612</v>
+        <v>1.008632809807611</v>
       </c>
       <c r="J22">
-        <v>0.9527148261817783</v>
+        <v>0.9527148261817766</v>
       </c>
       <c r="K22">
-        <v>0.967689099140037</v>
+        <v>0.9676890991400353</v>
       </c>
       <c r="L22">
-        <v>0.9469671658304498</v>
+        <v>0.9469671658304484</v>
       </c>
       <c r="M22">
-        <v>0.9445004876034487</v>
+        <v>0.9445004876034468</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9241852891034122</v>
+        <v>0.9241852891034116</v>
       </c>
       <c r="D23">
-        <v>0.9560059356824432</v>
+        <v>0.9560059356824429</v>
       </c>
       <c r="E23">
-        <v>0.9357989594890282</v>
+        <v>0.935798959489028</v>
       </c>
       <c r="F23">
-        <v>0.9335192927800331</v>
+        <v>0.9335192927800325</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.011326613948812</v>
+        <v>1.011326613948811</v>
       </c>
       <c r="J23">
-        <v>0.9579012900311185</v>
+        <v>0.957901290031118</v>
       </c>
       <c r="K23">
-        <v>0.9721679743377473</v>
+        <v>0.9721679743377469</v>
       </c>
       <c r="L23">
-        <v>0.9524140242716627</v>
+        <v>0.9524140242716623</v>
       </c>
       <c r="M23">
-        <v>0.9501871135027249</v>
+        <v>0.9501871135027244</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9469724528727063</v>
+        <v>0.9469724528727101</v>
       </c>
       <c r="D24">
-        <v>0.9738645346065092</v>
+        <v>0.9738645346065127</v>
       </c>
       <c r="E24">
-        <v>0.9573262245957102</v>
+        <v>0.9573262245957139</v>
       </c>
       <c r="F24">
-        <v>0.9559557787910151</v>
+        <v>0.9559557787910189</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021045496864677</v>
+        <v>1.021045496864679</v>
       </c>
       <c r="J24">
-        <v>0.9766764635723288</v>
+        <v>0.9766764635723327</v>
       </c>
       <c r="K24">
-        <v>0.9883667084681543</v>
+        <v>0.9883667084681577</v>
       </c>
       <c r="L24">
-        <v>0.9721466081560612</v>
+        <v>0.9721466081560652</v>
       </c>
       <c r="M24">
-        <v>0.9708031796717022</v>
+        <v>0.9708031796717059</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9702614968600818</v>
+        <v>0.9702614968600817</v>
       </c>
       <c r="D25">
         <v>0.9921399795986838</v>
       </c>
       <c r="E25">
-        <v>0.9793808518698455</v>
+        <v>0.9793808518698454</v>
       </c>
       <c r="F25">
-        <v>0.9789629546132075</v>
+        <v>0.9789629546132074</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.030894270630363</v>
       </c>
       <c r="J25">
-        <v>0.9958328689631433</v>
+        <v>0.9958328689631432</v>
       </c>
       <c r="K25">
         <v>1.004861550133183</v>
       </c>
       <c r="L25">
-        <v>0.992307915367575</v>
+        <v>0.9923079153675749</v>
       </c>
       <c r="M25">
-        <v>0.9918968650559941</v>
+        <v>0.9918968650559939</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_54/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.986949389690548</v>
+        <v>0.9869493896905469</v>
       </c>
       <c r="D2">
         <v>1.005238646451356</v>
       </c>
       <c r="E2">
-        <v>0.995215880073671</v>
+        <v>0.9952158800736696</v>
       </c>
       <c r="F2">
-        <v>0.9954998739642072</v>
+        <v>0.9954998739642061</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.037879945943604</v>
       </c>
       <c r="J2">
-        <v>1.009527574386751</v>
+        <v>1.009527574386749</v>
       </c>
       <c r="K2">
-        <v>1.016625477898962</v>
+        <v>1.016625477898961</v>
       </c>
       <c r="L2">
-        <v>1.006742270134419</v>
+        <v>1.006742270134418</v>
       </c>
       <c r="M2">
-        <v>1.007022260770397</v>
+        <v>1.007022260770396</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,10 +459,10 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9981989827238018</v>
+        <v>0.9981989827238015</v>
       </c>
       <c r="D3">
-        <v>1.014065202737815</v>
+        <v>1.014065202737814</v>
       </c>
       <c r="E3">
         <v>1.005905080427045</v>
@@ -477,10 +477,10 @@
         <v>1.042546225602256</v>
       </c>
       <c r="J3">
-        <v>1.018738865989571</v>
+        <v>1.01873886598957</v>
       </c>
       <c r="K3">
-        <v>1.024521224988083</v>
+        <v>1.024521224988082</v>
       </c>
       <c r="L3">
         <v>1.016462958124688</v>
@@ -521,7 +521,7 @@
         <v>1.029372202185614</v>
       </c>
       <c r="L4">
-        <v>1.022450377029356</v>
+        <v>1.022450377029357</v>
       </c>
       <c r="M4">
         <v>1.023510430365596</v>
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007974425587127</v>
+        <v>1.00797442558713</v>
       </c>
       <c r="D5">
-        <v>1.02173003057209</v>
+        <v>1.021730030572092</v>
       </c>
       <c r="E5">
-        <v>1.015202968253406</v>
+        <v>1.015202968253408</v>
       </c>
       <c r="F5">
-        <v>1.01640136568468</v>
+        <v>1.016401365684683</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0465675577729</v>
+        <v>1.046567557772901</v>
       </c>
       <c r="J5">
-        <v>1.026726484798691</v>
+        <v>1.026726484798694</v>
       </c>
       <c r="K5">
-        <v>1.031354872901043</v>
+        <v>1.031354872901045</v>
       </c>
       <c r="L5">
-        <v>1.024901216784983</v>
+        <v>1.024901216784986</v>
       </c>
       <c r="M5">
-        <v>1.026086049441042</v>
+        <v>1.026086049441044</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,7 +573,7 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008447104241205</v>
+        <v>1.008447104241206</v>
       </c>
       <c r="D6">
         <v>1.022100490831278</v>
@@ -620,7 +620,7 @@
         <v>1.01253689530953</v>
       </c>
       <c r="F7">
-        <v>1.013611173518143</v>
+        <v>1.013611173518142</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,7 +629,7 @@
         <v>1.045418334276986</v>
       </c>
       <c r="J7">
-        <v>1.024438628962221</v>
+        <v>1.02443862896222</v>
       </c>
       <c r="K7">
         <v>1.029398911222976</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9908271434564153</v>
+        <v>0.9908271434564145</v>
       </c>
       <c r="D8">
         <v>1.008281695218733</v>
       </c>
       <c r="E8">
-        <v>0.9988991529313872</v>
+        <v>0.9988991529313861</v>
       </c>
       <c r="F8">
-        <v>0.9993490412245056</v>
+        <v>0.999349041224505</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03949270728502</v>
+        <v>1.039492707285019</v>
       </c>
       <c r="J8">
-        <v>1.012704818661407</v>
+        <v>1.012704818661406</v>
       </c>
       <c r="K8">
         <v>1.019350642188095</v>
       </c>
       <c r="L8">
-        <v>1.010094056567224</v>
+        <v>1.010094056567223</v>
       </c>
       <c r="M8">
-        <v>1.010537837386026</v>
+        <v>1.010537837386025</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.962523832928299</v>
+        <v>0.9625238329282992</v>
       </c>
       <c r="D9">
-        <v>0.9860666151781267</v>
+        <v>0.986066615178127</v>
       </c>
       <c r="E9">
-        <v>0.9720475202771172</v>
+        <v>0.9720475202771173</v>
       </c>
       <c r="F9">
-        <v>0.9713100303935663</v>
+        <v>0.9713100303935671</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.027633471846285</v>
       </c>
       <c r="J9">
-        <v>0.9894731026506769</v>
+        <v>0.9894731026506772</v>
       </c>
       <c r="K9">
-        <v>0.9993898706842981</v>
+        <v>0.9993898706842985</v>
       </c>
       <c r="L9">
-        <v>0.9856109941069509</v>
+        <v>0.985610994106951</v>
       </c>
       <c r="M9">
-        <v>0.9848863898541973</v>
+        <v>0.9848863898541981</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9409277403120094</v>
+        <v>0.9409277403120063</v>
       </c>
       <c r="D10">
-        <v>0.9691242518698809</v>
+        <v>0.9691242518698786</v>
       </c>
       <c r="E10">
-        <v>0.9516105832692946</v>
+        <v>0.9516105832692917</v>
       </c>
       <c r="F10">
-        <v>0.9499970581478616</v>
+        <v>0.949997058147859</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.018474127036876</v>
+        <v>1.018474127036875</v>
       </c>
       <c r="J10">
-        <v>0.9716982941423515</v>
+        <v>0.9716982941423488</v>
       </c>
       <c r="K10">
-        <v>0.9840742894731943</v>
+        <v>0.9840742894731919</v>
       </c>
       <c r="L10">
-        <v>0.9669121705651627</v>
+        <v>0.9669121705651598</v>
       </c>
       <c r="M10">
-        <v>0.9653318945412865</v>
+        <v>0.965331894541284</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,13 +763,13 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9307119996683659</v>
+        <v>0.9307119996683656</v>
       </c>
       <c r="D11">
         <v>0.9611176397814242</v>
       </c>
       <c r="E11">
-        <v>0.9419593700310287</v>
+        <v>0.9419593700310286</v>
       </c>
       <c r="F11">
         <v>0.9399382411752977</v>
@@ -778,19 +778,19 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.01411697600979</v>
+        <v>1.014116976009791</v>
       </c>
       <c r="J11">
-        <v>0.9632810298672396</v>
+        <v>0.9632810298672397</v>
       </c>
       <c r="K11">
         <v>0.9768120599570825</v>
       </c>
       <c r="L11">
-        <v>0.9580656390000845</v>
+        <v>0.9580656390000843</v>
       </c>
       <c r="M11">
-        <v>0.9560892621580407</v>
+        <v>0.9560892621580406</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9267620969476624</v>
+        <v>0.9267620969476632</v>
       </c>
       <c r="D12">
-        <v>0.9580237145127047</v>
+        <v>0.9580237145127056</v>
       </c>
       <c r="E12">
-        <v>0.9382306172260546</v>
+        <v>0.9382306172260553</v>
       </c>
       <c r="F12">
-        <v>0.9360528621313872</v>
+        <v>0.9360528621313883</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.012428843235464</v>
       </c>
       <c r="J12">
-        <v>0.9600254213716247</v>
+        <v>0.9600254213716256</v>
       </c>
       <c r="K12">
-        <v>0.9740018592662847</v>
+        <v>0.9740018592662854</v>
       </c>
       <c r="L12">
-        <v>0.9546452806681233</v>
+        <v>0.9546452806681238</v>
       </c>
       <c r="M12">
-        <v>0.9525170595113363</v>
+        <v>0.9525170595113372</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9276168863858123</v>
+        <v>0.9276168863858113</v>
       </c>
       <c r="D13">
-        <v>0.9586931694976998</v>
+        <v>0.9586931694976989</v>
       </c>
       <c r="E13">
-        <v>0.9390374104483802</v>
+        <v>0.9390374104483793</v>
       </c>
       <c r="F13">
-        <v>0.9368935076724457</v>
+        <v>0.9368935076724452</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.012794318805832</v>
+        <v>1.012794318805831</v>
       </c>
       <c r="J13">
-        <v>0.9607300034045512</v>
+        <v>0.9607300034045505</v>
       </c>
       <c r="K13">
-        <v>0.9746101037621626</v>
+        <v>0.974610103762162</v>
       </c>
       <c r="L13">
-        <v>0.9553854598016499</v>
+        <v>0.9553854598016488</v>
       </c>
       <c r="M13">
-        <v>0.9532900400723077</v>
+        <v>0.953290040072307</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9303888426912421</v>
+        <v>0.9303888426912428</v>
       </c>
       <c r="D14">
-        <v>0.9608644726306912</v>
+        <v>0.960864472630692</v>
       </c>
       <c r="E14">
-        <v>0.9416542453660508</v>
+        <v>0.9416542453660517</v>
       </c>
       <c r="F14">
-        <v>0.9396202830519557</v>
+        <v>0.9396202830519567</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.013978931099141</v>
       </c>
       <c r="J14">
-        <v>0.9630146956910421</v>
+        <v>0.9630146956910429</v>
       </c>
       <c r="K14">
-        <v>0.9765821897853096</v>
+        <v>0.9765821897853103</v>
       </c>
       <c r="L14">
-        <v>0.9577858010004572</v>
+        <v>0.9577858010004578</v>
       </c>
       <c r="M14">
-        <v>0.9557969748421823</v>
+        <v>0.9557969748421836</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9320752640447965</v>
+        <v>0.9320752640447978</v>
       </c>
       <c r="D15">
-        <v>0.9621857239557058</v>
+        <v>0.9621857239557068</v>
       </c>
       <c r="E15">
-        <v>0.9432466823402662</v>
+        <v>0.9432466823402675</v>
       </c>
       <c r="F15">
-        <v>0.9412797313557306</v>
+        <v>0.9412797313557314</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.014699192584909</v>
       </c>
       <c r="J15">
-        <v>0.9644045408154887</v>
+        <v>0.9644045408154899</v>
       </c>
       <c r="K15">
-        <v>0.9777816971647567</v>
+        <v>0.9777816971647576</v>
       </c>
       <c r="L15">
-        <v>0.9592461666293851</v>
+        <v>0.9592461666293864</v>
       </c>
       <c r="M15">
-        <v>0.9573223609393491</v>
+        <v>0.9573223609393497</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9415855045772012</v>
+        <v>0.9415855045772045</v>
       </c>
       <c r="D16">
-        <v>0.9696399838374921</v>
+        <v>0.9696399838374948</v>
       </c>
       <c r="E16">
-        <v>0.9522323619170908</v>
+        <v>0.9522323619170941</v>
       </c>
       <c r="F16">
-        <v>0.9506452156463879</v>
+        <v>0.9506452156463906</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.018754193513745</v>
+        <v>1.018754193513747</v>
       </c>
       <c r="J16">
-        <v>0.9722400959005081</v>
+        <v>0.9722400959005112</v>
       </c>
       <c r="K16">
-        <v>0.9845415581369443</v>
+        <v>0.9845415581369471</v>
       </c>
       <c r="L16">
-        <v>0.9674817744215378</v>
+        <v>0.967481774421541</v>
       </c>
       <c r="M16">
-        <v>0.9659271786532576</v>
+        <v>0.9659271786532602</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.94730379786493</v>
+        <v>0.9473037978649329</v>
       </c>
       <c r="D17">
-        <v>0.9741244263803654</v>
+        <v>0.9741244263803679</v>
       </c>
       <c r="E17">
-        <v>0.9576396365125401</v>
+        <v>0.957639636512543</v>
       </c>
       <c r="F17">
-        <v>0.9562825595253639</v>
+        <v>0.9562825595253664</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021186288976343</v>
+        <v>1.021186288976345</v>
       </c>
       <c r="J17">
-        <v>0.9769492856447023</v>
+        <v>0.9769492856447052</v>
       </c>
       <c r="K17">
-        <v>0.9886018867983162</v>
+        <v>0.9886018867983187</v>
       </c>
       <c r="L17">
-        <v>0.9724335286495458</v>
+        <v>0.9724335286495487</v>
       </c>
       <c r="M17">
-        <v>0.9711031395204015</v>
+        <v>0.9711031395204043</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9505578134215709</v>
+        <v>0.9505578134215714</v>
       </c>
       <c r="D18">
-        <v>0.9766769743428489</v>
+        <v>0.9766769743428493</v>
       </c>
       <c r="E18">
-        <v>0.9607181144106232</v>
+        <v>0.9607181144106236</v>
       </c>
       <c r="F18">
-        <v>0.9594925836272218</v>
+        <v>0.9594925836272221</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.022568030879567</v>
       </c>
       <c r="J18">
-        <v>0.9796282114198405</v>
+        <v>0.9796282114198409</v>
       </c>
       <c r="K18">
-        <v>0.990910815740301</v>
+        <v>0.9909108157403015</v>
       </c>
       <c r="L18">
-        <v>0.9752511982261314</v>
+        <v>0.9752511982261319</v>
       </c>
       <c r="M18">
-        <v>0.9740491861506811</v>
+        <v>0.9740491861506814</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.951654205612396</v>
+        <v>0.9516542056123999</v>
       </c>
       <c r="D19">
-        <v>0.9775371130700689</v>
+        <v>0.9775371130700716</v>
       </c>
       <c r="E19">
-        <v>0.9617555965791745</v>
+        <v>0.9617555965791781</v>
       </c>
       <c r="F19">
-        <v>0.9605744953748547</v>
+        <v>0.9605744953748576</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023033200872671</v>
+        <v>1.023033200872673</v>
       </c>
       <c r="J19">
-        <v>0.9805306834590125</v>
+        <v>0.9805306834590158</v>
       </c>
       <c r="K19">
-        <v>0.9916884925199032</v>
+        <v>0.991688492519906</v>
       </c>
       <c r="L19">
-        <v>0.9762005373679803</v>
+        <v>0.976200537367984</v>
       </c>
       <c r="M19">
-        <v>0.9750419140856754</v>
+        <v>0.9750419140856783</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9466988561270266</v>
+        <v>0.9466988561270242</v>
       </c>
       <c r="D20">
-        <v>0.9736499415786077</v>
+        <v>0.9736499415786062</v>
       </c>
       <c r="E20">
-        <v>0.957067443672876</v>
+        <v>0.9570674436728738</v>
       </c>
       <c r="F20">
-        <v>0.9556859625916512</v>
+        <v>0.9556859625916495</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.020929229755718</v>
+        <v>1.020929229755717</v>
       </c>
       <c r="J20">
-        <v>0.9764511852033873</v>
+        <v>0.9764511852033854</v>
       </c>
       <c r="K20">
-        <v>0.9881725087864761</v>
+        <v>0.9881725087864744</v>
       </c>
       <c r="L20">
-        <v>0.9719096925500587</v>
+        <v>0.9719096925500565</v>
       </c>
       <c r="M20">
-        <v>0.9705555017766052</v>
+        <v>0.9705555017766035</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9295771012076053</v>
+        <v>0.9295771012076046</v>
       </c>
       <c r="D21">
-        <v>0.9602285709975742</v>
+        <v>0.9602285709975736</v>
       </c>
       <c r="E21">
-        <v>0.9408878471272643</v>
+        <v>0.9408878471272634</v>
       </c>
       <c r="F21">
-        <v>0.9388216636776644</v>
+        <v>0.9388216636776638</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.013632120398076</v>
       </c>
       <c r="J21">
-        <v>0.9623456718035277</v>
+        <v>0.9623456718035273</v>
       </c>
       <c r="K21">
-        <v>0.9760047415086802</v>
+        <v>0.9760047415086797</v>
       </c>
       <c r="L21">
-        <v>0.9570828764994133</v>
+        <v>0.9570828764994128</v>
       </c>
       <c r="M21">
-        <v>0.9550627996882393</v>
+        <v>0.9550627996882387</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9178943950278479</v>
+        <v>0.9178943950278499</v>
       </c>
       <c r="D22">
-        <v>0.9510820239438356</v>
+        <v>0.9510820239438369</v>
       </c>
       <c r="E22">
-        <v>0.9298653764910543</v>
+        <v>0.9298653764910557</v>
       </c>
       <c r="F22">
-        <v>0.9273377314685758</v>
+        <v>0.9273377314685777</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.008632809807611</v>
+        <v>1.008632809807612</v>
       </c>
       <c r="J22">
-        <v>0.9527148261817766</v>
+        <v>0.9527148261817783</v>
       </c>
       <c r="K22">
-        <v>0.9676890991400353</v>
+        <v>0.967689099140037</v>
       </c>
       <c r="L22">
-        <v>0.9469671658304484</v>
+        <v>0.9469671658304498</v>
       </c>
       <c r="M22">
-        <v>0.9445004876034468</v>
+        <v>0.9445004876034487</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9241852891034116</v>
+        <v>0.9241852891034122</v>
       </c>
       <c r="D23">
-        <v>0.9560059356824429</v>
+        <v>0.9560059356824432</v>
       </c>
       <c r="E23">
-        <v>0.935798959489028</v>
+        <v>0.9357989594890282</v>
       </c>
       <c r="F23">
-        <v>0.9335192927800325</v>
+        <v>0.9335192927800331</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.011326613948811</v>
+        <v>1.011326613948812</v>
       </c>
       <c r="J23">
-        <v>0.957901290031118</v>
+        <v>0.9579012900311185</v>
       </c>
       <c r="K23">
-        <v>0.9721679743377469</v>
+        <v>0.9721679743377473</v>
       </c>
       <c r="L23">
-        <v>0.9524140242716623</v>
+        <v>0.9524140242716627</v>
       </c>
       <c r="M23">
-        <v>0.9501871135027244</v>
+        <v>0.9501871135027249</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9469724528727101</v>
+        <v>0.9469724528727063</v>
       </c>
       <c r="D24">
-        <v>0.9738645346065127</v>
+        <v>0.9738645346065092</v>
       </c>
       <c r="E24">
-        <v>0.9573262245957139</v>
+        <v>0.9573262245957102</v>
       </c>
       <c r="F24">
-        <v>0.9559557787910189</v>
+        <v>0.9559557787910151</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021045496864679</v>
+        <v>1.021045496864677</v>
       </c>
       <c r="J24">
-        <v>0.9766764635723327</v>
+        <v>0.9766764635723288</v>
       </c>
       <c r="K24">
-        <v>0.9883667084681577</v>
+        <v>0.9883667084681543</v>
       </c>
       <c r="L24">
-        <v>0.9721466081560652</v>
+        <v>0.9721466081560612</v>
       </c>
       <c r="M24">
-        <v>0.9708031796717059</v>
+        <v>0.9708031796717022</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9702614968600817</v>
+        <v>0.9702614968600818</v>
       </c>
       <c r="D25">
         <v>0.9921399795986838</v>
       </c>
       <c r="E25">
-        <v>0.9793808518698454</v>
+        <v>0.9793808518698455</v>
       </c>
       <c r="F25">
-        <v>0.9789629546132074</v>
+        <v>0.9789629546132075</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.030894270630363</v>
       </c>
       <c r="J25">
-        <v>0.9958328689631432</v>
+        <v>0.9958328689631433</v>
       </c>
       <c r="K25">
         <v>1.004861550133183</v>
       </c>
       <c r="L25">
-        <v>0.9923079153675749</v>
+        <v>0.992307915367575</v>
       </c>
       <c r="M25">
-        <v>0.9918968650559939</v>
+        <v>0.9918968650559941</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_54/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9869493896905469</v>
+        <v>0.9899725427027648</v>
       </c>
       <c r="D2">
-        <v>1.005238646451356</v>
+        <v>1.007589906384566</v>
       </c>
       <c r="E2">
-        <v>0.9952158800736696</v>
+        <v>0.9982174551217293</v>
       </c>
       <c r="F2">
-        <v>0.9954998739642061</v>
+        <v>0.9980756968800903</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037879945943604</v>
+        <v>1.039268190016855</v>
       </c>
       <c r="J2">
-        <v>1.009527574386749</v>
+        <v>1.012457366462728</v>
       </c>
       <c r="K2">
-        <v>1.016625477898961</v>
+        <v>1.018944504859874</v>
       </c>
       <c r="L2">
-        <v>1.006742270134418</v>
+        <v>1.009701679614778</v>
       </c>
       <c r="M2">
-        <v>1.007022260770396</v>
+        <v>1.009561905561685</v>
+      </c>
+      <c r="N2">
+        <v>1.013895172053588</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9981989827238015</v>
+        <v>1.001184400954054</v>
       </c>
       <c r="D3">
-        <v>1.014065202737814</v>
+        <v>1.016389491823451</v>
       </c>
       <c r="E3">
-        <v>1.005905080427045</v>
+        <v>1.008873372374421</v>
       </c>
       <c r="F3">
-        <v>1.006673628030486</v>
+        <v>1.009211262296418</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042546225602256</v>
+        <v>1.043920167564015</v>
       </c>
       <c r="J3">
-        <v>1.01873886598957</v>
+        <v>1.021642829997693</v>
       </c>
       <c r="K3">
-        <v>1.024521224988082</v>
+        <v>1.026816874423216</v>
       </c>
       <c r="L3">
-        <v>1.016462958124688</v>
+        <v>1.019393961875146</v>
       </c>
       <c r="M3">
-        <v>1.017221824784394</v>
+        <v>1.019727624499492</v>
+      </c>
+      <c r="N3">
+        <v>1.02309368000036</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005134116915668</v>
+        <v>1.008098467043964</v>
       </c>
       <c r="D4">
-        <v>1.019503604929015</v>
+        <v>1.021812931787857</v>
       </c>
       <c r="E4">
-        <v>1.01250051696991</v>
+        <v>1.015450292669074</v>
       </c>
       <c r="F4">
-        <v>1.013573106542175</v>
+        <v>1.016089253962244</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045402631174207</v>
+        <v>1.046768740956597</v>
       </c>
       <c r="J4">
-        <v>1.024407397039727</v>
+        <v>1.027297257595585</v>
       </c>
       <c r="K4">
-        <v>1.029372202185614</v>
+        <v>1.031655033382111</v>
       </c>
       <c r="L4">
-        <v>1.022450377029357</v>
+        <v>1.025365755067917</v>
       </c>
       <c r="M4">
-        <v>1.023510430365596</v>
+        <v>1.025997297890983</v>
+      </c>
+      <c r="N4">
+        <v>1.028756137534013</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00797442558713</v>
+        <v>1.010930609035958</v>
       </c>
       <c r="D5">
-        <v>1.021730030572092</v>
+        <v>1.024033581601349</v>
       </c>
       <c r="E5">
-        <v>1.015202968253408</v>
+        <v>1.01814558217535</v>
       </c>
       <c r="F5">
-        <v>1.016401365684683</v>
+        <v>1.018909145391658</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046567557772901</v>
+        <v>1.047930669126741</v>
       </c>
       <c r="J5">
-        <v>1.026726484798694</v>
+        <v>1.02961095354605</v>
       </c>
       <c r="K5">
-        <v>1.031354872901045</v>
+        <v>1.033632791977489</v>
       </c>
       <c r="L5">
-        <v>1.024901216784986</v>
+        <v>1.027810593269018</v>
       </c>
       <c r="M5">
-        <v>1.026086049441044</v>
+        <v>1.028565570516359</v>
+      </c>
+      <c r="N5">
+        <v>1.031073119198113</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008447104241206</v>
+        <v>1.011401954132335</v>
       </c>
       <c r="D6">
-        <v>1.022100490831278</v>
+        <v>1.024403100161686</v>
       </c>
       <c r="E6">
-        <v>1.015652776374295</v>
+        <v>1.018594221757748</v>
       </c>
       <c r="F6">
-        <v>1.016872186461503</v>
+        <v>1.01937859751421</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046761130962006</v>
+        <v>1.0481237549489</v>
       </c>
       <c r="J6">
-        <v>1.027112275024012</v>
+        <v>1.029995867761617</v>
       </c>
       <c r="K6">
-        <v>1.031684583583605</v>
+        <v>1.033961703922168</v>
       </c>
       <c r="L6">
-        <v>1.025309000245873</v>
+        <v>1.028217399994025</v>
       </c>
       <c r="M6">
-        <v>1.026514682311512</v>
+        <v>1.028993003333247</v>
+      </c>
+      <c r="N6">
+        <v>1.031458580036015</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005172356123013</v>
+        <v>1.008136594545431</v>
       </c>
       <c r="D7">
-        <v>1.019533583157976</v>
+        <v>1.021842830914768</v>
       </c>
       <c r="E7">
-        <v>1.01253689530953</v>
+        <v>1.015486572984529</v>
       </c>
       <c r="F7">
-        <v>1.013611173518142</v>
+        <v>1.016127206638601</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045418334276986</v>
+        <v>1.046784402892268</v>
       </c>
       <c r="J7">
-        <v>1.02443862896222</v>
+        <v>1.02732841546339</v>
       </c>
       <c r="K7">
-        <v>1.029398911222976</v>
+        <v>1.031681674999418</v>
       </c>
       <c r="L7">
-        <v>1.022483378183616</v>
+        <v>1.025398673906804</v>
       </c>
       <c r="M7">
-        <v>1.023545105766492</v>
+        <v>1.026031872835526</v>
+      </c>
+      <c r="N7">
+        <v>1.028787339649565</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9908271434564145</v>
+        <v>0.9938367755147977</v>
       </c>
       <c r="D8">
-        <v>1.008281695218733</v>
+        <v>1.01062326973785</v>
       </c>
       <c r="E8">
-        <v>0.9988991529313861</v>
+        <v>1.001888786804129</v>
       </c>
       <c r="F8">
-        <v>0.999349041224505</v>
+        <v>1.00191121905494</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039492707285019</v>
+        <v>1.040875792279556</v>
       </c>
       <c r="J8">
-        <v>1.012704818661406</v>
+        <v>1.015625283015678</v>
       </c>
       <c r="K8">
-        <v>1.019350642188095</v>
+        <v>1.021661239455138</v>
       </c>
       <c r="L8">
-        <v>1.010094056567223</v>
+        <v>1.01304323391449</v>
       </c>
       <c r="M8">
-        <v>1.010537837386025</v>
+        <v>1.013065363753432</v>
+      </c>
+      <c r="N8">
+        <v>1.017067587411408</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9625238329282992</v>
+        <v>0.9656457713946704</v>
       </c>
       <c r="D9">
-        <v>0.986066615178127</v>
+        <v>0.9884891138529752</v>
       </c>
       <c r="E9">
-        <v>0.9720475202771173</v>
+        <v>0.9751367159009605</v>
       </c>
       <c r="F9">
-        <v>0.9713100303935671</v>
+        <v>0.973984576175104</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027633471846285</v>
+        <v>1.029060206255517</v>
       </c>
       <c r="J9">
-        <v>0.9894731026506772</v>
+        <v>0.9924728476749218</v>
       </c>
       <c r="K9">
-        <v>0.9993898706842985</v>
+        <v>1.001771749384207</v>
       </c>
       <c r="L9">
-        <v>0.985610994106951</v>
+        <v>0.9886464884852081</v>
       </c>
       <c r="M9">
-        <v>0.9848863898541981</v>
+        <v>0.9875143255060259</v>
+      </c>
+      <c r="N9">
+        <v>0.9938822729568469</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>0.9409277403120063</v>
+        <v>0.9441596745458293</v>
       </c>
       <c r="D10">
-        <v>0.9691242518698786</v>
+        <v>0.9716266264864889</v>
       </c>
       <c r="E10">
-        <v>0.9516105832692917</v>
+        <v>0.9547978537633028</v>
       </c>
       <c r="F10">
-        <v>0.949997058147859</v>
+        <v>0.9527801632050052</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.018474127036875</v>
+        <v>1.019944716687925</v>
       </c>
       <c r="J10">
-        <v>0.9716982941423488</v>
+        <v>0.9747784013462304</v>
       </c>
       <c r="K10">
-        <v>0.9840742894731919</v>
+        <v>0.9865277909824965</v>
       </c>
       <c r="L10">
-        <v>0.9669121705651598</v>
+        <v>0.9700341978777209</v>
       </c>
       <c r="M10">
-        <v>0.965331894541284</v>
+        <v>0.9680577424144964</v>
+      </c>
+      <c r="N10">
+        <v>0.9761626984847878</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9307119996683656</v>
+        <v>0.9340048209003432</v>
       </c>
       <c r="D11">
-        <v>0.9611176397814242</v>
+        <v>0.9636643562624491</v>
       </c>
       <c r="E11">
-        <v>0.9419593700310286</v>
+        <v>0.945201075728983</v>
       </c>
       <c r="F11">
-        <v>0.9399382411752977</v>
+        <v>0.9427810219386094</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.014116976009791</v>
+        <v>1.015612102861459</v>
       </c>
       <c r="J11">
-        <v>0.9632810298672397</v>
+        <v>0.9664063485097775</v>
       </c>
       <c r="K11">
-        <v>0.9768120599570825</v>
+        <v>0.9793056579857908</v>
       </c>
       <c r="L11">
-        <v>0.9580656390000843</v>
+        <v>0.9612360975972801</v>
       </c>
       <c r="M11">
-        <v>0.9560892621580406</v>
+        <v>0.9588691707690848</v>
+      </c>
+      <c r="N11">
+        <v>0.967778756373019</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9267620969476632</v>
+        <v>0.9300801852874113</v>
       </c>
       <c r="D12">
-        <v>0.9580237145127056</v>
+        <v>0.9605888489222321</v>
       </c>
       <c r="E12">
-        <v>0.9382306172260553</v>
+        <v>0.9414949357522904</v>
       </c>
       <c r="F12">
-        <v>0.9360528621313883</v>
+        <v>0.9389203388610713</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.012428843235464</v>
+        <v>1.013934191627841</v>
       </c>
       <c r="J12">
-        <v>0.9600254213716256</v>
+        <v>0.9631696193197021</v>
       </c>
       <c r="K12">
-        <v>0.9740018592662854</v>
+        <v>0.9765121659925884</v>
       </c>
       <c r="L12">
-        <v>0.9546452806681238</v>
+        <v>0.9578359228738555</v>
       </c>
       <c r="M12">
-        <v>0.9525170595113372</v>
+        <v>0.9553193782069517</v>
+      </c>
+      <c r="N12">
+        <v>0.9645374306562357</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9276168863858113</v>
+        <v>0.9309294210985071</v>
       </c>
       <c r="D13">
-        <v>0.9586931694976989</v>
+        <v>0.9612542550049298</v>
       </c>
       <c r="E13">
-        <v>0.9390374104483793</v>
+        <v>0.9422967577050283</v>
       </c>
       <c r="F13">
-        <v>0.9368935076724452</v>
+        <v>0.9397555594632606</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.012794318805831</v>
+        <v>1.014297418806883</v>
       </c>
       <c r="J13">
-        <v>0.9607300034045505</v>
+        <v>0.9638700463832126</v>
       </c>
       <c r="K13">
-        <v>0.974610103762162</v>
+        <v>0.9771167348608715</v>
       </c>
       <c r="L13">
-        <v>0.9553854598016488</v>
+        <v>0.9585716618191606</v>
       </c>
       <c r="M13">
-        <v>0.953290040072307</v>
+        <v>0.9560874342476408</v>
+      </c>
+      <c r="N13">
+        <v>0.9652388524065164</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9303888426912428</v>
+        <v>0.9336836935811069</v>
       </c>
       <c r="D14">
-        <v>0.960864472630692</v>
+        <v>0.9634126682737419</v>
       </c>
       <c r="E14">
-        <v>0.9416542453660517</v>
+        <v>0.9448977670486102</v>
       </c>
       <c r="F14">
-        <v>0.9396202830519567</v>
+        <v>0.9424650489781378</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.013978931099141</v>
+        <v>1.015474878262218</v>
       </c>
       <c r="J14">
-        <v>0.9630146956910429</v>
+        <v>0.9661415285157933</v>
       </c>
       <c r="K14">
-        <v>0.9765821897853103</v>
+        <v>0.9790771286190407</v>
       </c>
       <c r="L14">
-        <v>0.9577858010004578</v>
+        <v>0.9609578791943224</v>
       </c>
       <c r="M14">
-        <v>0.9557969748421836</v>
+        <v>0.9585786841109366</v>
+      </c>
+      <c r="N14">
+        <v>0.9675135603042682</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9320752640447978</v>
+        <v>0.935359595201814</v>
       </c>
       <c r="D15">
-        <v>0.9621857239557068</v>
+        <v>0.9647262537313697</v>
       </c>
       <c r="E15">
-        <v>0.9432466823402675</v>
+        <v>0.9464807926699471</v>
       </c>
       <c r="F15">
-        <v>0.9412797313557314</v>
+        <v>0.9441142054521924</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.014699192584909</v>
+        <v>1.016190889591019</v>
       </c>
       <c r="J15">
-        <v>0.9644045408154899</v>
+        <v>0.9675235302583163</v>
       </c>
       <c r="K15">
-        <v>0.9777816971647576</v>
+        <v>0.9802696893152767</v>
       </c>
       <c r="L15">
-        <v>0.9592461666293864</v>
+        <v>0.9624098538152903</v>
       </c>
       <c r="M15">
-        <v>0.9573223609393497</v>
+        <v>0.960094736414878</v>
+      </c>
+      <c r="N15">
+        <v>0.9688975246477831</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9415855045772045</v>
+        <v>0.9448137274590843</v>
       </c>
       <c r="D16">
-        <v>0.9696399838374948</v>
+        <v>0.972139657854668</v>
       </c>
       <c r="E16">
-        <v>0.9522323619170941</v>
+        <v>0.955416317194919</v>
       </c>
       <c r="F16">
-        <v>0.9506452156463906</v>
+        <v>0.9534246748510345</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.018754193513747</v>
+        <v>1.020223292447749</v>
       </c>
       <c r="J16">
-        <v>0.9722400959005112</v>
+        <v>0.975317461649952</v>
       </c>
       <c r="K16">
-        <v>0.9845415581369471</v>
+        <v>0.9869926242428457</v>
       </c>
       <c r="L16">
-        <v>0.967481774421541</v>
+        <v>0.970600860117991</v>
       </c>
       <c r="M16">
-        <v>0.9659271786532602</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9686497283952813</v>
+      </c>
+      <c r="N16">
+        <v>0.9767025243159712</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9473037978649329</v>
+        <v>0.9505007609322037</v>
       </c>
       <c r="D17">
-        <v>0.9741244263803679</v>
+        <v>0.9766013665633282</v>
       </c>
       <c r="E17">
-        <v>0.957639636512543</v>
+        <v>0.9607956834770686</v>
       </c>
       <c r="F17">
-        <v>0.9562825595253664</v>
+        <v>0.9590312680421331</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021186288976345</v>
+        <v>1.022642858337512</v>
       </c>
       <c r="J17">
-        <v>0.9769492856447052</v>
+        <v>0.9800036350033177</v>
       </c>
       <c r="K17">
-        <v>0.9886018867983187</v>
+        <v>0.9910324857268255</v>
       </c>
       <c r="L17">
-        <v>0.9724335286495487</v>
+        <v>0.9755278920436807</v>
       </c>
       <c r="M17">
-        <v>0.9711031395204043</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9737978956913139</v>
+      </c>
+      <c r="N17">
+        <v>0.9813953525730105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9505578134215714</v>
+        <v>0.9537377667604445</v>
       </c>
       <c r="D18">
-        <v>0.9766769743428493</v>
+        <v>0.979141554840703</v>
       </c>
       <c r="E18">
-        <v>0.9607181144106236</v>
+        <v>0.9638589874605307</v>
       </c>
       <c r="F18">
-        <v>0.9594925836272221</v>
+        <v>0.9622245253023325</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.022568030879567</v>
+        <v>1.024017804104087</v>
       </c>
       <c r="J18">
-        <v>0.9796282114198409</v>
+        <v>0.982670096507606</v>
       </c>
       <c r="K18">
-        <v>0.9909108157403015</v>
+        <v>0.9933303149134521</v>
       </c>
       <c r="L18">
-        <v>0.9752511982261319</v>
+        <v>0.9783321529970259</v>
       </c>
       <c r="M18">
-        <v>0.9740491861506814</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9767288075267813</v>
+      </c>
+      <c r="N18">
+        <v>0.9840656007584822</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9516542056123999</v>
+        <v>0.954828550763081</v>
       </c>
       <c r="D19">
-        <v>0.9775371130700716</v>
+        <v>0.979997620392201</v>
       </c>
       <c r="E19">
-        <v>0.9617555965791781</v>
+        <v>0.9648914687491076</v>
       </c>
       <c r="F19">
-        <v>0.9605744953748576</v>
+        <v>0.9633009032840925</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023033200872673</v>
+        <v>1.024480737071561</v>
       </c>
       <c r="J19">
-        <v>0.9805306834590158</v>
+        <v>0.9835684689960877</v>
       </c>
       <c r="K19">
-        <v>0.991688492519906</v>
+        <v>0.9941043383376337</v>
       </c>
       <c r="L19">
-        <v>0.976200537367984</v>
+        <v>0.9792770785545231</v>
       </c>
       <c r="M19">
-        <v>0.9750419140856783</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9777165436315591</v>
+      </c>
+      <c r="N19">
+        <v>0.9849652490389426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9466988561270242</v>
+        <v>0.949899042602631</v>
       </c>
       <c r="D20">
-        <v>0.9736499415786062</v>
+        <v>0.9761292248748288</v>
       </c>
       <c r="E20">
-        <v>0.9570674436728738</v>
+        <v>0.960226367155857</v>
       </c>
       <c r="F20">
-        <v>0.9556859625916495</v>
+        <v>0.9584378456778876</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.020929229755717</v>
+        <v>1.02238708882149</v>
       </c>
       <c r="J20">
-        <v>0.9764511852033854</v>
+        <v>0.9795079015316387</v>
       </c>
       <c r="K20">
-        <v>0.9881725087864744</v>
+        <v>0.9906052142561199</v>
       </c>
       <c r="L20">
-        <v>0.9719096925500565</v>
+        <v>0.9750066005450352</v>
       </c>
       <c r="M20">
-        <v>0.9705555017766035</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9732531251371512</v>
+      </c>
+      <c r="N20">
+        <v>0.98089891510294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9295771012076046</v>
+        <v>0.9328770796180738</v>
       </c>
       <c r="D21">
-        <v>0.9602285709975736</v>
+        <v>0.9627805036991554</v>
       </c>
       <c r="E21">
-        <v>0.9408878471272634</v>
+        <v>0.944135956894362</v>
       </c>
       <c r="F21">
-        <v>0.9388216636776638</v>
+        <v>0.9416714436196771</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.013632120398076</v>
+        <v>1.015130140523634</v>
       </c>
       <c r="J21">
-        <v>0.9623456718035273</v>
+        <v>0.9654763317746792</v>
       </c>
       <c r="K21">
-        <v>0.9760047415086797</v>
+        <v>0.9785030687093292</v>
       </c>
       <c r="L21">
-        <v>0.9570828764994128</v>
+        <v>0.9602590476383388</v>
       </c>
       <c r="M21">
-        <v>0.9550627996882387</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9578490575611865</v>
+      </c>
+      <c r="N21">
+        <v>0.9668474189074823</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9178943950278499</v>
+        <v>0.9212730278737014</v>
       </c>
       <c r="D22">
-        <v>0.9510820239438369</v>
+        <v>0.9536913199894831</v>
       </c>
       <c r="E22">
-        <v>0.9298653764910557</v>
+        <v>0.9331839251652249</v>
       </c>
       <c r="F22">
-        <v>0.9273377314685777</v>
+        <v>0.9302642439502546</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.008632809807612</v>
+        <v>1.010162725734215</v>
       </c>
       <c r="J22">
-        <v>0.9527148261817783</v>
+        <v>0.9559044993437396</v>
       </c>
       <c r="K22">
-        <v>0.967689099140037</v>
+        <v>0.9702395786857911</v>
       </c>
       <c r="L22">
-        <v>0.9469671658304498</v>
+        <v>0.9502063437151094</v>
       </c>
       <c r="M22">
-        <v>0.9445004876034487</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9473564532439633</v>
+      </c>
+      <c r="N22">
+        <v>0.9572619933765865</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9241852891034122</v>
+        <v>0.9275204124593108</v>
       </c>
       <c r="D23">
-        <v>0.9560059356824432</v>
+        <v>0.9585834918127851</v>
       </c>
       <c r="E23">
-        <v>0.9357989594890282</v>
+        <v>0.9390785302084124</v>
       </c>
       <c r="F23">
-        <v>0.9335192927800331</v>
+        <v>0.9364033991793177</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.011326613948812</v>
+        <v>1.012838864702465</v>
       </c>
       <c r="J23">
-        <v>0.9579012900311185</v>
+        <v>0.9610582507718836</v>
       </c>
       <c r="K23">
-        <v>0.9721679743377473</v>
+        <v>0.9746895659056918</v>
       </c>
       <c r="L23">
-        <v>0.9524140242716627</v>
+        <v>0.955618299226306</v>
       </c>
       <c r="M23">
-        <v>0.9501871135027249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9530045336249037</v>
+      </c>
+      <c r="N23">
+        <v>0.962423063722902</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9469724528727063</v>
+        <v>0.9501711790937437</v>
       </c>
       <c r="D24">
-        <v>0.9738645346065092</v>
+        <v>0.9763427564014235</v>
       </c>
       <c r="E24">
-        <v>0.9573262245957102</v>
+        <v>0.96048384493218</v>
       </c>
       <c r="F24">
-        <v>0.9559557787910151</v>
+        <v>0.9587062238557043</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021045496864677</v>
+        <v>1.022502771604943</v>
       </c>
       <c r="J24">
-        <v>0.9766764635723288</v>
+        <v>0.979732107436227</v>
       </c>
       <c r="K24">
-        <v>0.9883667084681543</v>
+        <v>0.9907984595231751</v>
       </c>
       <c r="L24">
-        <v>0.9721466081560612</v>
+        <v>0.9752423632680088</v>
       </c>
       <c r="M24">
-        <v>0.9708031796717022</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9734995041857075</v>
+      </c>
+      <c r="N24">
+        <v>0.98112343940563</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9702614968600818</v>
+        <v>0.9733494529828571</v>
       </c>
       <c r="D25">
-        <v>0.9921399795986838</v>
+        <v>0.9945378977446342</v>
       </c>
       <c r="E25">
-        <v>0.9793808518698455</v>
+        <v>0.9824398431449534</v>
       </c>
       <c r="F25">
-        <v>0.9789629546132075</v>
+        <v>0.9816037033755544</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030894270630363</v>
+        <v>1.032307636325629</v>
       </c>
       <c r="J25">
-        <v>0.9958328689631433</v>
+        <v>0.9988082491134778</v>
       </c>
       <c r="K25">
-        <v>1.004861550133183</v>
+        <v>1.007221601753299</v>
       </c>
       <c r="L25">
-        <v>0.992307915367575</v>
+        <v>0.9953170151007353</v>
       </c>
       <c r="M25">
-        <v>0.9918968650559941</v>
+        <v>0.9944944729309799</v>
+      </c>
+      <c r="N25">
+        <v>1.000226671392126</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_54/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9899725427027648</v>
+        <v>0.9933355210389151</v>
       </c>
       <c r="D2">
-        <v>1.007589906384566</v>
+        <v>1.013282105661668</v>
       </c>
       <c r="E2">
-        <v>0.9982174551217293</v>
+        <v>1.001556792642592</v>
       </c>
       <c r="F2">
-        <v>0.9980756968800903</v>
+        <v>1.001699004120128</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039268190016855</v>
+        <v>1.042288276269273</v>
       </c>
       <c r="J2">
-        <v>1.012457366462728</v>
+        <v>1.015717409281001</v>
       </c>
       <c r="K2">
-        <v>1.018944504859874</v>
+        <v>1.024559449693675</v>
       </c>
       <c r="L2">
-        <v>1.009701679614778</v>
+        <v>1.012994481396318</v>
       </c>
       <c r="M2">
-        <v>1.009561905561685</v>
+        <v>1.013134719757097</v>
       </c>
       <c r="N2">
-        <v>1.013895172053588</v>
+        <v>1.017159844506595</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001184400954054</v>
+        <v>1.003283348731813</v>
       </c>
       <c r="D3">
-        <v>1.016389491823451</v>
+        <v>1.021136574385021</v>
       </c>
       <c r="E3">
-        <v>1.008873372374421</v>
+        <v>1.010960430673033</v>
       </c>
       <c r="F3">
-        <v>1.009211262296418</v>
+        <v>1.011719559721446</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043920167564015</v>
+        <v>1.046370041645035</v>
       </c>
       <c r="J3">
-        <v>1.021642829997693</v>
+        <v>1.02368490478741</v>
       </c>
       <c r="K3">
-        <v>1.026816874423216</v>
+        <v>1.031505967243672</v>
       </c>
       <c r="L3">
-        <v>1.019393961875146</v>
+        <v>1.02145496554285</v>
       </c>
       <c r="M3">
-        <v>1.019727624499492</v>
+        <v>1.022204650909496</v>
       </c>
       <c r="N3">
-        <v>1.02309368000036</v>
+        <v>1.025138654770508</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008098467043964</v>
+        <v>1.009447383637351</v>
       </c>
       <c r="D4">
-        <v>1.021812931787857</v>
+        <v>1.026006378907304</v>
       </c>
       <c r="E4">
-        <v>1.015450292669074</v>
+        <v>1.016792650786425</v>
       </c>
       <c r="F4">
-        <v>1.016089253962244</v>
+        <v>1.017939565716633</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046768740956597</v>
+        <v>1.04888282746286</v>
       </c>
       <c r="J4">
-        <v>1.027297257595585</v>
+        <v>1.028612473270202</v>
       </c>
       <c r="K4">
-        <v>1.031655033382111</v>
+        <v>1.035800743648509</v>
       </c>
       <c r="L4">
-        <v>1.025365755067917</v>
+        <v>1.026692541458893</v>
       </c>
       <c r="M4">
-        <v>1.025997297890983</v>
+        <v>1.027826192052027</v>
       </c>
       <c r="N4">
-        <v>1.028756137534013</v>
+        <v>1.030073220965746</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010930609035958</v>
+        <v>1.011978485472372</v>
       </c>
       <c r="D5">
-        <v>1.024033581601349</v>
+        <v>1.028006572001991</v>
       </c>
       <c r="E5">
-        <v>1.01814558217535</v>
+        <v>1.019188699127177</v>
       </c>
       <c r="F5">
-        <v>1.018909145391658</v>
+        <v>1.020496187051059</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047930669126741</v>
+        <v>1.049910630769912</v>
       </c>
       <c r="J5">
-        <v>1.02961095354605</v>
+        <v>1.030633544421584</v>
       </c>
       <c r="K5">
-        <v>1.033632791977489</v>
+        <v>1.037561905970848</v>
       </c>
       <c r="L5">
-        <v>1.027810593269018</v>
+        <v>1.028841984741664</v>
       </c>
       <c r="M5">
-        <v>1.028565570516359</v>
+        <v>1.030134817118301</v>
       </c>
       <c r="N5">
-        <v>1.031073119198113</v>
+        <v>1.032097162269982</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011401954132335</v>
+        <v>1.012400070701717</v>
       </c>
       <c r="D6">
-        <v>1.024403100161686</v>
+        <v>1.028339755085906</v>
       </c>
       <c r="E6">
-        <v>1.018594221757748</v>
+        <v>1.019587857519474</v>
       </c>
       <c r="F6">
-        <v>1.01937859751421</v>
+        <v>1.020922169961451</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0481237549489</v>
+        <v>1.050081585990621</v>
       </c>
       <c r="J6">
-        <v>1.029995867761617</v>
+        <v>1.030970040587402</v>
       </c>
       <c r="K6">
-        <v>1.033961703922168</v>
+        <v>1.037855106284549</v>
       </c>
       <c r="L6">
-        <v>1.028217399994025</v>
+        <v>1.029199925792648</v>
       </c>
       <c r="M6">
-        <v>1.028993003333247</v>
+        <v>1.030519360978572</v>
       </c>
       <c r="N6">
-        <v>1.031458580036015</v>
+        <v>1.032434136298952</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008136594545431</v>
+        <v>1.009481434889243</v>
       </c>
       <c r="D7">
-        <v>1.021842830914768</v>
+        <v>1.026033285855669</v>
       </c>
       <c r="E7">
-        <v>1.015486572984529</v>
+        <v>1.016824880509984</v>
       </c>
       <c r="F7">
-        <v>1.016127206638601</v>
+        <v>1.017973950319936</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046784402892268</v>
+        <v>1.048896670626142</v>
       </c>
       <c r="J7">
-        <v>1.02732841546339</v>
+        <v>1.028639672240244</v>
       </c>
       <c r="K7">
-        <v>1.031681674999418</v>
+        <v>1.035824446344245</v>
       </c>
       <c r="L7">
-        <v>1.025398673906804</v>
+        <v>1.026721463183039</v>
       </c>
       <c r="M7">
-        <v>1.026031872835526</v>
+        <v>1.027857249255093</v>
       </c>
       <c r="N7">
-        <v>1.028787339649565</v>
+        <v>1.030100458561445</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9938367755147977</v>
+        <v>0.9967571994661014</v>
       </c>
       <c r="D8">
-        <v>1.01062326973785</v>
+        <v>1.015983026639813</v>
       </c>
       <c r="E8">
-        <v>1.001888786804129</v>
+        <v>1.004790081230253</v>
       </c>
       <c r="F8">
-        <v>1.00191121905494</v>
+        <v>1.005143322393072</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040875792279556</v>
+        <v>1.043695704763176</v>
       </c>
       <c r="J8">
-        <v>1.015625283015678</v>
+        <v>1.01845988848658</v>
       </c>
       <c r="K8">
-        <v>1.021661239455138</v>
+        <v>1.026950763967609</v>
       </c>
       <c r="L8">
-        <v>1.01304323391449</v>
+        <v>1.015905556422277</v>
       </c>
       <c r="M8">
-        <v>1.013065363753432</v>
+        <v>1.016254071937065</v>
       </c>
       <c r="N8">
-        <v>1.017067587411408</v>
+        <v>1.019906218347213</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9656457713946704</v>
+        <v>0.9719768639800693</v>
       </c>
       <c r="D9">
-        <v>0.9884891138529752</v>
+        <v>0.9964433807054517</v>
       </c>
       <c r="E9">
-        <v>0.9751367159009605</v>
+        <v>0.9814028194604428</v>
       </c>
       <c r="F9">
-        <v>0.973984576175104</v>
+        <v>0.9802516081860175</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029060206255517</v>
+        <v>1.03343303647461</v>
       </c>
       <c r="J9">
-        <v>0.9924728476749218</v>
+        <v>0.9985595372538638</v>
       </c>
       <c r="K9">
-        <v>1.001771749384207</v>
+        <v>1.009594426346929</v>
       </c>
       <c r="L9">
-        <v>0.9886464884852081</v>
+        <v>0.9948050057275417</v>
       </c>
       <c r="M9">
-        <v>0.9875143255060259</v>
+        <v>0.9936734270240231</v>
       </c>
       <c r="N9">
-        <v>0.9938822729568469</v>
+        <v>0.9999776063331439</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9441596745458293</v>
+        <v>0.9534106170844191</v>
       </c>
       <c r="D10">
-        <v>0.9716266264864889</v>
+        <v>0.9818419306544219</v>
       </c>
       <c r="E10">
-        <v>0.9547978537633028</v>
+        <v>0.9639244791356428</v>
       </c>
       <c r="F10">
-        <v>0.9527801632050052</v>
+        <v>0.9616761371046481</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.019944716687925</v>
+        <v>1.025657251616183</v>
       </c>
       <c r="J10">
-        <v>0.9747784013462304</v>
+        <v>0.9836029116096221</v>
       </c>
       <c r="K10">
-        <v>0.9865277909824965</v>
+        <v>0.9965469611005729</v>
       </c>
       <c r="L10">
-        <v>0.9700341978777209</v>
+        <v>0.978977138586366</v>
       </c>
       <c r="M10">
-        <v>0.9680577424144964</v>
+        <v>0.9767736215240722</v>
       </c>
       <c r="N10">
-        <v>0.9761626984847878</v>
+        <v>0.9849997405649388</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9340048209003432</v>
+        <v>0.9447494205369249</v>
       </c>
       <c r="D11">
-        <v>0.9636643562624491</v>
+        <v>0.9750438672083991</v>
       </c>
       <c r="E11">
-        <v>0.945201075728983</v>
+        <v>0.9557840405388679</v>
       </c>
       <c r="F11">
-        <v>0.9427810219386094</v>
+        <v>0.9530306428788295</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.015612102861459</v>
+        <v>1.022010805406844</v>
       </c>
       <c r="J11">
-        <v>0.9664063485097775</v>
+        <v>0.9766160887112415</v>
       </c>
       <c r="K11">
-        <v>0.9793056579857908</v>
+        <v>0.9904522815837282</v>
       </c>
       <c r="L11">
-        <v>0.9612360975972801</v>
+        <v>0.9715909218046959</v>
       </c>
       <c r="M11">
-        <v>0.9588691707690848</v>
+        <v>0.9688962337271392</v>
       </c>
       <c r="N11">
-        <v>0.967778756373019</v>
+        <v>0.9780029955766423</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9300801852874113</v>
+        <v>0.9414237175153779</v>
       </c>
       <c r="D12">
-        <v>0.9605888489222321</v>
+        <v>0.9724360693109945</v>
       </c>
       <c r="E12">
-        <v>0.9414949357522904</v>
+        <v>0.9526605781796705</v>
       </c>
       <c r="F12">
-        <v>0.9389203388610713</v>
+        <v>0.9497142191867488</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.013934191627841</v>
+        <v>1.020607968711099</v>
       </c>
       <c r="J12">
-        <v>0.9631696193197021</v>
+        <v>0.9739320514029809</v>
       </c>
       <c r="K12">
-        <v>0.9765121659925884</v>
+        <v>0.9881111143739226</v>
       </c>
       <c r="L12">
-        <v>0.9578359228738555</v>
+        <v>0.9687546228312469</v>
       </c>
       <c r="M12">
-        <v>0.9553193782069517</v>
+        <v>0.9658726766992618</v>
       </c>
       <c r="N12">
-        <v>0.9645374306562357</v>
+        <v>0.9753151466275409</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9309294210985071</v>
+        <v>0.9421422875123615</v>
       </c>
       <c r="D13">
-        <v>0.9612542550049298</v>
+        <v>0.9729994034208603</v>
       </c>
       <c r="E13">
-        <v>0.9422967577050283</v>
+        <v>0.9533353428843879</v>
       </c>
       <c r="F13">
-        <v>0.9397555594632606</v>
+        <v>0.9504306334760375</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.014297418806883</v>
+        <v>1.020911191117924</v>
       </c>
       <c r="J13">
-        <v>0.9638700463832126</v>
+        <v>0.9745120328140374</v>
       </c>
       <c r="K13">
-        <v>0.9771167348608715</v>
+        <v>0.9886169980986496</v>
       </c>
       <c r="L13">
-        <v>0.9585716618191606</v>
+        <v>0.9693674526874608</v>
       </c>
       <c r="M13">
-        <v>0.9560874342476408</v>
+        <v>0.9665259061666293</v>
       </c>
       <c r="N13">
-        <v>0.9652388524065164</v>
+        <v>0.9758959516787259</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9336836935811069</v>
+        <v>0.9444768319011454</v>
       </c>
       <c r="D14">
-        <v>0.9634126682737419</v>
+        <v>0.9748300675493889</v>
       </c>
       <c r="E14">
-        <v>0.9448977670486102</v>
+        <v>0.9555279804819962</v>
       </c>
       <c r="F14">
-        <v>0.9424650489781378</v>
+        <v>0.9527587476676868</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015474878262218</v>
+        <v>1.021895876031089</v>
       </c>
       <c r="J14">
-        <v>0.9661415285157933</v>
+        <v>0.9763961178943936</v>
       </c>
       <c r="K14">
-        <v>0.9790771286190407</v>
+        <v>0.9902604071415351</v>
       </c>
       <c r="L14">
-        <v>0.9609578791943224</v>
+        <v>0.9713584486094009</v>
       </c>
       <c r="M14">
-        <v>0.9585786841109366</v>
+        <v>0.9686483850033155</v>
       </c>
       <c r="N14">
-        <v>0.9675135603042682</v>
+        <v>0.9777827123760039</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.935359595201814</v>
+        <v>0.9459003232997129</v>
       </c>
       <c r="D15">
-        <v>0.9647262537313697</v>
+        <v>0.9759466598511815</v>
       </c>
       <c r="E15">
-        <v>0.9464807926699471</v>
+        <v>0.9568652516416416</v>
       </c>
       <c r="F15">
-        <v>0.9441142054521924</v>
+        <v>0.9541787507664272</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016190889591019</v>
+        <v>1.022495944076732</v>
       </c>
       <c r="J15">
-        <v>0.9675235302583163</v>
+        <v>0.9775447829801936</v>
       </c>
       <c r="K15">
-        <v>0.9802696893152767</v>
+        <v>0.9912623624186941</v>
       </c>
       <c r="L15">
-        <v>0.9624098538152903</v>
+        <v>0.9725724471924999</v>
       </c>
       <c r="M15">
-        <v>0.960094736414878</v>
+        <v>0.9699427306593645</v>
       </c>
       <c r="N15">
-        <v>0.9688975246477831</v>
+        <v>0.9789330086979796</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9448137274590843</v>
+        <v>0.9539711193957569</v>
       </c>
       <c r="D16">
-        <v>0.972139657854668</v>
+        <v>0.9822821753230712</v>
       </c>
       <c r="E16">
-        <v>0.955416317194919</v>
+        <v>0.9644515743919615</v>
       </c>
       <c r="F16">
-        <v>0.9534246748510345</v>
+        <v>0.9622360510466562</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.020223292447749</v>
+        <v>1.025892853541609</v>
       </c>
       <c r="J16">
-        <v>0.975317461649952</v>
+        <v>0.9840548773291338</v>
       </c>
       <c r="K16">
-        <v>0.9869926242428457</v>
+        <v>0.9969412297418367</v>
       </c>
       <c r="L16">
-        <v>0.970600860117991</v>
+        <v>0.9794550976233926</v>
       </c>
       <c r="M16">
-        <v>0.9686497283952813</v>
+        <v>0.9772835482967145</v>
       </c>
       <c r="N16">
-        <v>0.9767025243159712</v>
+        <v>0.9854523481276133</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9505007609322037</v>
+        <v>0.958857615142188</v>
       </c>
       <c r="D17">
-        <v>0.9766013665633282</v>
+        <v>0.986121805551477</v>
       </c>
       <c r="E17">
-        <v>0.9607956834770686</v>
+        <v>0.9690483229624993</v>
       </c>
       <c r="F17">
-        <v>0.9590312680421331</v>
+        <v>0.967119660669179</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022642858337512</v>
+        <v>1.027944752696758</v>
       </c>
       <c r="J17">
-        <v>0.9800036350033177</v>
+        <v>0.987994103903036</v>
       </c>
       <c r="K17">
-        <v>0.9910324857268255</v>
+        <v>1.000377625598264</v>
       </c>
       <c r="L17">
-        <v>0.9755278920436807</v>
+        <v>0.9836217207491543</v>
       </c>
       <c r="M17">
-        <v>0.9737978956913139</v>
+        <v>0.9817298553235154</v>
       </c>
       <c r="N17">
-        <v>0.9813953525730105</v>
+        <v>0.9893971688550859</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9537377667604445</v>
+        <v>0.9616490077376638</v>
       </c>
       <c r="D18">
-        <v>0.979141554840703</v>
+        <v>0.9883163953473949</v>
       </c>
       <c r="E18">
-        <v>0.9638589874605307</v>
+        <v>0.9716753988945087</v>
       </c>
       <c r="F18">
-        <v>0.9622245253023325</v>
+        <v>0.969911231503814</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024017804104087</v>
+        <v>1.029115125928743</v>
       </c>
       <c r="J18">
-        <v>0.982670096507606</v>
+        <v>0.9902434817462393</v>
       </c>
       <c r="K18">
-        <v>0.9933303149134521</v>
+        <v>1.002339897391367</v>
       </c>
       <c r="L18">
-        <v>0.9783321529970259</v>
+        <v>0.9860016445688251</v>
       </c>
       <c r="M18">
-        <v>0.9767288075267813</v>
+        <v>0.9842703669850679</v>
       </c>
       <c r="N18">
-        <v>0.9840656007584822</v>
+        <v>0.9916497410728338</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.954828550763081</v>
+        <v>0.962591227130643</v>
       </c>
       <c r="D19">
-        <v>0.979997620392201</v>
+        <v>0.9890573611888489</v>
       </c>
       <c r="E19">
-        <v>0.9648914687491076</v>
+        <v>0.9725623501963391</v>
       </c>
       <c r="F19">
-        <v>0.9633009032840925</v>
+        <v>0.970853814629361</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024480737071561</v>
+        <v>1.029509874860254</v>
       </c>
       <c r="J19">
-        <v>0.9835684689960877</v>
+        <v>0.9910025914352352</v>
       </c>
       <c r="K19">
-        <v>0.9941043383376337</v>
+        <v>1.003002116649502</v>
       </c>
       <c r="L19">
-        <v>0.9792770785545231</v>
+        <v>0.9868049280127565</v>
       </c>
       <c r="M19">
-        <v>0.9777165436315591</v>
+        <v>0.9851279948363212</v>
       </c>
       <c r="N19">
-        <v>0.9849652490389426</v>
+        <v>0.9924099287846589</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.949899042602631</v>
+        <v>0.9583395221635997</v>
       </c>
       <c r="D20">
-        <v>0.9761292248748288</v>
+        <v>0.9857145772960004</v>
       </c>
       <c r="E20">
-        <v>0.960226367155857</v>
+        <v>0.9685608235732445</v>
       </c>
       <c r="F20">
-        <v>0.9584378456778876</v>
+        <v>0.9666016816621941</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02238708882149</v>
+        <v>1.027727382218311</v>
       </c>
       <c r="J20">
-        <v>0.9795079015316387</v>
+        <v>0.9875765373539472</v>
       </c>
       <c r="K20">
-        <v>0.9906052142561199</v>
+        <v>1.000013357412244</v>
       </c>
       <c r="L20">
-        <v>0.9750066005450352</v>
+        <v>0.9831799767197467</v>
       </c>
       <c r="M20">
-        <v>0.9732531251371512</v>
+        <v>0.9812583722045147</v>
       </c>
       <c r="N20">
-        <v>0.98089891510294</v>
+        <v>0.9889790093136018</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9328770796180738</v>
+        <v>0.9437925031948216</v>
       </c>
       <c r="D21">
-        <v>0.9627805036991554</v>
+        <v>0.9742933693514298</v>
       </c>
       <c r="E21">
-        <v>0.944135956894362</v>
+        <v>0.9548851841071105</v>
       </c>
       <c r="F21">
-        <v>0.9416714436196771</v>
+        <v>0.9520762127653716</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015130140523634</v>
+        <v>1.021607305630028</v>
       </c>
       <c r="J21">
-        <v>0.9654763317746792</v>
+        <v>0.975843865795646</v>
       </c>
       <c r="K21">
-        <v>0.9785030687093292</v>
+        <v>0.9897786956853798</v>
       </c>
       <c r="L21">
-        <v>0.9602590476383388</v>
+        <v>0.9707748272292813</v>
       </c>
       <c r="M21">
-        <v>0.9578490575611865</v>
+        <v>0.9680261851296832</v>
       </c>
       <c r="N21">
-        <v>0.9668474189074823</v>
+        <v>0.9772296760159316</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9212730278737014</v>
+        <v>0.9340077243316435</v>
       </c>
       <c r="D22">
-        <v>0.9536913199894831</v>
+        <v>0.9666262008652888</v>
       </c>
       <c r="E22">
-        <v>0.9331839251652249</v>
+        <v>0.9457001835394504</v>
       </c>
       <c r="F22">
-        <v>0.9302642439502546</v>
+        <v>0.9423252740109523</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010162725734215</v>
+        <v>1.017475023583557</v>
       </c>
       <c r="J22">
-        <v>0.9559044993437396</v>
+        <v>0.9679448122203503</v>
       </c>
       <c r="K22">
-        <v>0.9702395786857911</v>
+        <v>0.9828891145068165</v>
       </c>
       <c r="L22">
-        <v>0.9502063437151094</v>
+        <v>0.9624299414270675</v>
       </c>
       <c r="M22">
-        <v>0.9473564532439633</v>
+        <v>0.9591329216500054</v>
       </c>
       <c r="N22">
-        <v>0.9572619933765865</v>
+        <v>0.9693194048785247</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9275204124593108</v>
+        <v>0.9392614286589898</v>
       </c>
       <c r="D23">
-        <v>0.9585834918127851</v>
+        <v>0.9707413184454416</v>
       </c>
       <c r="E23">
-        <v>0.9390785302084124</v>
+        <v>0.9506304669316981</v>
       </c>
       <c r="F23">
-        <v>0.9364033991793177</v>
+        <v>0.9475589155284074</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.012838864702465</v>
+        <v>1.01969514730583</v>
       </c>
       <c r="J23">
-        <v>0.9610582507718836</v>
+        <v>0.9721866289116406</v>
       </c>
       <c r="K23">
-        <v>0.9746895659056918</v>
+        <v>0.9865887153385243</v>
       </c>
       <c r="L23">
-        <v>0.955618299226306</v>
+        <v>0.9669105184521017</v>
       </c>
       <c r="M23">
-        <v>0.9530045336249037</v>
+        <v>0.9639072004571164</v>
       </c>
       <c r="N23">
-        <v>0.962423063722902</v>
+        <v>0.9735672454360602</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9501711790937437</v>
+        <v>0.9585738067381732</v>
       </c>
       <c r="D24">
-        <v>0.9763427564014235</v>
+        <v>0.9858987244608787</v>
       </c>
       <c r="E24">
-        <v>0.96048384493218</v>
+        <v>0.9687812698325547</v>
       </c>
       <c r="F24">
-        <v>0.9587062238557043</v>
+        <v>0.9668359090204682</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022502771604943</v>
+        <v>1.027825683897046</v>
       </c>
       <c r="J24">
-        <v>0.979732107436227</v>
+        <v>0.9877653660976935</v>
       </c>
       <c r="K24">
-        <v>0.9907984595231751</v>
+        <v>1.000178083922373</v>
       </c>
       <c r="L24">
-        <v>0.9752423632680088</v>
+        <v>0.9833797366441082</v>
       </c>
       <c r="M24">
-        <v>0.9734995041857075</v>
+        <v>0.9814715777592743</v>
       </c>
       <c r="N24">
-        <v>0.98112343940563</v>
+        <v>0.9891681062158232</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9733494529828571</v>
+        <v>0.9787048092117883</v>
       </c>
       <c r="D25">
-        <v>0.9945378977446342</v>
+        <v>1.001743294192646</v>
       </c>
       <c r="E25">
-        <v>0.9824398431449534</v>
+        <v>0.9877459310444305</v>
       </c>
       <c r="F25">
-        <v>0.9816037033755544</v>
+        <v>0.9869980814378364</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032307636325629</v>
+        <v>1.036234238147692</v>
       </c>
       <c r="J25">
-        <v>0.9988082491134778</v>
+        <v>1.003970726724969</v>
       </c>
       <c r="K25">
-        <v>1.007221601753299</v>
+        <v>1.014314607909049</v>
       </c>
       <c r="L25">
-        <v>0.9953170151007353</v>
+        <v>1.000537501650808</v>
       </c>
       <c r="M25">
-        <v>0.9944944729309799</v>
+        <v>0.9998016453848391</v>
       </c>
       <c r="N25">
-        <v>1.000226671392126</v>
+        <v>1.00539648031397</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_54/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9933355210389151</v>
+        <v>1.039558236069642</v>
       </c>
       <c r="D2">
-        <v>1.013282105661668</v>
+        <v>1.051024939417911</v>
       </c>
       <c r="E2">
-        <v>1.001556792642592</v>
+        <v>1.047490299422748</v>
       </c>
       <c r="F2">
-        <v>1.001699004120128</v>
+        <v>1.053645995292708</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042288276269273</v>
+        <v>1.065741361545208</v>
       </c>
       <c r="J2">
-        <v>1.015717409281001</v>
+        <v>1.060616878776249</v>
       </c>
       <c r="K2">
-        <v>1.024559449693675</v>
+        <v>1.061816399624015</v>
       </c>
       <c r="L2">
-        <v>1.012994481396318</v>
+        <v>1.058325411722033</v>
       </c>
       <c r="M2">
-        <v>1.013134719757097</v>
+        <v>1.064405321128175</v>
       </c>
       <c r="N2">
-        <v>1.017159844506595</v>
+        <v>1.062123076398568</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003283348731813</v>
+        <v>1.048160798053376</v>
       </c>
       <c r="D3">
-        <v>1.021136574385021</v>
+        <v>1.058172128542266</v>
       </c>
       <c r="E3">
-        <v>1.010960430673033</v>
+        <v>1.05561143297688</v>
       </c>
       <c r="F3">
-        <v>1.011719559721446</v>
+        <v>1.061658195981503</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046370041645035</v>
+        <v>1.069804142570466</v>
       </c>
       <c r="J3">
-        <v>1.02368490478741</v>
+        <v>1.067419425518691</v>
       </c>
       <c r="K3">
-        <v>1.031505967243672</v>
+        <v>1.06811109866088</v>
       </c>
       <c r="L3">
-        <v>1.02145496554285</v>
+        <v>1.065578966263234</v>
       </c>
       <c r="M3">
-        <v>1.022204650909496</v>
+        <v>1.071558553144577</v>
       </c>
       <c r="N3">
-        <v>1.025138654770508</v>
+        <v>1.068935283537646</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009447383637351</v>
+        <v>1.053527149042664</v>
       </c>
       <c r="D4">
-        <v>1.026006378907304</v>
+        <v>1.06262812161503</v>
       </c>
       <c r="E4">
-        <v>1.016792650786425</v>
+        <v>1.060681668628062</v>
       </c>
       <c r="F4">
-        <v>1.017939565716633</v>
+        <v>1.066659715582098</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04888282746286</v>
+        <v>1.072322678036895</v>
       </c>
       <c r="J4">
-        <v>1.028612473270202</v>
+        <v>1.071654115074228</v>
       </c>
       <c r="K4">
-        <v>1.035800743648509</v>
+        <v>1.072025168462551</v>
       </c>
       <c r="L4">
-        <v>1.026692541458893</v>
+        <v>1.070098989303155</v>
       </c>
       <c r="M4">
-        <v>1.027826192052027</v>
+        <v>1.076015057309455</v>
       </c>
       <c r="N4">
-        <v>1.030073220965746</v>
+        <v>1.073175986838079</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011978485472372</v>
+        <v>1.055738392313559</v>
       </c>
       <c r="D5">
-        <v>1.028006572001991</v>
+        <v>1.064463574984466</v>
       </c>
       <c r="E5">
-        <v>1.019188699127177</v>
+        <v>1.062771843258308</v>
       </c>
       <c r="F5">
-        <v>1.020496187051059</v>
+        <v>1.068721380629782</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049910630769912</v>
+        <v>1.073356618442369</v>
       </c>
       <c r="J5">
-        <v>1.030633544421584</v>
+        <v>1.073396900416155</v>
       </c>
       <c r="K5">
-        <v>1.037561905970848</v>
+        <v>1.073634921755882</v>
       </c>
       <c r="L5">
-        <v>1.028841984741664</v>
+        <v>1.0719602983661</v>
       </c>
       <c r="M5">
-        <v>1.030134817118301</v>
+        <v>1.077849960030596</v>
       </c>
       <c r="N5">
-        <v>1.032097162269982</v>
+        <v>1.074921247135091</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012400070701717</v>
+        <v>1.056107129491821</v>
       </c>
       <c r="D6">
-        <v>1.028339755085906</v>
+        <v>1.064769605602599</v>
       </c>
       <c r="E6">
-        <v>1.019587857519474</v>
+        <v>1.063120445657303</v>
       </c>
       <c r="F6">
-        <v>1.020922169961451</v>
+        <v>1.069065217127358</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050081585990621</v>
+        <v>1.073528806887935</v>
       </c>
       <c r="J6">
-        <v>1.030970040587402</v>
+        <v>1.073687392138566</v>
       </c>
       <c r="K6">
-        <v>1.037855106284549</v>
+        <v>1.073903175556715</v>
       </c>
       <c r="L6">
-        <v>1.029199925792648</v>
+        <v>1.072270610271294</v>
       </c>
       <c r="M6">
-        <v>1.030519360978572</v>
+        <v>1.078155854603414</v>
       </c>
       <c r="N6">
-        <v>1.032434136298952</v>
+        <v>1.075212151389068</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009481434889243</v>
+        <v>1.053556867802094</v>
       </c>
       <c r="D7">
-        <v>1.026033285855669</v>
+        <v>1.062652792568695</v>
       </c>
       <c r="E7">
-        <v>1.016824880509984</v>
+        <v>1.060709756564292</v>
       </c>
       <c r="F7">
-        <v>1.017973950319936</v>
+        <v>1.066687421140049</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048896670626142</v>
+        <v>1.072336589295966</v>
       </c>
       <c r="J7">
-        <v>1.028639672240244</v>
+        <v>1.071677546397801</v>
       </c>
       <c r="K7">
-        <v>1.035824446344245</v>
+        <v>1.072046815498634</v>
       </c>
       <c r="L7">
-        <v>1.026721463183039</v>
+        <v>1.070124009810942</v>
       </c>
       <c r="M7">
-        <v>1.027857249255093</v>
+        <v>1.076039723853603</v>
       </c>
       <c r="N7">
-        <v>1.030100458561445</v>
+        <v>1.073199451436819</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9967571994661014</v>
+        <v>1.042508930018023</v>
       </c>
       <c r="D8">
-        <v>1.015983026639813</v>
+        <v>1.053476916373582</v>
       </c>
       <c r="E8">
-        <v>1.004790081230253</v>
+        <v>1.050274931885453</v>
       </c>
       <c r="F8">
-        <v>1.005143322393072</v>
+        <v>1.056393417742638</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043695704763176</v>
+        <v>1.067138243499519</v>
       </c>
       <c r="J8">
-        <v>1.01845988848658</v>
+        <v>1.062952004712926</v>
       </c>
       <c r="K8">
-        <v>1.026950763967609</v>
+        <v>1.063978141599108</v>
       </c>
       <c r="L8">
-        <v>1.015905556422277</v>
+        <v>1.060814383058086</v>
       </c>
       <c r="M8">
-        <v>1.016254071937065</v>
+        <v>1.06686007495911</v>
       </c>
       <c r="N8">
-        <v>1.019906218347213</v>
+        <v>1.064461518481918</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9719768639800693</v>
+        <v>1.021348368505878</v>
       </c>
       <c r="D9">
-        <v>0.9964433807054517</v>
+        <v>1.035885517315669</v>
       </c>
       <c r="E9">
-        <v>0.9814028194604428</v>
+        <v>1.030326626109488</v>
       </c>
       <c r="F9">
-        <v>0.9802516081860175</v>
+        <v>1.036709180571992</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03343303647461</v>
+        <v>1.057052686290864</v>
       </c>
       <c r="J9">
-        <v>0.9985595372538638</v>
+        <v>1.046169147153854</v>
       </c>
       <c r="K9">
-        <v>1.009594426346929</v>
+        <v>1.048422022293208</v>
       </c>
       <c r="L9">
-        <v>0.9948050057275417</v>
+        <v>1.042946116703168</v>
       </c>
       <c r="M9">
-        <v>0.9936734270240231</v>
+        <v>1.049233485732983</v>
       </c>
       <c r="N9">
-        <v>0.9999776063331439</v>
+        <v>1.04765482734009</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9534106170844191</v>
+        <v>1.005841234598867</v>
       </c>
       <c r="D10">
-        <v>0.9818419306544219</v>
+        <v>1.022989237896008</v>
       </c>
       <c r="E10">
-        <v>0.9639244791356428</v>
+        <v>1.015739377611183</v>
       </c>
       <c r="F10">
-        <v>0.9616761371046481</v>
+        <v>1.022312630381953</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025657251616183</v>
+        <v>1.049575842862174</v>
       </c>
       <c r="J10">
-        <v>0.9836029116096221</v>
+        <v>1.033824999951026</v>
       </c>
       <c r="K10">
-        <v>0.9965469611005729</v>
+        <v>1.036955460275718</v>
       </c>
       <c r="L10">
-        <v>0.978977138586366</v>
+        <v>1.029830151134698</v>
       </c>
       <c r="M10">
-        <v>0.9767736215240722</v>
+        <v>1.036290380210501</v>
       </c>
       <c r="N10">
-        <v>0.9849997405649388</v>
+        <v>1.035293150032342</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9447494205369249</v>
+        <v>0.998721815787179</v>
       </c>
       <c r="D11">
-        <v>0.9750438672083991</v>
+        <v>1.017069138030046</v>
       </c>
       <c r="E11">
-        <v>0.9557840405388679</v>
+        <v>1.009051273032548</v>
       </c>
       <c r="F11">
-        <v>0.9530306428788295</v>
+        <v>1.015711702012093</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022010805406844</v>
+        <v>1.046123459193945</v>
       </c>
       <c r="J11">
-        <v>0.9766160887112415</v>
+        <v>1.028147865561918</v>
       </c>
       <c r="K11">
-        <v>0.9904522815837282</v>
+        <v>1.03167617805471</v>
       </c>
       <c r="L11">
-        <v>0.9715909218046959</v>
+        <v>1.023804490701148</v>
       </c>
       <c r="M11">
-        <v>0.9688962337271392</v>
+        <v>1.030343279072082</v>
       </c>
       <c r="N11">
-        <v>0.9780029955766423</v>
+        <v>1.029607953461224</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9414237175153779</v>
+        <v>0.9960090082868891</v>
       </c>
       <c r="D12">
-        <v>0.9724360693109945</v>
+        <v>1.014813604112977</v>
       </c>
       <c r="E12">
-        <v>0.9526605781796705</v>
+        <v>1.006504316414357</v>
       </c>
       <c r="F12">
-        <v>0.9497142191867488</v>
+        <v>1.013197937893858</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020607968711099</v>
+        <v>1.044805060333732</v>
       </c>
       <c r="J12">
-        <v>0.9739320514029809</v>
+        <v>1.025983239758341</v>
       </c>
       <c r="K12">
-        <v>0.9881111143739226</v>
+        <v>1.029662397387175</v>
       </c>
       <c r="L12">
-        <v>0.9687546228312469</v>
+        <v>1.021507955968581</v>
       </c>
       <c r="M12">
-        <v>0.9658726766992618</v>
+        <v>1.028076580295596</v>
       </c>
       <c r="N12">
-        <v>0.9753151466275409</v>
+        <v>1.02744025364072</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9421422875123615</v>
+        <v>0.9965941429638131</v>
       </c>
       <c r="D13">
-        <v>0.9729994034208603</v>
+        <v>1.015300091995977</v>
       </c>
       <c r="E13">
-        <v>0.9533353428843879</v>
+        <v>1.007053607792418</v>
       </c>
       <c r="F13">
-        <v>0.9504306334760375</v>
+        <v>1.01374007046004</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020911191117924</v>
+        <v>1.045089559312095</v>
       </c>
       <c r="J13">
-        <v>0.9745120328140374</v>
+        <v>1.026450196363297</v>
       </c>
       <c r="K13">
-        <v>0.9886169980986496</v>
+        <v>1.030096851570167</v>
       </c>
       <c r="L13">
-        <v>0.9693674526874608</v>
+        <v>1.022003323776462</v>
       </c>
       <c r="M13">
-        <v>0.9665259061666293</v>
+        <v>1.028565516731881</v>
       </c>
       <c r="N13">
-        <v>0.9758959516787259</v>
+        <v>1.027907873377616</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9444768319011454</v>
+        <v>0.99849901675368</v>
       </c>
       <c r="D14">
-        <v>0.9748300675493889</v>
+        <v>1.016883887394652</v>
       </c>
       <c r="E14">
-        <v>0.9555279804819962</v>
+        <v>1.008842063771651</v>
       </c>
       <c r="F14">
-        <v>0.9527587476676868</v>
+        <v>1.015505219121615</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021895876031089</v>
+        <v>1.046015238996553</v>
       </c>
       <c r="J14">
-        <v>0.9763961178943936</v>
+        <v>1.027970115486908</v>
       </c>
       <c r="K14">
-        <v>0.9902604071415351</v>
+        <v>1.031510831890676</v>
       </c>
       <c r="L14">
-        <v>0.9713584486094009</v>
+        <v>1.023615888908275</v>
       </c>
       <c r="M14">
-        <v>0.9686483850033155</v>
+        <v>1.030157129517441</v>
       </c>
       <c r="N14">
-        <v>0.9777827123760039</v>
+        <v>1.02942995096072</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9459003232997129</v>
+        <v>0.9996633686007221</v>
       </c>
       <c r="D15">
-        <v>0.9759466598511815</v>
+        <v>1.017852023164812</v>
       </c>
       <c r="E15">
-        <v>0.9568652516416416</v>
+        <v>1.009935457019995</v>
       </c>
       <c r="F15">
-        <v>0.9541787507664272</v>
+        <v>1.016584363475111</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022495944076732</v>
+        <v>1.046580683038286</v>
       </c>
       <c r="J15">
-        <v>0.9775447829801936</v>
+        <v>1.028898984841603</v>
       </c>
       <c r="K15">
-        <v>0.9912623624186941</v>
+        <v>1.032374847665382</v>
       </c>
       <c r="L15">
-        <v>0.9725724471924999</v>
+        <v>1.024601505922223</v>
       </c>
       <c r="M15">
-        <v>0.9699427306593645</v>
+        <v>1.031129927236055</v>
       </c>
       <c r="N15">
-        <v>0.9789330086979796</v>
+        <v>1.030360139416441</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9539711193957569</v>
+        <v>1.006304586631932</v>
       </c>
       <c r="D16">
-        <v>0.9822821753230712</v>
+        <v>1.023374562952065</v>
       </c>
       <c r="E16">
-        <v>0.9644515743919615</v>
+        <v>1.016174855460258</v>
       </c>
       <c r="F16">
-        <v>0.9622360510466562</v>
+        <v>1.022742429305386</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025892853541609</v>
+        <v>1.049800133947311</v>
       </c>
       <c r="J16">
-        <v>0.9840548773291338</v>
+        <v>1.034194288373867</v>
       </c>
       <c r="K16">
-        <v>0.9969412297418367</v>
+        <v>1.037298751829497</v>
       </c>
       <c r="L16">
-        <v>0.9794550976233926</v>
+        <v>1.030222243962535</v>
       </c>
       <c r="M16">
-        <v>0.9772835482967145</v>
+        <v>1.036677345424957</v>
       </c>
       <c r="N16">
-        <v>0.9854523481276133</v>
+        <v>1.0356629628871</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.958857615142188</v>
+        <v>1.010357172957141</v>
       </c>
       <c r="D17">
-        <v>0.986121805551477</v>
+        <v>1.026744799391697</v>
       </c>
       <c r="E17">
-        <v>0.9690483229624993</v>
+        <v>1.019984669450765</v>
       </c>
       <c r="F17">
-        <v>0.967119660669179</v>
+        <v>1.026502535228717</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027944752696758</v>
+        <v>1.051759636497265</v>
       </c>
       <c r="J17">
-        <v>0.987994103903036</v>
+        <v>1.037423077272525</v>
       </c>
       <c r="K17">
-        <v>1.000377625598264</v>
+        <v>1.040299600791384</v>
       </c>
       <c r="L17">
-        <v>0.9836217207491543</v>
+        <v>1.03365113927785</v>
       </c>
       <c r="M17">
-        <v>0.9817298553235154</v>
+        <v>1.040061305842154</v>
       </c>
       <c r="N17">
-        <v>0.9893971688550859</v>
+        <v>1.038896337036342</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9616490077376638</v>
+        <v>1.01268250047787</v>
       </c>
       <c r="D18">
-        <v>0.9883163953473949</v>
+        <v>1.028678650858079</v>
       </c>
       <c r="E18">
-        <v>0.9716753988945087</v>
+        <v>1.022171523391814</v>
       </c>
       <c r="F18">
-        <v>0.969911231503814</v>
+        <v>1.028660830145551</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029115125928743</v>
+        <v>1.052882135035857</v>
       </c>
       <c r="J18">
-        <v>0.9902434817462393</v>
+        <v>1.039274794407905</v>
       </c>
       <c r="K18">
-        <v>1.002339897391367</v>
+        <v>1.042020057677062</v>
       </c>
       <c r="L18">
-        <v>0.9860016445688251</v>
+        <v>1.035618215790442</v>
       </c>
       <c r="M18">
-        <v>0.9842703669850679</v>
+        <v>1.042002522971254</v>
       </c>
       <c r="N18">
-        <v>0.9916497410728338</v>
+        <v>1.040750683822449</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.962591227130643</v>
+        <v>1.013469058411028</v>
       </c>
       <c r="D19">
-        <v>0.9890573611888489</v>
+        <v>1.029332792687051</v>
       </c>
       <c r="E19">
-        <v>0.9725623501963391</v>
+        <v>1.022911377815996</v>
       </c>
       <c r="F19">
-        <v>0.970853814629361</v>
+        <v>1.029391017171944</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029509874860254</v>
+        <v>1.053261513541006</v>
       </c>
       <c r="J19">
-        <v>0.9910025914352352</v>
+        <v>1.039900991093587</v>
       </c>
       <c r="K19">
-        <v>1.003002116649502</v>
+        <v>1.042601774673261</v>
       </c>
       <c r="L19">
-        <v>0.9868049280127565</v>
+        <v>1.036283524730777</v>
       </c>
       <c r="M19">
-        <v>0.9851279948363212</v>
+        <v>1.042659071283548</v>
       </c>
       <c r="N19">
-        <v>0.9924099287846589</v>
+        <v>1.04137776977925</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9583395221635997</v>
+        <v>1.009926398950347</v>
       </c>
       <c r="D20">
-        <v>0.9857145772960004</v>
+        <v>1.026386550265507</v>
       </c>
       <c r="E20">
-        <v>0.9685608235732445</v>
+        <v>1.01957961418502</v>
       </c>
       <c r="F20">
-        <v>0.9666016816621941</v>
+        <v>1.026102767398147</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027727382218311</v>
+        <v>1.051551540288357</v>
       </c>
       <c r="J20">
-        <v>0.9875765373539472</v>
+        <v>1.037079965378346</v>
       </c>
       <c r="K20">
-        <v>1.000013357412244</v>
+        <v>1.039980767003539</v>
       </c>
       <c r="L20">
-        <v>0.9831799767197467</v>
+        <v>1.033286700453445</v>
       </c>
       <c r="M20">
-        <v>0.9812583722045147</v>
+        <v>1.039701651216816</v>
       </c>
       <c r="N20">
-        <v>0.9889790093136018</v>
+        <v>1.038552737883918</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9437925031948216</v>
+        <v>0.9979400326665357</v>
       </c>
       <c r="D21">
-        <v>0.9742933693514298</v>
+        <v>1.016419114269588</v>
       </c>
       <c r="E21">
-        <v>0.9548851841071105</v>
+        <v>1.00831719993826</v>
       </c>
       <c r="F21">
-        <v>0.9520762127653716</v>
+        <v>1.014987195229671</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021607305630028</v>
+        <v>1.045743677462114</v>
       </c>
       <c r="J21">
-        <v>0.975843865795646</v>
+        <v>1.027524133461649</v>
       </c>
       <c r="K21">
-        <v>0.9897786956853798</v>
+        <v>1.03109595815938</v>
       </c>
       <c r="L21">
-        <v>0.9707748272292813</v>
+        <v>1.02314269526601</v>
       </c>
       <c r="M21">
-        <v>0.9680261851296832</v>
+        <v>1.029690086835194</v>
       </c>
       <c r="N21">
-        <v>0.9772296760159316</v>
+        <v>1.02898333558983</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9340077243316435</v>
+        <v>0.9900035519095164</v>
       </c>
       <c r="D22">
-        <v>0.9666262008652888</v>
+        <v>1.009821183259109</v>
       </c>
       <c r="E22">
-        <v>0.9457001835394504</v>
+        <v>1.000868979325462</v>
       </c>
       <c r="F22">
-        <v>0.9423252740109523</v>
+        <v>1.007636072954034</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017475023583557</v>
+        <v>1.041881206603614</v>
       </c>
       <c r="J22">
-        <v>0.9679448122203503</v>
+        <v>1.021188856899076</v>
       </c>
       <c r="K22">
-        <v>0.9828891145068165</v>
+        <v>1.025200559402119</v>
       </c>
       <c r="L22">
-        <v>0.9624299414270675</v>
+        <v>1.016423241199</v>
       </c>
       <c r="M22">
-        <v>0.9591329216500054</v>
+        <v>1.023057760491505</v>
       </c>
       <c r="N22">
-        <v>0.9693194048785247</v>
+        <v>1.022639062207871</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9392614286589898</v>
+        <v>0.9942516514982671</v>
       </c>
       <c r="D23">
-        <v>0.9707413184454416</v>
+        <v>1.013352573844314</v>
       </c>
       <c r="E23">
-        <v>0.9506304669316981</v>
+        <v>1.004854842266616</v>
       </c>
       <c r="F23">
-        <v>0.9475589155284074</v>
+        <v>1.011569963050283</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01969514730583</v>
+        <v>1.043950196343061</v>
       </c>
       <c r="J23">
-        <v>0.9721866289116406</v>
+        <v>1.024580615481281</v>
       </c>
       <c r="K23">
-        <v>0.9865887153385243</v>
+        <v>1.028357278841802</v>
       </c>
       <c r="L23">
-        <v>0.9669105184521017</v>
+        <v>1.020020136138612</v>
       </c>
       <c r="M23">
-        <v>0.9639072004571164</v>
+        <v>1.026608063524136</v>
       </c>
       <c r="N23">
-        <v>0.9735672454360602</v>
+        <v>1.026035637476304</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9585738067381732</v>
+        <v>1.010121165535248</v>
       </c>
       <c r="D24">
-        <v>0.9858987244608787</v>
+        <v>1.026548525914677</v>
       </c>
       <c r="E24">
-        <v>0.9687812698325547</v>
+        <v>1.019762749951021</v>
       </c>
       <c r="F24">
-        <v>0.9668359090204682</v>
+        <v>1.026283512664682</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027825683897046</v>
+        <v>1.051645632916685</v>
       </c>
       <c r="J24">
-        <v>0.9877653660976935</v>
+        <v>1.037235100027279</v>
       </c>
       <c r="K24">
-        <v>1.000178083922373</v>
+        <v>1.040124926216594</v>
       </c>
       <c r="L24">
-        <v>0.9833797366441082</v>
+        <v>1.033451476002914</v>
       </c>
       <c r="M24">
-        <v>0.9814715777592743</v>
+        <v>1.039864263917003</v>
       </c>
       <c r="N24">
-        <v>0.9891681062158232</v>
+        <v>1.038708092841846</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9787048092117883</v>
+        <v>1.027044104128934</v>
       </c>
       <c r="D25">
-        <v>1.001743294192646</v>
+        <v>1.040621854945562</v>
       </c>
       <c r="E25">
-        <v>0.9877459310444305</v>
+        <v>1.035691185563016</v>
       </c>
       <c r="F25">
-        <v>0.9869980814378364</v>
+        <v>1.042003218483828</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036234238147692</v>
+        <v>1.059782029528498</v>
       </c>
       <c r="J25">
-        <v>1.003970726724969</v>
+        <v>1.050694387958846</v>
       </c>
       <c r="K25">
-        <v>1.014314607909049</v>
+        <v>1.052620676778925</v>
       </c>
       <c r="L25">
-        <v>1.000537501650808</v>
+        <v>1.047759601696068</v>
       </c>
       <c r="M25">
-        <v>0.9998016453848391</v>
+        <v>1.053982692076279</v>
       </c>
       <c r="N25">
-        <v>1.00539648031397</v>
+        <v>1.052186494506079</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_54/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.039558236069642</v>
+        <v>1.075020570840446</v>
       </c>
       <c r="D2">
-        <v>1.051024939417911</v>
+        <v>1.074961202190801</v>
       </c>
       <c r="E2">
-        <v>1.047490299422748</v>
+        <v>1.078745159909038</v>
       </c>
       <c r="F2">
-        <v>1.053645995292708</v>
+        <v>1.084366223436723</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.065741361545208</v>
+        <v>1.061115250838073</v>
       </c>
       <c r="J2">
-        <v>1.060616878776249</v>
+        <v>1.079927127846741</v>
       </c>
       <c r="K2">
-        <v>1.061816399624015</v>
+        <v>1.077649031706224</v>
       </c>
       <c r="L2">
-        <v>1.058325411722033</v>
+        <v>1.081423027142735</v>
       </c>
       <c r="M2">
-        <v>1.064405321128175</v>
+        <v>1.087029430281817</v>
       </c>
       <c r="N2">
-        <v>1.062123076398568</v>
+        <v>1.081460748237657</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.048160798053376</v>
+        <v>1.076591953828826</v>
       </c>
       <c r="D3">
-        <v>1.058172128542266</v>
+        <v>1.07625163041827</v>
       </c>
       <c r="E3">
-        <v>1.05561143297688</v>
+        <v>1.080269297306914</v>
       </c>
       <c r="F3">
-        <v>1.061658195981503</v>
+        <v>1.085864528931957</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.069804142570466</v>
+        <v>1.061736971784661</v>
       </c>
       <c r="J3">
-        <v>1.067419425518691</v>
+        <v>1.081154903621809</v>
       </c>
       <c r="K3">
-        <v>1.06811109866088</v>
+        <v>1.078755524041825</v>
       </c>
       <c r="L3">
-        <v>1.065578966263234</v>
+        <v>1.082763385880615</v>
       </c>
       <c r="M3">
-        <v>1.071558553144577</v>
+        <v>1.088345092336323</v>
       </c>
       <c r="N3">
-        <v>1.068935283537646</v>
+        <v>1.082690267595153</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.053527149042664</v>
+        <v>1.077605632912954</v>
       </c>
       <c r="D4">
-        <v>1.06262812161503</v>
+        <v>1.077083359009521</v>
       </c>
       <c r="E4">
-        <v>1.060681668628062</v>
+        <v>1.081252735489641</v>
       </c>
       <c r="F4">
-        <v>1.066659715582098</v>
+        <v>1.086831119334081</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.072322678036895</v>
+        <v>1.062136163780126</v>
       </c>
       <c r="J4">
-        <v>1.071654115074228</v>
+        <v>1.081945828916188</v>
       </c>
       <c r="K4">
-        <v>1.072025168462551</v>
+        <v>1.079467683090691</v>
       </c>
       <c r="L4">
-        <v>1.070098989303155</v>
+        <v>1.083627401408637</v>
       </c>
       <c r="M4">
-        <v>1.076015057309455</v>
+        <v>1.089192987356396</v>
       </c>
       <c r="N4">
-        <v>1.073175986838079</v>
+        <v>1.08348231609417</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.055738392313559</v>
+        <v>1.078031051717314</v>
       </c>
       <c r="D5">
-        <v>1.064463574984466</v>
+        <v>1.077432246681844</v>
       </c>
       <c r="E5">
-        <v>1.062771843258308</v>
+        <v>1.081665519086292</v>
       </c>
       <c r="F5">
-        <v>1.068721380629782</v>
+        <v>1.087236788209337</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.073356618442369</v>
+        <v>1.062303247335076</v>
       </c>
       <c r="J5">
-        <v>1.073396900416155</v>
+        <v>1.08227749992742</v>
       </c>
       <c r="K5">
-        <v>1.073634921755882</v>
+        <v>1.079766171322576</v>
       </c>
       <c r="L5">
-        <v>1.0719602983661</v>
+        <v>1.083989857905898</v>
       </c>
       <c r="M5">
-        <v>1.077849960030596</v>
+        <v>1.089548633170818</v>
       </c>
       <c r="N5">
-        <v>1.074921247135091</v>
+        <v>1.083814458116281</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.056107129491821</v>
+        <v>1.078102438859624</v>
       </c>
       <c r="D6">
-        <v>1.064769605602599</v>
+        <v>1.077490781548832</v>
       </c>
       <c r="E6">
-        <v>1.063120445657303</v>
+        <v>1.08173478927141</v>
       </c>
       <c r="F6">
-        <v>1.069065217127358</v>
+        <v>1.087304861926508</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.073528806887935</v>
+        <v>1.062331258371648</v>
       </c>
       <c r="J6">
-        <v>1.073687392138566</v>
+        <v>1.082333140349558</v>
       </c>
       <c r="K6">
-        <v>1.073903175556715</v>
+        <v>1.07981623612125</v>
       </c>
       <c r="L6">
-        <v>1.072270610271294</v>
+        <v>1.084050670783691</v>
       </c>
       <c r="M6">
-        <v>1.078155854603414</v>
+        <v>1.089608300531097</v>
       </c>
       <c r="N6">
-        <v>1.075212151389068</v>
+        <v>1.083870177554201</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.053556867802094</v>
+        <v>1.077611320237993</v>
       </c>
       <c r="D7">
-        <v>1.062652792568695</v>
+        <v>1.077088023878745</v>
       </c>
       <c r="E7">
-        <v>1.060709756564292</v>
+        <v>1.081258253676977</v>
       </c>
       <c r="F7">
-        <v>1.066687421140049</v>
+        <v>1.086836542579724</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.072336589295966</v>
+        <v>1.06213839924531</v>
       </c>
       <c r="J7">
-        <v>1.071677546397801</v>
+        <v>1.081950263982927</v>
       </c>
       <c r="K7">
-        <v>1.072046815498634</v>
+        <v>1.079471675041173</v>
       </c>
       <c r="L7">
-        <v>1.070124009810942</v>
+        <v>1.083632247602535</v>
       </c>
       <c r="M7">
-        <v>1.076039723853603</v>
+        <v>1.089197742677835</v>
       </c>
       <c r="N7">
-        <v>1.073199451436819</v>
+        <v>1.083486757459213</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.042508930018023</v>
+        <v>1.075552278953304</v>
       </c>
       <c r="D8">
-        <v>1.053476916373582</v>
+        <v>1.075397990829849</v>
       </c>
       <c r="E8">
-        <v>1.050274931885453</v>
+        <v>1.079260832205263</v>
       </c>
       <c r="F8">
-        <v>1.056393417742638</v>
+        <v>1.084873193148427</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.067138243499519</v>
+        <v>1.061326010542392</v>
       </c>
       <c r="J8">
-        <v>1.062952004712926</v>
+        <v>1.08034279724616</v>
       </c>
       <c r="K8">
-        <v>1.063978141599108</v>
+        <v>1.078023772040517</v>
       </c>
       <c r="L8">
-        <v>1.060814383058086</v>
+        <v>1.081876694791309</v>
       </c>
       <c r="M8">
-        <v>1.06686007495911</v>
+        <v>1.087474780531151</v>
       </c>
       <c r="N8">
-        <v>1.064461518481918</v>
+        <v>1.0818770079353</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.021348368505878</v>
+        <v>1.071899580885731</v>
       </c>
       <c r="D9">
-        <v>1.035885517315669</v>
+        <v>1.072394455793066</v>
       </c>
       <c r="E9">
-        <v>1.030326626109488</v>
+        <v>1.07571928843943</v>
       </c>
       <c r="F9">
-        <v>1.036709180571992</v>
+        <v>1.081390676818579</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057052686290864</v>
+        <v>1.059870436376268</v>
       </c>
       <c r="J9">
-        <v>1.046169147153854</v>
+        <v>1.077482740581487</v>
       </c>
       <c r="K9">
-        <v>1.048422022293208</v>
+        <v>1.075442708551884</v>
       </c>
       <c r="L9">
-        <v>1.042946116703168</v>
+        <v>1.07875751752813</v>
       </c>
       <c r="M9">
-        <v>1.049233485732983</v>
+        <v>1.084411962779209</v>
       </c>
       <c r="N9">
-        <v>1.04765482734009</v>
+        <v>1.07901288966211</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.005841234598867</v>
+        <v>1.069447226151252</v>
       </c>
       <c r="D10">
-        <v>1.022989237896008</v>
+        <v>1.070374296232096</v>
       </c>
       <c r="E10">
-        <v>1.015739377611183</v>
+        <v>1.073342827201148</v>
       </c>
       <c r="F10">
-        <v>1.022312630381953</v>
+        <v>1.079052894324078</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049575842862174</v>
+        <v>1.058883500789839</v>
       </c>
       <c r="J10">
-        <v>1.033824999951026</v>
+        <v>1.075556879336268</v>
       </c>
       <c r="K10">
-        <v>1.036955460275718</v>
+        <v>1.073701413602798</v>
       </c>
       <c r="L10">
-        <v>1.029830151134698</v>
+        <v>1.076660103442437</v>
       </c>
       <c r="M10">
-        <v>1.036290380210501</v>
+        <v>1.082351407741242</v>
       </c>
       <c r="N10">
-        <v>1.035293150032342</v>
+        <v>1.077084293473025</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.998721815787179</v>
+        <v>1.068381061915519</v>
       </c>
       <c r="D11">
-        <v>1.017069138030046</v>
+        <v>1.069495171671327</v>
       </c>
       <c r="E11">
-        <v>1.009051273032548</v>
+        <v>1.072309964002858</v>
       </c>
       <c r="F11">
-        <v>1.015711702012093</v>
+        <v>1.078036621496489</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046123459193945</v>
+        <v>1.058452133376091</v>
       </c>
       <c r="J11">
-        <v>1.028147865561918</v>
+        <v>1.074718265935972</v>
       </c>
       <c r="K11">
-        <v>1.03167617805471</v>
+        <v>1.072942388425837</v>
       </c>
       <c r="L11">
-        <v>1.023804490701148</v>
+        <v>1.075747481539917</v>
       </c>
       <c r="M11">
-        <v>1.030343279072082</v>
+        <v>1.081454577991577</v>
       </c>
       <c r="N11">
-        <v>1.029607953461224</v>
+        <v>1.076244489145509</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9960090082868891</v>
+        <v>1.067984382411376</v>
       </c>
       <c r="D12">
-        <v>1.014813604112977</v>
+        <v>1.069167954205956</v>
       </c>
       <c r="E12">
-        <v>1.006504316414357</v>
+        <v>1.071925721061676</v>
       </c>
       <c r="F12">
-        <v>1.013197937893858</v>
+        <v>1.077658517392308</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044805060333732</v>
+        <v>1.058291293071807</v>
       </c>
       <c r="J12">
-        <v>1.025983239758341</v>
+        <v>1.074406047956521</v>
       </c>
       <c r="K12">
-        <v>1.029662397387175</v>
+        <v>1.072659684132349</v>
       </c>
       <c r="L12">
-        <v>1.021507955968581</v>
+        <v>1.075407814180199</v>
       </c>
       <c r="M12">
-        <v>1.028076580295596</v>
+        <v>1.081120751386261</v>
       </c>
       <c r="N12">
-        <v>1.02744025364072</v>
+        <v>1.075931827780716</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9965941429638131</v>
+        <v>1.06806950157264</v>
       </c>
       <c r="D13">
-        <v>1.015300091995977</v>
+        <v>1.069238174059939</v>
       </c>
       <c r="E13">
-        <v>1.007053607792418</v>
+        <v>1.072008169483742</v>
       </c>
       <c r="F13">
-        <v>1.01374007046004</v>
+        <v>1.07773965007713</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045089559312095</v>
+        <v>1.058325821646163</v>
       </c>
       <c r="J13">
-        <v>1.026450196363297</v>
+        <v>1.074473052549173</v>
       </c>
       <c r="K13">
-        <v>1.030096851570167</v>
+        <v>1.072720360141998</v>
       </c>
       <c r="L13">
-        <v>1.022003323776462</v>
+        <v>1.075480704927997</v>
       </c>
       <c r="M13">
-        <v>1.028565516731881</v>
+        <v>1.081192390409171</v>
       </c>
       <c r="N13">
-        <v>1.027907873377616</v>
+        <v>1.075998927527575</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.99849901675368</v>
+        <v>1.068348285792264</v>
       </c>
       <c r="D14">
-        <v>1.016883887394652</v>
+        <v>1.069468137547452</v>
       </c>
       <c r="E14">
-        <v>1.008842063771651</v>
+        <v>1.072278214514645</v>
       </c>
       <c r="F14">
-        <v>1.015505219121615</v>
+        <v>1.078005379926373</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046015238996553</v>
+        <v>1.058438850779841</v>
       </c>
       <c r="J14">
-        <v>1.027970115486908</v>
+        <v>1.074692472656737</v>
       </c>
       <c r="K14">
-        <v>1.031510831890676</v>
+        <v>1.07291903575113</v>
       </c>
       <c r="L14">
-        <v>1.023615888908275</v>
+        <v>1.075719418460389</v>
       </c>
       <c r="M14">
-        <v>1.030157129517441</v>
+        <v>1.081426998223219</v>
       </c>
       <c r="N14">
-        <v>1.02942995096072</v>
+        <v>1.076218659236859</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9996633686007221</v>
+        <v>1.06851996619813</v>
       </c>
       <c r="D15">
-        <v>1.017852023164812</v>
+        <v>1.069609736272465</v>
       </c>
       <c r="E15">
-        <v>1.009935457019995</v>
+        <v>1.07244451934126</v>
       </c>
       <c r="F15">
-        <v>1.016584363475111</v>
+        <v>1.078169022908704</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046580683038286</v>
+        <v>1.058508410534979</v>
       </c>
       <c r="J15">
-        <v>1.028898984841603</v>
+        <v>1.074827568875616</v>
       </c>
       <c r="K15">
-        <v>1.032374847665382</v>
+        <v>1.07304134413762</v>
       </c>
       <c r="L15">
-        <v>1.024601505922223</v>
+        <v>1.075866407365193</v>
       </c>
       <c r="M15">
-        <v>1.031129927236055</v>
+        <v>1.081571454129103</v>
       </c>
       <c r="N15">
-        <v>1.030360139416441</v>
+        <v>1.076353947307865</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.006304586631932</v>
+        <v>1.069517892469744</v>
       </c>
       <c r="D16">
-        <v>1.023374562952065</v>
+        <v>1.070432547393169</v>
       </c>
       <c r="E16">
-        <v>1.016174855460258</v>
+        <v>1.073411292781167</v>
       </c>
       <c r="F16">
-        <v>1.022742429305386</v>
+        <v>1.079120255543443</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049800133947311</v>
+        <v>1.058912043926485</v>
       </c>
       <c r="J16">
-        <v>1.034194288373867</v>
+        <v>1.075612435150389</v>
       </c>
       <c r="K16">
-        <v>1.037298751829497</v>
+        <v>1.073751680509993</v>
       </c>
       <c r="L16">
-        <v>1.030222243962535</v>
+        <v>1.076720576696407</v>
       </c>
       <c r="M16">
-        <v>1.036677345424957</v>
+        <v>1.082410829389289</v>
       </c>
       <c r="N16">
-        <v>1.0356629628871</v>
+        <v>1.077139928182773</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.010357172957141</v>
+        <v>1.070142708661836</v>
       </c>
       <c r="D17">
-        <v>1.026744799391697</v>
+        <v>1.070947492652593</v>
       </c>
       <c r="E17">
-        <v>1.019984669450765</v>
+        <v>1.074016685888731</v>
       </c>
       <c r="F17">
-        <v>1.026502535228717</v>
+        <v>1.079715858170128</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051759636497265</v>
+        <v>1.059164151466624</v>
       </c>
       <c r="J17">
-        <v>1.037423077272525</v>
+        <v>1.076103492773755</v>
       </c>
       <c r="K17">
-        <v>1.040299600791384</v>
+        <v>1.074195899571645</v>
       </c>
       <c r="L17">
-        <v>1.03365113927785</v>
+        <v>1.077255179471328</v>
       </c>
       <c r="M17">
-        <v>1.040061305842154</v>
+        <v>1.082936107306778</v>
       </c>
       <c r="N17">
-        <v>1.038896337036342</v>
+        <v>1.07763168316429</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.01268250047787</v>
+        <v>1.070506741646845</v>
       </c>
       <c r="D18">
-        <v>1.028678650858079</v>
+        <v>1.071247429589844</v>
       </c>
       <c r="E18">
-        <v>1.022171523391814</v>
+        <v>1.074369431961094</v>
       </c>
       <c r="F18">
-        <v>1.028660830145551</v>
+        <v>1.080062878387621</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052882135035857</v>
+        <v>1.059310814389785</v>
       </c>
       <c r="J18">
-        <v>1.039274794407905</v>
+        <v>1.076389465519967</v>
       </c>
       <c r="K18">
-        <v>1.042020057677062</v>
+        <v>1.07445452027096</v>
       </c>
       <c r="L18">
-        <v>1.035618215790442</v>
+        <v>1.077566577946075</v>
       </c>
       <c r="M18">
-        <v>1.042002522971254</v>
+        <v>1.083242050528348</v>
       </c>
       <c r="N18">
-        <v>1.040750683822449</v>
+        <v>1.077918062024603</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.013469058411028</v>
+        <v>1.070630798127576</v>
       </c>
       <c r="D19">
-        <v>1.029332792687051</v>
+        <v>1.071349629163093</v>
       </c>
       <c r="E19">
-        <v>1.022911377815996</v>
+        <v>1.074489647026276</v>
       </c>
       <c r="F19">
-        <v>1.029391017171944</v>
+        <v>1.080181138496281</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053261513541006</v>
+        <v>1.059360757219751</v>
       </c>
       <c r="J19">
-        <v>1.039900991093587</v>
+        <v>1.076486898417244</v>
       </c>
       <c r="K19">
-        <v>1.042601774673261</v>
+        <v>1.074542621394627</v>
       </c>
       <c r="L19">
-        <v>1.036283524730777</v>
+        <v>1.077672684887259</v>
       </c>
       <c r="M19">
-        <v>1.042659071283548</v>
+        <v>1.083346294614868</v>
       </c>
       <c r="N19">
-        <v>1.04137776977925</v>
+        <v>1.07801563328777</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.009926398950347</v>
+        <v>1.070075714499055</v>
       </c>
       <c r="D20">
-        <v>1.026386550265507</v>
+        <v>1.070892287635372</v>
       </c>
       <c r="E20">
-        <v>1.01957961418502</v>
+        <v>1.073951771261158</v>
       </c>
       <c r="F20">
-        <v>1.026102767398147</v>
+        <v>1.079651995543115</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051551540288357</v>
+        <v>1.059137142812107</v>
       </c>
       <c r="J20">
-        <v>1.037079965378346</v>
+        <v>1.076050853873711</v>
       </c>
       <c r="K20">
-        <v>1.039980767003539</v>
+        <v>1.074148289301267</v>
       </c>
       <c r="L20">
-        <v>1.033286700453445</v>
+        <v>1.077197865844161</v>
       </c>
       <c r="M20">
-        <v>1.039701651216816</v>
+        <v>1.082879795825759</v>
       </c>
       <c r="N20">
-        <v>1.038552737883918</v>
+        <v>1.07757896951097</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9979400326665357</v>
+        <v>1.068266209097859</v>
       </c>
       <c r="D21">
-        <v>1.016419114269588</v>
+        <v>1.069400437673594</v>
       </c>
       <c r="E21">
-        <v>1.00831719993826</v>
+        <v>1.07219870943243</v>
       </c>
       <c r="F21">
-        <v>1.014987195229671</v>
+        <v>1.077927146206997</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045743677462114</v>
+        <v>1.058405583451961</v>
       </c>
       <c r="J21">
-        <v>1.027524133461649</v>
+        <v>1.074627878874942</v>
       </c>
       <c r="K21">
-        <v>1.03109595815938</v>
+        <v>1.072860552052077</v>
       </c>
       <c r="L21">
-        <v>1.02314269526601</v>
+        <v>1.075649142128305</v>
       </c>
       <c r="M21">
-        <v>1.029690086835194</v>
+        <v>1.081357931616473</v>
       </c>
       <c r="N21">
-        <v>1.02898333558983</v>
+        <v>1.076153973724485</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9900035519095164</v>
+        <v>1.067124682585299</v>
       </c>
       <c r="D22">
-        <v>1.009821183259109</v>
+        <v>1.068458560929424</v>
       </c>
       <c r="E22">
-        <v>1.000868979325462</v>
+        <v>1.071093059898072</v>
       </c>
       <c r="F22">
-        <v>1.007636072954034</v>
+        <v>1.076839098714646</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041881206603614</v>
+        <v>1.057942082762557</v>
       </c>
       <c r="J22">
-        <v>1.021188856899076</v>
+        <v>1.073729027903331</v>
       </c>
       <c r="K22">
-        <v>1.025200559402119</v>
+        <v>1.072046447708126</v>
       </c>
       <c r="L22">
-        <v>1.016423241199</v>
+        <v>1.074671462942512</v>
       </c>
       <c r="M22">
-        <v>1.023057760491505</v>
+        <v>1.080396994581039</v>
       </c>
       <c r="N22">
-        <v>1.022639062207871</v>
+        <v>1.075253846281395</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9942516514982671</v>
+        <v>1.06773019468974</v>
       </c>
       <c r="D23">
-        <v>1.013352573844314</v>
+        <v>1.068958240889557</v>
       </c>
       <c r="E23">
-        <v>1.004854842266616</v>
+        <v>1.071679515702283</v>
       </c>
       <c r="F23">
-        <v>1.011569963050283</v>
+        <v>1.077416236213441</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043950196343061</v>
+        <v>1.058188131390794</v>
       </c>
       <c r="J23">
-        <v>1.024580615481281</v>
+        <v>1.074205925497069</v>
       </c>
       <c r="K23">
-        <v>1.028357278841802</v>
+        <v>1.072478446078208</v>
       </c>
       <c r="L23">
-        <v>1.020020136138612</v>
+        <v>1.075190126806229</v>
       </c>
       <c r="M23">
-        <v>1.026608063524136</v>
+        <v>1.08090679687277</v>
       </c>
       <c r="N23">
-        <v>1.026035637476304</v>
+        <v>1.075731421124417</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.010121165535248</v>
+        <v>1.070105987549536</v>
       </c>
       <c r="D24">
-        <v>1.026548525914677</v>
+        <v>1.070917233709978</v>
       </c>
       <c r="E24">
-        <v>1.019762749951021</v>
+        <v>1.073981104528706</v>
       </c>
       <c r="F24">
-        <v>1.026283512664682</v>
+        <v>1.079680853503965</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051645632916685</v>
+        <v>1.059149348056661</v>
       </c>
       <c r="J24">
-        <v>1.037235100027279</v>
+        <v>1.076074640525992</v>
       </c>
       <c r="K24">
-        <v>1.040124926216594</v>
+        <v>1.074169803830839</v>
       </c>
       <c r="L24">
-        <v>1.033451476002914</v>
+        <v>1.077223764722286</v>
       </c>
       <c r="M24">
-        <v>1.039864263917003</v>
+        <v>1.0829052419273</v>
       </c>
       <c r="N24">
-        <v>1.038708092841846</v>
+        <v>1.077602789943025</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.027044104128934</v>
+        <v>1.072846866233748</v>
       </c>
       <c r="D25">
-        <v>1.040621854945562</v>
+        <v>1.073174029810988</v>
       </c>
       <c r="E25">
-        <v>1.035691185563016</v>
+        <v>1.076637526641898</v>
       </c>
       <c r="F25">
-        <v>1.042003218483828</v>
+        <v>1.082293774162079</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.059782029528498</v>
+        <v>1.060249625959734</v>
       </c>
       <c r="J25">
-        <v>1.050694387958846</v>
+        <v>1.078225460657449</v>
       </c>
       <c r="K25">
-        <v>1.052620676778925</v>
+        <v>1.07611355673243</v>
       </c>
       <c r="L25">
-        <v>1.047759601696068</v>
+        <v>1.079567013525837</v>
       </c>
       <c r="M25">
-        <v>1.053982692076279</v>
+        <v>1.085207014705405</v>
       </c>
       <c r="N25">
-        <v>1.052186494506079</v>
+        <v>1.079756664485771</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_54/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.075020570840446</v>
+        <v>1.039558236069644</v>
       </c>
       <c r="D2">
-        <v>1.074961202190801</v>
+        <v>1.051024939417912</v>
       </c>
       <c r="E2">
-        <v>1.078745159909038</v>
+        <v>1.04749029942275</v>
       </c>
       <c r="F2">
-        <v>1.084366223436723</v>
+        <v>1.05364599529271</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.061115250838073</v>
+        <v>1.065741361545209</v>
       </c>
       <c r="J2">
-        <v>1.079927127846741</v>
+        <v>1.060616878776251</v>
       </c>
       <c r="K2">
-        <v>1.077649031706224</v>
+        <v>1.061816399624016</v>
       </c>
       <c r="L2">
-        <v>1.081423027142735</v>
+        <v>1.058325411722035</v>
       </c>
       <c r="M2">
-        <v>1.087029430281817</v>
+        <v>1.064405321128177</v>
       </c>
       <c r="N2">
-        <v>1.081460748237657</v>
+        <v>1.062123076398569</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.076591953828826</v>
+        <v>1.048160798053377</v>
       </c>
       <c r="D3">
-        <v>1.07625163041827</v>
+        <v>1.058172128542266</v>
       </c>
       <c r="E3">
-        <v>1.080269297306914</v>
+        <v>1.05561143297688</v>
       </c>
       <c r="F3">
-        <v>1.085864528931957</v>
+        <v>1.061658195981503</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.061736971784661</v>
+        <v>1.069804142570466</v>
       </c>
       <c r="J3">
-        <v>1.081154903621809</v>
+        <v>1.06741942551869</v>
       </c>
       <c r="K3">
-        <v>1.078755524041825</v>
+        <v>1.06811109866088</v>
       </c>
       <c r="L3">
-        <v>1.082763385880615</v>
+        <v>1.065578966263234</v>
       </c>
       <c r="M3">
-        <v>1.088345092336323</v>
+        <v>1.071558553144576</v>
       </c>
       <c r="N3">
-        <v>1.082690267595153</v>
+        <v>1.068935283537646</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.077605632912954</v>
+        <v>1.053527149042663</v>
       </c>
       <c r="D4">
-        <v>1.077083359009521</v>
+        <v>1.062628121615029</v>
       </c>
       <c r="E4">
-        <v>1.081252735489641</v>
+        <v>1.060681668628061</v>
       </c>
       <c r="F4">
-        <v>1.086831119334081</v>
+        <v>1.066659715582097</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.062136163780126</v>
+        <v>1.072322678036894</v>
       </c>
       <c r="J4">
-        <v>1.081945828916188</v>
+        <v>1.071654115074227</v>
       </c>
       <c r="K4">
-        <v>1.079467683090691</v>
+        <v>1.07202516846255</v>
       </c>
       <c r="L4">
-        <v>1.083627401408637</v>
+        <v>1.070098989303154</v>
       </c>
       <c r="M4">
-        <v>1.089192987356396</v>
+        <v>1.076015057309454</v>
       </c>
       <c r="N4">
-        <v>1.08348231609417</v>
+        <v>1.073175986838078</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.078031051717314</v>
+        <v>1.055738392313557</v>
       </c>
       <c r="D5">
-        <v>1.077432246681844</v>
+        <v>1.064463574984464</v>
       </c>
       <c r="E5">
-        <v>1.081665519086292</v>
+        <v>1.062771843258307</v>
       </c>
       <c r="F5">
-        <v>1.087236788209337</v>
+        <v>1.06872138062978</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062303247335076</v>
+        <v>1.073356618442369</v>
       </c>
       <c r="J5">
-        <v>1.08227749992742</v>
+        <v>1.073396900416153</v>
       </c>
       <c r="K5">
-        <v>1.079766171322576</v>
+        <v>1.073634921755881</v>
       </c>
       <c r="L5">
-        <v>1.083989857905898</v>
+        <v>1.071960298366099</v>
       </c>
       <c r="M5">
-        <v>1.089548633170818</v>
+        <v>1.077849960030595</v>
       </c>
       <c r="N5">
-        <v>1.083814458116281</v>
+        <v>1.07492124713509</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.078102438859624</v>
+        <v>1.056107129491821</v>
       </c>
       <c r="D6">
-        <v>1.077490781548832</v>
+        <v>1.064769605602599</v>
       </c>
       <c r="E6">
-        <v>1.08173478927141</v>
+        <v>1.063120445657302</v>
       </c>
       <c r="F6">
-        <v>1.087304861926508</v>
+        <v>1.069065217127357</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062331258371648</v>
+        <v>1.073528806887935</v>
       </c>
       <c r="J6">
-        <v>1.082333140349558</v>
+        <v>1.073687392138565</v>
       </c>
       <c r="K6">
-        <v>1.07981623612125</v>
+        <v>1.073903175556715</v>
       </c>
       <c r="L6">
-        <v>1.084050670783691</v>
+        <v>1.072270610271294</v>
       </c>
       <c r="M6">
-        <v>1.089608300531097</v>
+        <v>1.078155854603414</v>
       </c>
       <c r="N6">
-        <v>1.083870177554201</v>
+        <v>1.075212151389068</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.077611320237993</v>
+        <v>1.053556867802094</v>
       </c>
       <c r="D7">
-        <v>1.077088023878745</v>
+        <v>1.062652792568695</v>
       </c>
       <c r="E7">
-        <v>1.081258253676977</v>
+        <v>1.060709756564291</v>
       </c>
       <c r="F7">
-        <v>1.086836542579724</v>
+        <v>1.066687421140049</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.06213839924531</v>
+        <v>1.072336589295966</v>
       </c>
       <c r="J7">
-        <v>1.081950263982927</v>
+        <v>1.071677546397801</v>
       </c>
       <c r="K7">
-        <v>1.079471675041173</v>
+        <v>1.072046815498634</v>
       </c>
       <c r="L7">
-        <v>1.083632247602535</v>
+        <v>1.070124009810943</v>
       </c>
       <c r="M7">
-        <v>1.089197742677835</v>
+        <v>1.076039723853603</v>
       </c>
       <c r="N7">
-        <v>1.083486757459213</v>
+        <v>1.073199451436819</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C8">
-        <v>1.075552278953304</v>
+        <v>1.042508930018027</v>
       </c>
       <c r="D8">
-        <v>1.075397990829849</v>
+        <v>1.053476916373585</v>
       </c>
       <c r="E8">
-        <v>1.079260832205263</v>
+        <v>1.050274931885456</v>
       </c>
       <c r="F8">
-        <v>1.084873193148427</v>
+        <v>1.056393417742641</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061326010542392</v>
+        <v>1.067138243499522</v>
       </c>
       <c r="J8">
-        <v>1.08034279724616</v>
+        <v>1.062952004712929</v>
       </c>
       <c r="K8">
-        <v>1.078023772040517</v>
+        <v>1.063978141599111</v>
       </c>
       <c r="L8">
-        <v>1.081876694791309</v>
+        <v>1.06081438305809</v>
       </c>
       <c r="M8">
-        <v>1.087474780531151</v>
+        <v>1.066860074959114</v>
       </c>
       <c r="N8">
-        <v>1.0818770079353</v>
+        <v>1.064461518481921</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.071899580885731</v>
+        <v>1.021348368505876</v>
       </c>
       <c r="D9">
-        <v>1.072394455793066</v>
+        <v>1.035885517315668</v>
       </c>
       <c r="E9">
-        <v>1.07571928843943</v>
+        <v>1.030326626109486</v>
       </c>
       <c r="F9">
-        <v>1.081390676818579</v>
+        <v>1.03670918057199</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.059870436376268</v>
+        <v>1.057052686290863</v>
       </c>
       <c r="J9">
-        <v>1.077482740581487</v>
+        <v>1.046169147153852</v>
       </c>
       <c r="K9">
-        <v>1.075442708551884</v>
+        <v>1.048422022293207</v>
       </c>
       <c r="L9">
-        <v>1.07875751752813</v>
+        <v>1.042946116703166</v>
       </c>
       <c r="M9">
-        <v>1.084411962779209</v>
+        <v>1.049233485732981</v>
       </c>
       <c r="N9">
-        <v>1.07901288966211</v>
+        <v>1.047654827340089</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.069447226151252</v>
+        <v>1.005841234598867</v>
       </c>
       <c r="D10">
-        <v>1.070374296232096</v>
+        <v>1.022989237896007</v>
       </c>
       <c r="E10">
-        <v>1.073342827201148</v>
+        <v>1.015739377611182</v>
       </c>
       <c r="F10">
-        <v>1.079052894324078</v>
+        <v>1.022312630381953</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.058883500789839</v>
+        <v>1.049575842862173</v>
       </c>
       <c r="J10">
-        <v>1.075556879336268</v>
+        <v>1.033824999951026</v>
       </c>
       <c r="K10">
-        <v>1.073701413602798</v>
+        <v>1.036955460275718</v>
       </c>
       <c r="L10">
-        <v>1.076660103442437</v>
+        <v>1.029830151134697</v>
       </c>
       <c r="M10">
-        <v>1.082351407741242</v>
+        <v>1.036290380210501</v>
       </c>
       <c r="N10">
-        <v>1.077084293473025</v>
+        <v>1.035293150032341</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.068381061915519</v>
+        <v>0.9987218157871791</v>
       </c>
       <c r="D11">
-        <v>1.069495171671327</v>
+        <v>1.017069138030046</v>
       </c>
       <c r="E11">
-        <v>1.072309964002858</v>
+        <v>1.009051273032548</v>
       </c>
       <c r="F11">
-        <v>1.078036621496489</v>
+        <v>1.015711702012093</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.058452133376091</v>
+        <v>1.046123459193945</v>
       </c>
       <c r="J11">
-        <v>1.074718265935972</v>
+        <v>1.028147865561918</v>
       </c>
       <c r="K11">
-        <v>1.072942388425837</v>
+        <v>1.03167617805471</v>
       </c>
       <c r="L11">
-        <v>1.075747481539917</v>
+        <v>1.023804490701148</v>
       </c>
       <c r="M11">
-        <v>1.081454577991577</v>
+        <v>1.030343279072082</v>
       </c>
       <c r="N11">
-        <v>1.076244489145509</v>
+        <v>1.029607953461224</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.067984382411376</v>
+        <v>0.9960090082868894</v>
       </c>
       <c r="D12">
-        <v>1.069167954205956</v>
+        <v>1.014813604112978</v>
       </c>
       <c r="E12">
-        <v>1.071925721061676</v>
+        <v>1.006504316414358</v>
       </c>
       <c r="F12">
-        <v>1.077658517392308</v>
+        <v>1.013197937893858</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.058291293071807</v>
+        <v>1.044805060333733</v>
       </c>
       <c r="J12">
-        <v>1.074406047956521</v>
+        <v>1.025983239758341</v>
       </c>
       <c r="K12">
-        <v>1.072659684132349</v>
+        <v>1.029662397387175</v>
       </c>
       <c r="L12">
-        <v>1.075407814180199</v>
+        <v>1.021507955968582</v>
       </c>
       <c r="M12">
-        <v>1.081120751386261</v>
+        <v>1.028076580295596</v>
       </c>
       <c r="N12">
-        <v>1.075931827780716</v>
+        <v>1.027440253640721</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.06806950157264</v>
+        <v>0.9965941429638165</v>
       </c>
       <c r="D13">
-        <v>1.069238174059939</v>
+        <v>1.01530009199598</v>
       </c>
       <c r="E13">
-        <v>1.072008169483742</v>
+        <v>1.007053607792421</v>
       </c>
       <c r="F13">
-        <v>1.07773965007713</v>
+        <v>1.013740070460043</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.058325821646163</v>
+        <v>1.045089559312097</v>
       </c>
       <c r="J13">
-        <v>1.074473052549173</v>
+        <v>1.0264501963633</v>
       </c>
       <c r="K13">
-        <v>1.072720360141998</v>
+        <v>1.03009685157017</v>
       </c>
       <c r="L13">
-        <v>1.075480704927997</v>
+        <v>1.022003323776465</v>
       </c>
       <c r="M13">
-        <v>1.081192390409171</v>
+        <v>1.028565516731884</v>
       </c>
       <c r="N13">
-        <v>1.075998927527575</v>
+        <v>1.027907873377619</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.068348285792264</v>
+        <v>0.9984990167536791</v>
       </c>
       <c r="D14">
-        <v>1.069468137547452</v>
+        <v>1.016883887394651</v>
       </c>
       <c r="E14">
-        <v>1.072278214514645</v>
+        <v>1.00884206377165</v>
       </c>
       <c r="F14">
-        <v>1.078005379926373</v>
+        <v>1.015505219121614</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.058438850779841</v>
+        <v>1.046015238996552</v>
       </c>
       <c r="J14">
-        <v>1.074692472656737</v>
+        <v>1.027970115486907</v>
       </c>
       <c r="K14">
-        <v>1.07291903575113</v>
+        <v>1.031510831890675</v>
       </c>
       <c r="L14">
-        <v>1.075719418460389</v>
+        <v>1.023615888908274</v>
       </c>
       <c r="M14">
-        <v>1.081426998223219</v>
+        <v>1.030157129517439</v>
       </c>
       <c r="N14">
-        <v>1.076218659236859</v>
+        <v>1.029429950960719</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.06851996619813</v>
+        <v>0.9996633686007197</v>
       </c>
       <c r="D15">
-        <v>1.069609736272465</v>
+        <v>1.017852023164809</v>
       </c>
       <c r="E15">
-        <v>1.07244451934126</v>
+        <v>1.009935457019992</v>
       </c>
       <c r="F15">
-        <v>1.078169022908704</v>
+        <v>1.016584363475108</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.058508410534979</v>
+        <v>1.046580683038284</v>
       </c>
       <c r="J15">
-        <v>1.074827568875616</v>
+        <v>1.028898984841601</v>
       </c>
       <c r="K15">
-        <v>1.07304134413762</v>
+        <v>1.032374847665379</v>
       </c>
       <c r="L15">
-        <v>1.075866407365193</v>
+        <v>1.02460150592222</v>
       </c>
       <c r="M15">
-        <v>1.081571454129103</v>
+        <v>1.031129927236053</v>
       </c>
       <c r="N15">
-        <v>1.076353947307865</v>
+        <v>1.030360139416439</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.069517892469744</v>
+        <v>1.006304586631932</v>
       </c>
       <c r="D16">
-        <v>1.070432547393169</v>
+        <v>1.023374562952066</v>
       </c>
       <c r="E16">
-        <v>1.073411292781167</v>
+        <v>1.016174855460259</v>
       </c>
       <c r="F16">
-        <v>1.079120255543443</v>
+        <v>1.022742429305386</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.058912043926485</v>
+        <v>1.049800133947312</v>
       </c>
       <c r="J16">
-        <v>1.075612435150389</v>
+        <v>1.034194288373867</v>
       </c>
       <c r="K16">
-        <v>1.073751680509993</v>
+        <v>1.037298751829498</v>
       </c>
       <c r="L16">
-        <v>1.076720576696407</v>
+        <v>1.030222243962536</v>
       </c>
       <c r="M16">
-        <v>1.082410829389289</v>
+        <v>1.036677345424957</v>
       </c>
       <c r="N16">
-        <v>1.077139928182773</v>
+        <v>1.035662962887101</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.070142708661836</v>
+        <v>1.010357172957142</v>
       </c>
       <c r="D17">
-        <v>1.070947492652593</v>
+        <v>1.026744799391698</v>
       </c>
       <c r="E17">
-        <v>1.074016685888731</v>
+        <v>1.019984669450765</v>
       </c>
       <c r="F17">
-        <v>1.079715858170128</v>
+        <v>1.026502535228718</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.059164151466624</v>
+        <v>1.051759636497265</v>
       </c>
       <c r="J17">
-        <v>1.076103492773755</v>
+        <v>1.037423077272526</v>
       </c>
       <c r="K17">
-        <v>1.074195899571645</v>
+        <v>1.040299600791385</v>
       </c>
       <c r="L17">
-        <v>1.077255179471328</v>
+        <v>1.033651139277851</v>
       </c>
       <c r="M17">
-        <v>1.082936107306778</v>
+        <v>1.040061305842154</v>
       </c>
       <c r="N17">
-        <v>1.07763168316429</v>
+        <v>1.038896337036343</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.070506741646845</v>
+        <v>1.01268250047787</v>
       </c>
       <c r="D18">
-        <v>1.071247429589844</v>
+        <v>1.02867865085808</v>
       </c>
       <c r="E18">
-        <v>1.074369431961094</v>
+        <v>1.022171523391814</v>
       </c>
       <c r="F18">
-        <v>1.080062878387621</v>
+        <v>1.028660830145551</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.059310814389785</v>
+        <v>1.052882135035857</v>
       </c>
       <c r="J18">
-        <v>1.076389465519967</v>
+        <v>1.039274794407905</v>
       </c>
       <c r="K18">
-        <v>1.07445452027096</v>
+        <v>1.042020057677062</v>
       </c>
       <c r="L18">
-        <v>1.077566577946075</v>
+        <v>1.035618215790442</v>
       </c>
       <c r="M18">
-        <v>1.083242050528348</v>
+        <v>1.042002522971254</v>
       </c>
       <c r="N18">
-        <v>1.077918062024603</v>
+        <v>1.040750683822449</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.070630798127576</v>
+        <v>1.013469058411028</v>
       </c>
       <c r="D19">
-        <v>1.071349629163093</v>
+        <v>1.029332792687051</v>
       </c>
       <c r="E19">
-        <v>1.074489647026276</v>
+        <v>1.022911377815996</v>
       </c>
       <c r="F19">
-        <v>1.080181138496281</v>
+        <v>1.029391017171944</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.059360757219751</v>
+        <v>1.053261513541006</v>
       </c>
       <c r="J19">
-        <v>1.076486898417244</v>
+        <v>1.039900991093587</v>
       </c>
       <c r="K19">
-        <v>1.074542621394627</v>
+        <v>1.042601774673261</v>
       </c>
       <c r="L19">
-        <v>1.077672684887259</v>
+        <v>1.036283524730777</v>
       </c>
       <c r="M19">
-        <v>1.083346294614868</v>
+        <v>1.042659071283548</v>
       </c>
       <c r="N19">
-        <v>1.07801563328777</v>
+        <v>1.04137776977925</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.070075714499055</v>
+        <v>1.009926398950347</v>
       </c>
       <c r="D20">
-        <v>1.070892287635372</v>
+        <v>1.026386550265507</v>
       </c>
       <c r="E20">
-        <v>1.073951771261158</v>
+        <v>1.019579614185019</v>
       </c>
       <c r="F20">
-        <v>1.079651995543115</v>
+        <v>1.026102767398147</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.059137142812107</v>
+        <v>1.051551540288357</v>
       </c>
       <c r="J20">
-        <v>1.076050853873711</v>
+        <v>1.037079965378346</v>
       </c>
       <c r="K20">
-        <v>1.074148289301267</v>
+        <v>1.039980767003539</v>
       </c>
       <c r="L20">
-        <v>1.077197865844161</v>
+        <v>1.033286700453445</v>
       </c>
       <c r="M20">
-        <v>1.082879795825759</v>
+        <v>1.039701651216815</v>
       </c>
       <c r="N20">
-        <v>1.07757896951097</v>
+        <v>1.038552737883917</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.068266209097859</v>
+        <v>0.9979400326665386</v>
       </c>
       <c r="D21">
-        <v>1.069400437673594</v>
+        <v>1.01641911426959</v>
       </c>
       <c r="E21">
-        <v>1.07219870943243</v>
+        <v>1.008317199938263</v>
       </c>
       <c r="F21">
-        <v>1.077927146206997</v>
+        <v>1.014987195229674</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.058405583451961</v>
+        <v>1.045743677462116</v>
       </c>
       <c r="J21">
-        <v>1.074627878874942</v>
+        <v>1.027524133461652</v>
       </c>
       <c r="K21">
-        <v>1.072860552052077</v>
+        <v>1.031095958159383</v>
       </c>
       <c r="L21">
-        <v>1.075649142128305</v>
+        <v>1.023142695266013</v>
       </c>
       <c r="M21">
-        <v>1.081357931616473</v>
+        <v>1.029690086835197</v>
       </c>
       <c r="N21">
-        <v>1.076153973724485</v>
+        <v>1.028983335589833</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.067124682585299</v>
+        <v>0.9900035519095147</v>
       </c>
       <c r="D22">
-        <v>1.068458560929424</v>
+        <v>1.009821183259108</v>
       </c>
       <c r="E22">
-        <v>1.071093059898072</v>
+        <v>1.000868979325461</v>
       </c>
       <c r="F22">
-        <v>1.076839098714646</v>
+        <v>1.007636072954033</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.057942082762557</v>
+        <v>1.041881206603613</v>
       </c>
       <c r="J22">
-        <v>1.073729027903331</v>
+        <v>1.021188856899074</v>
       </c>
       <c r="K22">
-        <v>1.072046447708126</v>
+        <v>1.025200559402118</v>
       </c>
       <c r="L22">
-        <v>1.074671462942512</v>
+        <v>1.016423241198999</v>
       </c>
       <c r="M22">
-        <v>1.080396994581039</v>
+        <v>1.023057760491503</v>
       </c>
       <c r="N22">
-        <v>1.075253846281395</v>
+        <v>1.02263906220787</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.06773019468974</v>
+        <v>0.9942516514982628</v>
       </c>
       <c r="D23">
-        <v>1.068958240889557</v>
+        <v>1.01335257384431</v>
       </c>
       <c r="E23">
-        <v>1.071679515702283</v>
+        <v>1.004854842266611</v>
       </c>
       <c r="F23">
-        <v>1.077416236213441</v>
+        <v>1.011569963050278</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.058188131390794</v>
+        <v>1.043950196343058</v>
       </c>
       <c r="J23">
-        <v>1.074205925497069</v>
+        <v>1.024580615481277</v>
       </c>
       <c r="K23">
-        <v>1.072478446078208</v>
+        <v>1.028357278841798</v>
       </c>
       <c r="L23">
-        <v>1.075190126806229</v>
+        <v>1.020020136138608</v>
       </c>
       <c r="M23">
-        <v>1.08090679687277</v>
+        <v>1.026608063524132</v>
       </c>
       <c r="N23">
-        <v>1.075731421124417</v>
+        <v>1.0260356374763</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.070105987549536</v>
+        <v>1.010121165535247</v>
       </c>
       <c r="D24">
-        <v>1.070917233709978</v>
+        <v>1.026548525914676</v>
       </c>
       <c r="E24">
-        <v>1.073981104528706</v>
+        <v>1.01976274995102</v>
       </c>
       <c r="F24">
-        <v>1.079680853503965</v>
+        <v>1.026283512664681</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.059149348056661</v>
+        <v>1.051645632916684</v>
       </c>
       <c r="J24">
-        <v>1.076074640525992</v>
+        <v>1.037235100027278</v>
       </c>
       <c r="K24">
-        <v>1.074169803830839</v>
+        <v>1.040124926216593</v>
       </c>
       <c r="L24">
-        <v>1.077223764722286</v>
+        <v>1.033451476002914</v>
       </c>
       <c r="M24">
-        <v>1.0829052419273</v>
+        <v>1.039864263917002</v>
       </c>
       <c r="N24">
-        <v>1.077602789943025</v>
+        <v>1.038708092841845</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.072846866233748</v>
+        <v>1.027044104128929</v>
       </c>
       <c r="D25">
-        <v>1.073174029810988</v>
+        <v>1.040621854945558</v>
       </c>
       <c r="E25">
-        <v>1.076637526641898</v>
+        <v>1.035691185563011</v>
       </c>
       <c r="F25">
-        <v>1.082293774162079</v>
+        <v>1.042003218483824</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.060249625959734</v>
+        <v>1.059782029528496</v>
       </c>
       <c r="J25">
-        <v>1.078225460657449</v>
+        <v>1.050694387958842</v>
       </c>
       <c r="K25">
-        <v>1.07611355673243</v>
+        <v>1.052620676778921</v>
       </c>
       <c r="L25">
-        <v>1.079567013525837</v>
+        <v>1.047759601696063</v>
       </c>
       <c r="M25">
-        <v>1.085207014705405</v>
+        <v>1.053982692076275</v>
       </c>
       <c r="N25">
-        <v>1.079756664485771</v>
+        <v>1.052186494506075</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_54/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.039558236069644</v>
+        <v>1.009275176834674</v>
       </c>
       <c r="D2">
-        <v>1.051024939417912</v>
+        <v>1.027575240767201</v>
       </c>
       <c r="E2">
-        <v>1.04749029942275</v>
+        <v>1.017389415619554</v>
       </c>
       <c r="F2">
-        <v>1.05364599529271</v>
+        <v>1.029667998899339</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.065741361545209</v>
+        <v>1.050122354460283</v>
       </c>
       <c r="J2">
-        <v>1.060616878776251</v>
+        <v>1.031181964361863</v>
       </c>
       <c r="K2">
-        <v>1.061816399624016</v>
+        <v>1.038663324350243</v>
       </c>
       <c r="L2">
-        <v>1.058325411722035</v>
+        <v>1.028611689620573</v>
       </c>
       <c r="M2">
-        <v>1.064405321128177</v>
+        <v>1.040728923493243</v>
       </c>
       <c r="N2">
-        <v>1.062123076398569</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014234560142497</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.04080660140677</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.038408592034057</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.048160798053377</v>
+        <v>1.012732708714109</v>
       </c>
       <c r="D3">
-        <v>1.058172128542266</v>
+        <v>1.029860483843368</v>
       </c>
       <c r="E3">
-        <v>1.05561143297688</v>
+        <v>1.020357779227794</v>
       </c>
       <c r="F3">
-        <v>1.061658195981503</v>
+        <v>1.032297354930314</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.069804142570466</v>
+        <v>1.051058150386945</v>
       </c>
       <c r="J3">
-        <v>1.06741942551869</v>
+        <v>1.03288218454651</v>
       </c>
       <c r="K3">
-        <v>1.06811109866088</v>
+        <v>1.040125034789729</v>
       </c>
       <c r="L3">
-        <v>1.065578966263234</v>
+        <v>1.030736639766849</v>
       </c>
       <c r="M3">
-        <v>1.071558553144576</v>
+        <v>1.042533012371648</v>
       </c>
       <c r="N3">
-        <v>1.068935283537646</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014811030632658</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.042234414776228</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.039439482702746</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.053527149042663</v>
+        <v>1.014932219447857</v>
       </c>
       <c r="D4">
-        <v>1.062628121615029</v>
+        <v>1.031317773153161</v>
       </c>
       <c r="E4">
-        <v>1.060681668628061</v>
+        <v>1.022251286066353</v>
       </c>
       <c r="F4">
-        <v>1.066659715582097</v>
+        <v>1.033976482700461</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.072322678036894</v>
+        <v>1.051644469933671</v>
       </c>
       <c r="J4">
-        <v>1.071654115074227</v>
+        <v>1.0339615195421</v>
       </c>
       <c r="K4">
-        <v>1.07202516846255</v>
+        <v>1.041052360743058</v>
       </c>
       <c r="L4">
-        <v>1.070098989303154</v>
+        <v>1.032088374959676</v>
       </c>
       <c r="M4">
-        <v>1.076015057309454</v>
+        <v>1.043681431558248</v>
       </c>
       <c r="N4">
-        <v>1.073175986838078</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015177000257416</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.043143308814223</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.040096076984618</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.055738392313557</v>
+        <v>1.015851004466563</v>
       </c>
       <c r="D5">
-        <v>1.064463574984464</v>
+        <v>1.031929433563835</v>
       </c>
       <c r="E5">
-        <v>1.062771843258307</v>
+        <v>1.023043855638974</v>
       </c>
       <c r="F5">
-        <v>1.06872138062978</v>
+        <v>1.034678585085389</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.073356618442369</v>
+        <v>1.051888625326044</v>
       </c>
       <c r="J5">
-        <v>1.073396900416153</v>
+        <v>1.034413225648879</v>
       </c>
       <c r="K5">
-        <v>1.073634921755881</v>
+        <v>1.041441851614824</v>
       </c>
       <c r="L5">
-        <v>1.071960298366099</v>
+        <v>1.032654061444075</v>
       </c>
       <c r="M5">
-        <v>1.077849960030595</v>
+        <v>1.044161165419484</v>
       </c>
       <c r="N5">
-        <v>1.07492124713509</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015330523341946</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.04352298451551</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.040378646340659</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.056107129491821</v>
+        <v>1.016008294239167</v>
       </c>
       <c r="D6">
-        <v>1.064769605602599</v>
+        <v>1.032036742527737</v>
       </c>
       <c r="E6">
-        <v>1.063120445657302</v>
+        <v>1.023180078914131</v>
       </c>
       <c r="F6">
-        <v>1.069065217127357</v>
+        <v>1.034797864592102</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.073528806887935</v>
+        <v>1.051932029875154</v>
       </c>
       <c r="J6">
-        <v>1.073687392138565</v>
+        <v>1.034492232920131</v>
       </c>
       <c r="K6">
-        <v>1.073903175556715</v>
+        <v>1.041511843019638</v>
       </c>
       <c r="L6">
-        <v>1.072270610271294</v>
+        <v>1.032752203482043</v>
       </c>
       <c r="M6">
-        <v>1.078155854603414</v>
+        <v>1.044243133541442</v>
       </c>
       <c r="N6">
-        <v>1.075212151389068</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015357815396228</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.043587856514772</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.040436875840589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,81 +698,105 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.053556867802094</v>
+        <v>1.014954017290019</v>
       </c>
       <c r="D7">
-        <v>1.062652792568695</v>
+        <v>1.031339093309359</v>
       </c>
       <c r="E7">
-        <v>1.060709756564291</v>
+        <v>1.022271343267663</v>
       </c>
       <c r="F7">
-        <v>1.066687421140049</v>
+        <v>1.033990433373718</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.072336589295966</v>
+        <v>1.051654914840673</v>
       </c>
       <c r="J7">
-        <v>1.071677546397801</v>
+        <v>1.033976827971404</v>
       </c>
       <c r="K7">
-        <v>1.072046815498634</v>
+        <v>1.041070562889516</v>
       </c>
       <c r="L7">
-        <v>1.070124009810943</v>
+        <v>1.032105289129326</v>
       </c>
       <c r="M7">
-        <v>1.076039723853603</v>
+        <v>1.043692357465485</v>
       </c>
       <c r="N7">
-        <v>1.073199451436819</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015183399261802</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.04315195590563</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.040129049564562</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042508930018027</v>
+        <v>1.010463451630915</v>
       </c>
       <c r="D8">
-        <v>1.053476916373585</v>
+        <v>1.028368250050363</v>
       </c>
       <c r="E8">
-        <v>1.050274931885456</v>
+        <v>1.018410075822791</v>
       </c>
       <c r="F8">
-        <v>1.056393417742641</v>
+        <v>1.03056693405324</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.067138243499522</v>
+        <v>1.050451467706305</v>
       </c>
       <c r="J8">
-        <v>1.062952004712929</v>
+        <v>1.031772424844305</v>
       </c>
       <c r="K8">
-        <v>1.063978141599111</v>
+        <v>1.039177191527302</v>
       </c>
       <c r="L8">
-        <v>1.06081438305809</v>
+        <v>1.029346314265526</v>
       </c>
       <c r="M8">
-        <v>1.066860074959114</v>
+        <v>1.0413481829487</v>
       </c>
       <c r="N8">
-        <v>1.064461518481921</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014436321406198</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.041296703370919</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.038794844573081</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021348368505876</v>
+        <v>1.002234729649023</v>
       </c>
       <c r="D9">
-        <v>1.035885517315668</v>
+        <v>1.022943015900238</v>
       </c>
       <c r="E9">
-        <v>1.030326626109486</v>
+        <v>1.011374588094244</v>
       </c>
       <c r="F9">
-        <v>1.03670918057199</v>
+        <v>1.024350689131985</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057052686290863</v>
+        <v>1.048169315616349</v>
       </c>
       <c r="J9">
-        <v>1.046169147153852</v>
+        <v>1.027708819905323</v>
       </c>
       <c r="K9">
-        <v>1.048422022293207</v>
+        <v>1.035674511162486</v>
       </c>
       <c r="L9">
-        <v>1.042946116703166</v>
+        <v>1.02428577732099</v>
       </c>
       <c r="M9">
-        <v>1.049233485732981</v>
+        <v>1.037060672040736</v>
       </c>
       <c r="N9">
-        <v>1.047654827340089</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013057315524828</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.037903421704717</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.036315041729766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.005841234598867</v>
+        <v>0.9965904071864358</v>
       </c>
       <c r="D10">
-        <v>1.022989237896007</v>
+        <v>1.019253998593359</v>
       </c>
       <c r="E10">
-        <v>1.015739377611182</v>
+        <v>1.00658711771447</v>
       </c>
       <c r="F10">
-        <v>1.022312630381953</v>
+        <v>1.020295845263597</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049575842862173</v>
+        <v>1.046587645143623</v>
       </c>
       <c r="J10">
-        <v>1.033824999951026</v>
+        <v>1.024939958628974</v>
       </c>
       <c r="K10">
-        <v>1.036955460275718</v>
+        <v>1.033284105588174</v>
       </c>
       <c r="L10">
-        <v>1.029830151134697</v>
+        <v>1.020838449579283</v>
       </c>
       <c r="M10">
-        <v>1.036290380210501</v>
+        <v>1.034308072537715</v>
       </c>
       <c r="N10">
-        <v>1.035293150032341</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012124089592</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.035776520109686</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.034641699242695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9987218157871791</v>
+        <v>0.9945510561587789</v>
       </c>
       <c r="D11">
-        <v>1.017069138030046</v>
+        <v>1.017996592503358</v>
       </c>
       <c r="E11">
-        <v>1.009051273032548</v>
+        <v>1.004929263918345</v>
       </c>
       <c r="F11">
-        <v>1.015711702012093</v>
+        <v>1.020198644183645</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046123459193945</v>
+        <v>1.046220613039735</v>
       </c>
       <c r="J11">
-        <v>1.028147865561918</v>
+        <v>1.024152287715176</v>
       </c>
       <c r="K11">
-        <v>1.03167617805471</v>
+        <v>1.032586916748935</v>
       </c>
       <c r="L11">
-        <v>1.023804490701148</v>
+        <v>1.019758816414212</v>
       </c>
       <c r="M11">
-        <v>1.030343279072082</v>
+        <v>1.034749438339886</v>
       </c>
       <c r="N11">
-        <v>1.029607953461224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011908499359063</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.036562986097738</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.0341816341555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9960090082868894</v>
+        <v>0.9939259948769554</v>
       </c>
       <c r="D12">
-        <v>1.014813604112978</v>
+        <v>1.017630439465767</v>
       </c>
       <c r="E12">
-        <v>1.006504316414358</v>
+        <v>1.00444647411609</v>
       </c>
       <c r="F12">
-        <v>1.013197937893858</v>
+        <v>1.020728650271435</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044805060333733</v>
+        <v>1.0461841131193</v>
       </c>
       <c r="J12">
-        <v>1.025983239758341</v>
+        <v>1.023989660799199</v>
       </c>
       <c r="K12">
-        <v>1.029662397387175</v>
+        <v>1.03242748739168</v>
       </c>
       <c r="L12">
-        <v>1.021507955968582</v>
+        <v>1.019488979641215</v>
       </c>
       <c r="M12">
-        <v>1.028076580295596</v>
+        <v>1.035469213035415</v>
       </c>
       <c r="N12">
-        <v>1.027440253640721</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.01189234395965</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.037459156029294</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.034068912218218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9965941429638165</v>
+        <v>0.9943593298038379</v>
       </c>
       <c r="D13">
-        <v>1.01530009199598</v>
+        <v>1.017940760263495</v>
       </c>
       <c r="E13">
-        <v>1.007053607792421</v>
+        <v>1.004845591634996</v>
       </c>
       <c r="F13">
-        <v>1.013740070460043</v>
+        <v>1.021802214269258</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045089559312097</v>
+        <v>1.046413197803515</v>
       </c>
       <c r="J13">
-        <v>1.0264501963633</v>
+        <v>1.024310844327474</v>
       </c>
       <c r="K13">
-        <v>1.03009685157017</v>
+        <v>1.032689222296542</v>
       </c>
       <c r="L13">
-        <v>1.022003323776465</v>
+        <v>1.019836818792674</v>
       </c>
       <c r="M13">
-        <v>1.028565516731884</v>
+        <v>1.036480634970485</v>
       </c>
       <c r="N13">
-        <v>1.027907873377619</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012034866535012</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.038535764649229</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.034251472379677</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9984990167536791</v>
+        <v>0.9951387811152363</v>
       </c>
       <c r="D14">
-        <v>1.016883887394651</v>
+        <v>1.01846280709932</v>
       </c>
       <c r="E14">
-        <v>1.00884206377165</v>
+        <v>1.005521158743959</v>
       </c>
       <c r="F14">
-        <v>1.015505219121614</v>
+        <v>1.022786952186072</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046015238996552</v>
+        <v>1.046690736551045</v>
       </c>
       <c r="J14">
-        <v>1.027970115486907</v>
+        <v>1.024751145523218</v>
       </c>
       <c r="K14">
-        <v>1.031510831890675</v>
+        <v>1.033061267312021</v>
       </c>
       <c r="L14">
-        <v>1.023615888908274</v>
+        <v>1.020356533098143</v>
       </c>
       <c r="M14">
-        <v>1.030157129517439</v>
+        <v>1.037307987662134</v>
       </c>
       <c r="N14">
-        <v>1.029429950960719</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012205307454404</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.039363165548282</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.034515946975205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9996633686007197</v>
+        <v>0.9955672074319331</v>
       </c>
       <c r="D15">
-        <v>1.017852023164809</v>
+        <v>1.018746408997786</v>
       </c>
       <c r="E15">
-        <v>1.009935457019992</v>
+        <v>1.005886532625441</v>
       </c>
       <c r="F15">
-        <v>1.016584363475108</v>
+        <v>1.023178029521218</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046580683038284</v>
+        <v>1.046824102423172</v>
       </c>
       <c r="J15">
-        <v>1.028898984841601</v>
+        <v>1.024973352719939</v>
       </c>
       <c r="K15">
-        <v>1.032374847665379</v>
+        <v>1.03325323423143</v>
       </c>
       <c r="L15">
-        <v>1.02460150592222</v>
+        <v>1.020626969395748</v>
       </c>
       <c r="M15">
-        <v>1.031129927236053</v>
+        <v>1.037606114634798</v>
       </c>
       <c r="N15">
-        <v>1.030360139416439</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012285170771674</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.039636350512158</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.034657550795709</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.006304586631932</v>
+        <v>0.9978684701271193</v>
       </c>
       <c r="D16">
-        <v>1.023374562952066</v>
+        <v>1.020246536209715</v>
       </c>
       <c r="E16">
-        <v>1.016174855460259</v>
+        <v>1.007827839073602</v>
       </c>
       <c r="F16">
-        <v>1.022742429305386</v>
+        <v>1.024736140557969</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049800133947312</v>
+        <v>1.047464698198723</v>
       </c>
       <c r="J16">
-        <v>1.034194288373867</v>
+        <v>1.026089856637131</v>
       </c>
       <c r="K16">
-        <v>1.037298751829498</v>
+        <v>1.034223975139043</v>
       </c>
       <c r="L16">
-        <v>1.030222243962536</v>
+        <v>1.022020916489356</v>
       </c>
       <c r="M16">
-        <v>1.036677345424957</v>
+        <v>1.038637281607017</v>
       </c>
       <c r="N16">
-        <v>1.035662962887101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012655352780998</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.040412656367351</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.035347070432791</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.010357172957142</v>
+        <v>0.9992311194995305</v>
       </c>
       <c r="D17">
-        <v>1.026744799391698</v>
+        <v>1.021129015820558</v>
       </c>
       <c r="E17">
-        <v>1.019984669450765</v>
+        <v>1.008969658266213</v>
       </c>
       <c r="F17">
-        <v>1.026502535228718</v>
+        <v>1.025414242670366</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051759636497265</v>
+        <v>1.047811029450582</v>
       </c>
       <c r="J17">
-        <v>1.037423077272526</v>
+        <v>1.026718876749735</v>
       </c>
       <c r="K17">
-        <v>1.040299600791385</v>
+        <v>1.034776448689571</v>
       </c>
       <c r="L17">
-        <v>1.033651139277851</v>
+        <v>1.022822223681609</v>
       </c>
       <c r="M17">
-        <v>1.040061305842154</v>
+        <v>1.038990873434525</v>
       </c>
       <c r="N17">
-        <v>1.038896337036343</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012851056066715</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.040563067694082</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.035740280505202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01268250047787</v>
+        <v>0.9998905839359296</v>
       </c>
       <c r="D18">
-        <v>1.02867865085808</v>
+        <v>1.021535749686274</v>
       </c>
       <c r="E18">
-        <v>1.022171523391814</v>
+        <v>1.009503084519775</v>
       </c>
       <c r="F18">
-        <v>1.028660830145551</v>
+        <v>1.025287664492413</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052882135035857</v>
+        <v>1.047913515105641</v>
       </c>
       <c r="J18">
-        <v>1.039274794407905</v>
+        <v>1.026957725515428</v>
       </c>
       <c r="K18">
-        <v>1.042020057677062</v>
+        <v>1.034992821372153</v>
       </c>
       <c r="L18">
-        <v>1.035618215790442</v>
+        <v>1.023159774022255</v>
       </c>
       <c r="M18">
-        <v>1.042002522971254</v>
+        <v>1.038683723517215</v>
       </c>
       <c r="N18">
-        <v>1.040750683822449</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012902885746186</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.040082433303311</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.035881619160929</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.013469058411028</v>
+        <v>0.9999005442059719</v>
       </c>
       <c r="D19">
-        <v>1.029332792687051</v>
+        <v>1.021508156829247</v>
       </c>
       <c r="E19">
-        <v>1.022911377815996</v>
+        <v>1.009472402913724</v>
       </c>
       <c r="F19">
-        <v>1.029391017171944</v>
+        <v>1.024375674748551</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053261513541006</v>
+        <v>1.047787473632615</v>
       </c>
       <c r="J19">
-        <v>1.039900991093587</v>
+        <v>1.026832660174732</v>
       </c>
       <c r="K19">
-        <v>1.042601774673261</v>
+        <v>1.034903069357087</v>
       </c>
       <c r="L19">
-        <v>1.036283524730777</v>
+        <v>1.023065931926281</v>
       </c>
       <c r="M19">
-        <v>1.042659071283548</v>
+        <v>1.037724150513792</v>
       </c>
       <c r="N19">
-        <v>1.04137776977925</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012824501758398</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.038997827721813</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.035824560360484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.009926398950347</v>
+        <v>0.9980774132135989</v>
       </c>
       <c r="D20">
-        <v>1.026386550265507</v>
+        <v>1.0202410958671</v>
       </c>
       <c r="E20">
-        <v>1.019579614185019</v>
+        <v>1.007849880762775</v>
       </c>
       <c r="F20">
-        <v>1.026102767398147</v>
+        <v>1.021363375915799</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051551540288357</v>
+        <v>1.047019586716657</v>
       </c>
       <c r="J20">
-        <v>1.037079965378346</v>
+        <v>1.025682649059979</v>
       </c>
       <c r="K20">
-        <v>1.039980767003539</v>
+        <v>1.033937128621525</v>
       </c>
       <c r="L20">
-        <v>1.033286700453445</v>
+        <v>1.021756089722549</v>
       </c>
       <c r="M20">
-        <v>1.039701651216815</v>
+        <v>1.035040697293502</v>
       </c>
       <c r="N20">
-        <v>1.038552737883917</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012378194204182</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.036345733725104</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.035145524917099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9979400326665386</v>
+        <v>0.9937525115098099</v>
       </c>
       <c r="D21">
-        <v>1.01641911426959</v>
+        <v>1.017405617043105</v>
       </c>
       <c r="E21">
-        <v>1.008317199938263</v>
+        <v>1.004179167662765</v>
       </c>
       <c r="F21">
-        <v>1.014987195229674</v>
+        <v>1.018004385929622</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045743677462116</v>
+        <v>1.04574829633273</v>
       </c>
       <c r="J21">
-        <v>1.027524133461652</v>
+        <v>1.02351378001426</v>
       </c>
       <c r="K21">
-        <v>1.031095958159383</v>
+        <v>1.032064571160454</v>
       </c>
       <c r="L21">
-        <v>1.023142695266013</v>
+        <v>1.01908179464423</v>
       </c>
       <c r="M21">
-        <v>1.029690086835197</v>
+        <v>1.032652503636621</v>
       </c>
       <c r="N21">
-        <v>1.028983335589833</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011637775091837</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.034414630784485</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.033824783836076</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9900035519095147</v>
+        <v>0.9910008608744312</v>
       </c>
       <c r="D22">
-        <v>1.009821183259108</v>
+        <v>1.015604690438582</v>
       </c>
       <c r="E22">
-        <v>1.000868979325461</v>
+        <v>1.001853311324057</v>
       </c>
       <c r="F22">
-        <v>1.007636072954033</v>
+        <v>1.015965140634106</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041881206603613</v>
+        <v>1.044939911859384</v>
       </c>
       <c r="J22">
-        <v>1.021188856899074</v>
+        <v>1.022141180499409</v>
       </c>
       <c r="K22">
-        <v>1.025200559402118</v>
+        <v>1.030873226763512</v>
       </c>
       <c r="L22">
-        <v>1.016423241198999</v>
+        <v>1.017388142944087</v>
       </c>
       <c r="M22">
-        <v>1.023057760491503</v>
+        <v>1.031226823628957</v>
       </c>
       <c r="N22">
-        <v>1.02263906220787</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011170592312831</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.03328629011052</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.032968924729342</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9942516514982628</v>
+        <v>0.9924557675452889</v>
       </c>
       <c r="D23">
-        <v>1.01335257384431</v>
+        <v>1.016550544275602</v>
       </c>
       <c r="E23">
-        <v>1.004854842266611</v>
+        <v>1.003081173478594</v>
       </c>
       <c r="F23">
-        <v>1.011569963050278</v>
+        <v>1.017044887661676</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043950196343058</v>
+        <v>1.045364395263519</v>
       </c>
       <c r="J23">
-        <v>1.024580615481277</v>
+        <v>1.022863044901552</v>
       </c>
       <c r="K23">
-        <v>1.028357278841798</v>
+        <v>1.031495721177271</v>
       </c>
       <c r="L23">
-        <v>1.020020136138608</v>
+        <v>1.018280435255</v>
       </c>
       <c r="M23">
-        <v>1.026608063524132</v>
+        <v>1.031980906245713</v>
       </c>
       <c r="N23">
-        <v>1.0260356374763</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.01141496457892</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.033883101740673</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.03339940703843</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.010121165535247</v>
+        <v>0.9980894272611249</v>
       </c>
       <c r="D24">
-        <v>1.026548525914676</v>
+        <v>1.020233047298901</v>
       </c>
       <c r="E24">
-        <v>1.01976274995102</v>
+        <v>1.007851782602457</v>
       </c>
       <c r="F24">
-        <v>1.026283512664681</v>
+        <v>1.021240404256714</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051645632916684</v>
+        <v>1.046995909075787</v>
       </c>
       <c r="J24">
-        <v>1.037235100027278</v>
+        <v>1.025661221995658</v>
       </c>
       <c r="K24">
-        <v>1.040124926216593</v>
+        <v>1.033913926382947</v>
       </c>
       <c r="L24">
-        <v>1.033451476002914</v>
+        <v>1.021742401053267</v>
       </c>
       <c r="M24">
-        <v>1.039864263917002</v>
+        <v>1.034904506789329</v>
       </c>
       <c r="N24">
-        <v>1.038708092841845</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012364516402484</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.036196953254928</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.035101687966432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027044104128929</v>
+        <v>1.004414433385096</v>
       </c>
       <c r="D25">
-        <v>1.040621854945558</v>
+        <v>1.024386828488826</v>
       </c>
       <c r="E25">
-        <v>1.035691185563011</v>
+        <v>1.013235170889733</v>
       </c>
       <c r="F25">
-        <v>1.042003218483824</v>
+        <v>1.025986680736145</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.059782029528496</v>
+        <v>1.048788686582024</v>
       </c>
       <c r="J25">
-        <v>1.050694387958842</v>
+        <v>1.028794142089621</v>
       </c>
       <c r="K25">
-        <v>1.052620676778921</v>
+        <v>1.036618008438385</v>
       </c>
       <c r="L25">
-        <v>1.047759601696063</v>
+        <v>1.025631444306642</v>
       </c>
       <c r="M25">
-        <v>1.053982692076275</v>
+        <v>1.038194549197077</v>
       </c>
       <c r="N25">
-        <v>1.052186494506075</v>
+        <v>1.013427683393654</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.038800812134453</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.037010751492246</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_54/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009275176834674</v>
+        <v>1.008880484550811</v>
       </c>
       <c r="D2">
-        <v>1.027575240767201</v>
+        <v>1.026687008438926</v>
       </c>
       <c r="E2">
-        <v>1.017389415619554</v>
+        <v>1.016997276466712</v>
       </c>
       <c r="F2">
-        <v>1.029667998899339</v>
+        <v>1.029447259698045</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.050122354460283</v>
+        <v>1.049693441165603</v>
       </c>
       <c r="J2">
-        <v>1.031181964361863</v>
+        <v>1.030798787788019</v>
       </c>
       <c r="K2">
-        <v>1.038663324350243</v>
+        <v>1.037786661066879</v>
       </c>
       <c r="L2">
-        <v>1.028611689620573</v>
+        <v>1.028224784073322</v>
       </c>
       <c r="M2">
-        <v>1.040728923493243</v>
+        <v>1.040511042438718</v>
       </c>
       <c r="N2">
-        <v>1.014234560142497</v>
+        <v>1.015325991440232</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.04080660140677</v>
+        <v>1.040634163213318</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.038408592034057</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.037797491487957</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022110077482917</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012732708714109</v>
+        <v>1.012212610298565</v>
       </c>
       <c r="D3">
-        <v>1.029860483843368</v>
+        <v>1.028805281247733</v>
       </c>
       <c r="E3">
-        <v>1.020357779227794</v>
+        <v>1.019840480180496</v>
       </c>
       <c r="F3">
-        <v>1.032297354930314</v>
+        <v>1.032015780241787</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.051058150386945</v>
+        <v>1.050535480079007</v>
       </c>
       <c r="J3">
-        <v>1.03288218454651</v>
+        <v>1.032375794735394</v>
       </c>
       <c r="K3">
-        <v>1.040125034789729</v>
+        <v>1.039082396172305</v>
       </c>
       <c r="L3">
-        <v>1.030736639766849</v>
+        <v>1.03022563936889</v>
       </c>
       <c r="M3">
-        <v>1.042533012371648</v>
+        <v>1.042254767622341</v>
       </c>
       <c r="N3">
-        <v>1.014811030632658</v>
+        <v>1.015749889322564</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.042234414776228</v>
+        <v>1.042014203207697</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.039439482702746</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.038710747306398</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022358103272515</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014932219447857</v>
+        <v>1.014333122711339</v>
       </c>
       <c r="D4">
-        <v>1.031317773153161</v>
+        <v>1.030156847381761</v>
       </c>
       <c r="E4">
-        <v>1.022251286066353</v>
+        <v>1.021655015037631</v>
       </c>
       <c r="F4">
-        <v>1.033976482700461</v>
+        <v>1.033656572536493</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.051644469933671</v>
+        <v>1.051062360548989</v>
       </c>
       <c r="J4">
-        <v>1.0339615195421</v>
+        <v>1.033377158612378</v>
       </c>
       <c r="K4">
-        <v>1.041052360743058</v>
+        <v>1.039904435806278</v>
       </c>
       <c r="L4">
-        <v>1.032088374959676</v>
+        <v>1.031498923753717</v>
       </c>
       <c r="M4">
-        <v>1.043681431558248</v>
+        <v>1.043365077758664</v>
       </c>
       <c r="N4">
-        <v>1.015177000257416</v>
+        <v>1.016019120677305</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.043143308814223</v>
+        <v>1.042892936863437</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.040096076984618</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.039292977815855</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022513098219115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015851004466563</v>
+        <v>1.015219041761411</v>
       </c>
       <c r="D5">
-        <v>1.031929433563835</v>
+        <v>1.030724475041908</v>
       </c>
       <c r="E5">
-        <v>1.023043855638974</v>
+        <v>1.022414702147497</v>
       </c>
       <c r="F5">
-        <v>1.034678585085389</v>
+        <v>1.034342727651216</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.051888625326044</v>
+        <v>1.051281727837607</v>
       </c>
       <c r="J5">
-        <v>1.034413225648879</v>
+        <v>1.033796348392664</v>
       </c>
       <c r="K5">
-        <v>1.041441851614824</v>
+        <v>1.040250032608323</v>
       </c>
       <c r="L5">
-        <v>1.032654061444075</v>
+        <v>1.032031911193067</v>
       </c>
       <c r="M5">
-        <v>1.044161165419484</v>
+        <v>1.043828942758522</v>
       </c>
       <c r="N5">
-        <v>1.015330523341946</v>
+        <v>1.016132114196578</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.04352298451551</v>
+        <v>1.043260053603466</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.040378646340659</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.039545222081502</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022578183365685</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016008294239167</v>
+        <v>1.015370661097401</v>
       </c>
       <c r="D6">
-        <v>1.032036742527737</v>
+        <v>1.030824270646605</v>
       </c>
       <c r="E6">
-        <v>1.023180078914131</v>
+        <v>1.022545251400123</v>
       </c>
       <c r="F6">
-        <v>1.034797864592102</v>
+        <v>1.034459261148081</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051932029875154</v>
+        <v>1.051320883814861</v>
       </c>
       <c r="J6">
-        <v>1.034492232920131</v>
+        <v>1.033869743267617</v>
       </c>
       <c r="K6">
-        <v>1.041511843019638</v>
+        <v>1.040312532806095</v>
       </c>
       <c r="L6">
-        <v>1.032752203482043</v>
+        <v>1.032124409825745</v>
       </c>
       <c r="M6">
-        <v>1.044243133541442</v>
+        <v>1.043908177913455</v>
       </c>
       <c r="N6">
-        <v>1.015357815396228</v>
+        <v>1.016152230653479</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.043587856514772</v>
+        <v>1.043322762674411</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.040436875840589</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.039599024135688</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022590523293445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014954017290019</v>
+        <v>1.014361110398606</v>
       </c>
       <c r="D7">
-        <v>1.031339093309359</v>
+        <v>1.03018229305685</v>
       </c>
       <c r="E7">
-        <v>1.022271343267663</v>
+        <v>1.021681230533338</v>
       </c>
       <c r="F7">
-        <v>1.033990433373718</v>
+        <v>1.03367330743999</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.051654914840673</v>
+        <v>1.051075919698466</v>
       </c>
       <c r="J7">
-        <v>1.033976827971404</v>
+        <v>1.033398498356952</v>
       </c>
       <c r="K7">
-        <v>1.041070562889516</v>
+        <v>1.039926712229274</v>
       </c>
       <c r="L7">
-        <v>1.032105289129326</v>
+        <v>1.031521923150219</v>
       </c>
       <c r="M7">
-        <v>1.043692357465485</v>
+        <v>1.043378755641563</v>
       </c>
       <c r="N7">
-        <v>1.015183399261802</v>
+        <v>1.016051691626774</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.04315195590563</v>
+        <v>1.042903761954814</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.040129049564562</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.03933083143841</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022519563617491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010463451630915</v>
+        <v>1.010047161922705</v>
       </c>
       <c r="D8">
-        <v>1.028368250050363</v>
+        <v>1.027438326235949</v>
       </c>
       <c r="E8">
-        <v>1.018410075822791</v>
+        <v>1.017996322566526</v>
       </c>
       <c r="F8">
-        <v>1.03056693405324</v>
+        <v>1.030335035540923</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050451467706305</v>
+        <v>1.050001674446343</v>
       </c>
       <c r="J8">
-        <v>1.031772424844305</v>
+        <v>1.031367878171369</v>
       </c>
       <c r="K8">
-        <v>1.039177191527302</v>
+        <v>1.038259024685117</v>
       </c>
       <c r="L8">
-        <v>1.029346314265526</v>
+        <v>1.028937917517303</v>
       </c>
       <c r="M8">
-        <v>1.0413481829487</v>
+        <v>1.041119198260744</v>
       </c>
       <c r="N8">
-        <v>1.014436321406198</v>
+        <v>1.015558942638029</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.041296703370919</v>
+        <v>1.041115477520678</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.038794844573081</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.038156665763785</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02220494560105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002234729649023</v>
+        <v>1.002125193428254</v>
       </c>
       <c r="D9">
-        <v>1.022943015900238</v>
+        <v>1.022415784519552</v>
       </c>
       <c r="E9">
-        <v>1.011374588094244</v>
+        <v>1.011266018633828</v>
       </c>
       <c r="F9">
-        <v>1.024350689131985</v>
+        <v>1.024267423344787</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048169315616349</v>
+        <v>1.047945597840772</v>
       </c>
       <c r="J9">
-        <v>1.027708819905323</v>
+        <v>1.027603128194287</v>
       </c>
       <c r="K9">
-        <v>1.035674511162486</v>
+        <v>1.035155356495135</v>
       </c>
       <c r="L9">
-        <v>1.02428577732099</v>
+        <v>1.024178919208267</v>
       </c>
       <c r="M9">
-        <v>1.037060672040736</v>
+        <v>1.036978676640372</v>
       </c>
       <c r="N9">
-        <v>1.013057315524828</v>
+        <v>1.014555933087615</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.037903421704717</v>
+        <v>1.03783852760513</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.036315041729766</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.03595871156186</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.0215961521333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9965904071864358</v>
+        <v>0.9967251712277594</v>
       </c>
       <c r="D10">
-        <v>1.019253998593359</v>
+        <v>1.019026170676704</v>
       </c>
       <c r="E10">
-        <v>1.00658711771447</v>
+        <v>1.006720416999276</v>
       </c>
       <c r="F10">
-        <v>1.020295845263597</v>
+        <v>1.020330013246164</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046587645143623</v>
+        <v>1.04653508897905</v>
       </c>
       <c r="J10">
-        <v>1.024939958628974</v>
+        <v>1.025069324882298</v>
       </c>
       <c r="K10">
-        <v>1.033284105588174</v>
+        <v>1.033060193853413</v>
       </c>
       <c r="L10">
-        <v>1.020838449579283</v>
+        <v>1.020969383209219</v>
       </c>
       <c r="M10">
-        <v>1.034308072537715</v>
+        <v>1.034341654943323</v>
       </c>
       <c r="N10">
-        <v>1.012124089592</v>
+        <v>1.013996648178465</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.035776520109686</v>
+        <v>1.035803096839516</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.034641699242695</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.034495803962568</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021181199469883</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9945510561587789</v>
+        <v>0.99480237480068</v>
       </c>
       <c r="D11">
-        <v>1.017996592503358</v>
+        <v>1.017892040655645</v>
       </c>
       <c r="E11">
-        <v>1.004929263918345</v>
+        <v>1.005177619924543</v>
       </c>
       <c r="F11">
-        <v>1.020198644183645</v>
+        <v>1.020287953908119</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046220613039735</v>
+        <v>1.046243020621749</v>
       </c>
       <c r="J11">
-        <v>1.024152287715176</v>
+        <v>1.024392991126863</v>
       </c>
       <c r="K11">
-        <v>1.032586916748935</v>
+        <v>1.03248424728937</v>
       </c>
       <c r="L11">
-        <v>1.019758816414212</v>
+        <v>1.020002550032871</v>
       </c>
       <c r="M11">
-        <v>1.034749438339886</v>
+        <v>1.034837149498792</v>
       </c>
       <c r="N11">
-        <v>1.011908499359063</v>
+        <v>1.014079398751265</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.036562986097738</v>
+        <v>1.03663236458176</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.0341816341555</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034124677345521</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021106990735625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9939259948769554</v>
+        <v>0.9942107597360005</v>
       </c>
       <c r="D12">
-        <v>1.017630439465767</v>
+        <v>1.017559901420818</v>
       </c>
       <c r="E12">
-        <v>1.00444647411609</v>
+        <v>1.004727784467476</v>
       </c>
       <c r="F12">
-        <v>1.020728650271435</v>
+        <v>1.020833758525898</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.0461841131193</v>
+        <v>1.046227802994983</v>
       </c>
       <c r="J12">
-        <v>1.023989660799199</v>
+        <v>1.024262167683169</v>
       </c>
       <c r="K12">
-        <v>1.03242748739168</v>
+        <v>1.032358240578855</v>
       </c>
       <c r="L12">
-        <v>1.019488979641215</v>
+        <v>1.019764964672559</v>
       </c>
       <c r="M12">
-        <v>1.035469213035415</v>
+        <v>1.035572412826778</v>
       </c>
       <c r="N12">
-        <v>1.01189234395965</v>
+        <v>1.014172388811546</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.037459156029294</v>
+        <v>1.0375407581278</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.034068912218218</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.034035588203863</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021108296719734</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9943593298038379</v>
+        <v>0.9946056160727947</v>
       </c>
       <c r="D13">
-        <v>1.017940760263495</v>
+        <v>1.017830527444125</v>
       </c>
       <c r="E13">
-        <v>1.004845591634996</v>
+        <v>1.005088912019677</v>
       </c>
       <c r="F13">
-        <v>1.021802214269258</v>
+        <v>1.021889581917313</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046413197803515</v>
+        <v>1.046433137903322</v>
       </c>
       <c r="J13">
-        <v>1.024310844327474</v>
+        <v>1.024546580356446</v>
       </c>
       <c r="K13">
-        <v>1.032689222296542</v>
+        <v>1.032580999099938</v>
       </c>
       <c r="L13">
-        <v>1.019836818792674</v>
+        <v>1.020075553020147</v>
       </c>
       <c r="M13">
-        <v>1.036480634970485</v>
+        <v>1.036566425853395</v>
       </c>
       <c r="N13">
-        <v>1.012034866535012</v>
+        <v>1.014248474405847</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.038535764649229</v>
+        <v>1.038603584121761</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.034251472379677</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.034190345086665</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021172559337199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9951387811152363</v>
+        <v>0.9953266928756083</v>
       </c>
       <c r="D14">
-        <v>1.01846280709932</v>
+        <v>1.018292477266531</v>
       </c>
       <c r="E14">
-        <v>1.005521158743959</v>
+        <v>1.005706855875993</v>
       </c>
       <c r="F14">
-        <v>1.022786952186072</v>
+        <v>1.022847340381086</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046690736551045</v>
+        <v>1.046674324132677</v>
       </c>
       <c r="J14">
-        <v>1.024751145523218</v>
+        <v>1.024931121526555</v>
       </c>
       <c r="K14">
-        <v>1.033061267312021</v>
+        <v>1.032894004766565</v>
       </c>
       <c r="L14">
-        <v>1.020356533098143</v>
+        <v>1.020538774547115</v>
       </c>
       <c r="M14">
-        <v>1.037307987662134</v>
+        <v>1.037367300609778</v>
       </c>
       <c r="N14">
-        <v>1.012205307454404</v>
+        <v>1.014294665315333</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.039363165548282</v>
+        <v>1.039410047337419</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.034515946975205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034413210815325</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021245978471361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9955672074319331</v>
+        <v>0.9957254853454222</v>
       </c>
       <c r="D15">
-        <v>1.018746408997786</v>
+        <v>1.018545321858783</v>
       </c>
       <c r="E15">
-        <v>1.005886532625441</v>
+        <v>1.006042969624853</v>
       </c>
       <c r="F15">
-        <v>1.023178029521218</v>
+        <v>1.023224667009651</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046824102423172</v>
+        <v>1.04678906079519</v>
       </c>
       <c r="J15">
-        <v>1.024973352719939</v>
+        <v>1.025125004202005</v>
       </c>
       <c r="K15">
-        <v>1.03325323423143</v>
+        <v>1.03305574107043</v>
       </c>
       <c r="L15">
-        <v>1.020626969395748</v>
+        <v>1.020780517800786</v>
       </c>
       <c r="M15">
-        <v>1.037606114634798</v>
+        <v>1.037651928181104</v>
       </c>
       <c r="N15">
-        <v>1.012285170771674</v>
+        <v>1.014308078451291</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.039636350512158</v>
+        <v>1.039672561232104</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.034657550795709</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.034534009224443</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021280569301643</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9978684701271193</v>
+        <v>0.9978848688629007</v>
       </c>
       <c r="D16">
-        <v>1.020246536209715</v>
+        <v>1.019893768401177</v>
       </c>
       <c r="E16">
-        <v>1.007827839073602</v>
+        <v>1.007844061396607</v>
       </c>
       <c r="F16">
-        <v>1.024736140557969</v>
+        <v>1.024716360306752</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047464698198723</v>
+        <v>1.047338423120304</v>
       </c>
       <c r="J16">
-        <v>1.026089856637131</v>
+        <v>1.026105602912353</v>
       </c>
       <c r="K16">
-        <v>1.034223975139043</v>
+        <v>1.033877239164392</v>
       </c>
       <c r="L16">
-        <v>1.022020916489356</v>
+        <v>1.022036852633099</v>
       </c>
       <c r="M16">
-        <v>1.038637281607017</v>
+        <v>1.038617835616303</v>
       </c>
       <c r="N16">
-        <v>1.012655352780998</v>
+        <v>1.014359265678488</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.040412656367351</v>
+        <v>1.040397285949201</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.035347070432791</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035118306895015</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02144021086064</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9992311194995305</v>
+        <v>0.9991764754803386</v>
       </c>
       <c r="D17">
-        <v>1.021129015820558</v>
+        <v>1.020696242684425</v>
       </c>
       <c r="E17">
-        <v>1.008969658266213</v>
+        <v>1.008915573160984</v>
       </c>
       <c r="F17">
-        <v>1.025414242670366</v>
+        <v>1.025360754015424</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047811029450582</v>
+        <v>1.047637351634366</v>
       </c>
       <c r="J17">
-        <v>1.026718876749735</v>
+        <v>1.026666337346965</v>
       </c>
       <c r="K17">
-        <v>1.034776448689571</v>
+        <v>1.034350868556698</v>
       </c>
       <c r="L17">
-        <v>1.022822223681609</v>
+        <v>1.022769065284437</v>
       </c>
       <c r="M17">
-        <v>1.038990873434525</v>
+        <v>1.038938263847973</v>
       </c>
       <c r="N17">
-        <v>1.012851056066715</v>
+        <v>1.014403770056837</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.040563067694082</v>
+        <v>1.040521480107689</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.035740280505202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.03545601781806</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021525525863911</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9998905839359296</v>
+        <v>0.999811251523376</v>
       </c>
       <c r="D18">
-        <v>1.021535749686274</v>
+        <v>1.021072477963922</v>
       </c>
       <c r="E18">
-        <v>1.009503084519775</v>
+        <v>1.009424539895734</v>
       </c>
       <c r="F18">
-        <v>1.025287664492413</v>
+        <v>1.025221914443859</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047913515105641</v>
+        <v>1.047722073688391</v>
       </c>
       <c r="J18">
-        <v>1.026957725515428</v>
+        <v>1.026881391445413</v>
       </c>
       <c r="K18">
-        <v>1.034992821372153</v>
+        <v>1.034537123229874</v>
       </c>
       <c r="L18">
-        <v>1.023159774022255</v>
+        <v>1.023082552590583</v>
       </c>
       <c r="M18">
-        <v>1.038683723517215</v>
+        <v>1.03861903774312</v>
       </c>
       <c r="N18">
-        <v>1.012902885746186</v>
+        <v>1.014400394211228</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.040082433303311</v>
+        <v>1.040031288898813</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.035881619160929</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.035574926035966</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021545235229855</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9999005442059719</v>
+        <v>0.9998340151653178</v>
       </c>
       <c r="D19">
-        <v>1.021508156829247</v>
+        <v>1.021056990517139</v>
       </c>
       <c r="E19">
-        <v>1.009472402913724</v>
+        <v>1.00940652840619</v>
       </c>
       <c r="F19">
-        <v>1.024375674748551</v>
+        <v>1.024315238924618</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047787473632615</v>
+        <v>1.047603205159019</v>
       </c>
       <c r="J19">
-        <v>1.026832660174732</v>
+        <v>1.026768630756483</v>
       </c>
       <c r="K19">
-        <v>1.034903069357087</v>
+        <v>1.034459239765842</v>
       </c>
       <c r="L19">
-        <v>1.023065931926281</v>
+        <v>1.023001161292096</v>
       </c>
       <c r="M19">
-        <v>1.037724150513792</v>
+        <v>1.037664689949051</v>
       </c>
       <c r="N19">
-        <v>1.012824501758398</v>
+        <v>1.014333633039099</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.038997827721813</v>
+        <v>1.038950799288565</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.035824560360484</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.035526883126271</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021505792512439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9980774132135989</v>
+        <v>0.9981269464522056</v>
       </c>
       <c r="D20">
-        <v>1.0202410958671</v>
+        <v>1.019919717176544</v>
       </c>
       <c r="E20">
-        <v>1.007849880762775</v>
+        <v>1.007898902415599</v>
       </c>
       <c r="F20">
-        <v>1.021363375915799</v>
+        <v>1.021357153355047</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047019586716657</v>
+        <v>1.046911320029748</v>
       </c>
       <c r="J20">
-        <v>1.025682649059979</v>
+        <v>1.025730262602892</v>
       </c>
       <c r="K20">
-        <v>1.033937128621525</v>
+        <v>1.03362111793669</v>
       </c>
       <c r="L20">
-        <v>1.021756089722549</v>
+        <v>1.02180426671814</v>
       </c>
       <c r="M20">
-        <v>1.035040697293502</v>
+        <v>1.035034578333277</v>
       </c>
       <c r="N20">
-        <v>1.012378194204182</v>
+        <v>1.014077187105498</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.036345733725104</v>
+        <v>1.036340891191667</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.035145524917099</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.034938611356805</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021295486518398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9937525115098099</v>
+        <v>0.9940916066783606</v>
       </c>
       <c r="D21">
-        <v>1.017405617043105</v>
+        <v>1.017388190780678</v>
       </c>
       <c r="E21">
-        <v>1.004179167662765</v>
+        <v>1.004514221797815</v>
       </c>
       <c r="F21">
-        <v>1.018004385929622</v>
+        <v>1.018134754681584</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04574829633273</v>
+        <v>1.045823961783927</v>
       </c>
       <c r="J21">
-        <v>1.02351378001426</v>
+        <v>1.023838449397793</v>
       </c>
       <c r="K21">
-        <v>1.032064571160454</v>
+        <v>1.032047460523774</v>
       </c>
       <c r="L21">
-        <v>1.01908179464423</v>
+        <v>1.019410572605334</v>
       </c>
       <c r="M21">
-        <v>1.032652503636621</v>
+        <v>1.032780515195657</v>
       </c>
       <c r="N21">
-        <v>1.011637775091837</v>
+        <v>1.013984752926457</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.034414630784485</v>
+        <v>1.034515944208174</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.033824783836076</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.03382953414888</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020980500006337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9910008608744312</v>
+        <v>0.9915230415519554</v>
       </c>
       <c r="D22">
-        <v>1.015604690438582</v>
+        <v>1.015779294578094</v>
       </c>
       <c r="E22">
-        <v>1.001853311324057</v>
+        <v>1.002368719614315</v>
       </c>
       <c r="F22">
-        <v>1.015965140634106</v>
+        <v>1.016182007747238</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044939911859384</v>
+        <v>1.045131461335156</v>
       </c>
       <c r="J22">
-        <v>1.022141180499409</v>
+        <v>1.022639859020759</v>
       </c>
       <c r="K22">
-        <v>1.030873226763512</v>
+        <v>1.031044510316337</v>
       </c>
       <c r="L22">
-        <v>1.017388142944087</v>
+        <v>1.017893397302356</v>
       </c>
       <c r="M22">
-        <v>1.031226823628957</v>
+        <v>1.031439570456452</v>
       </c>
       <c r="N22">
-        <v>1.011170592312831</v>
+        <v>1.013920845054078</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.03328629011052</v>
+        <v>1.033454666647539</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.032968924729342</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.033105579960059</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020778367643725</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9924557675452889</v>
+        <v>0.9928697453035282</v>
       </c>
       <c r="D23">
-        <v>1.016550544275602</v>
+        <v>1.01661526501219</v>
       </c>
       <c r="E23">
-        <v>1.003081173478594</v>
+        <v>1.003490015000822</v>
       </c>
       <c r="F23">
-        <v>1.017044887661676</v>
+        <v>1.017210803442884</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045364395263519</v>
+        <v>1.045488756690433</v>
       </c>
       <c r="J23">
-        <v>1.022863044901552</v>
+        <v>1.023258934365439</v>
       </c>
       <c r="K23">
-        <v>1.031495721177271</v>
+        <v>1.031559242222075</v>
       </c>
       <c r="L23">
-        <v>1.018280435255</v>
+        <v>1.018681433026665</v>
       </c>
       <c r="M23">
-        <v>1.031980906245713</v>
+        <v>1.032143750834754</v>
       </c>
       <c r="N23">
-        <v>1.01141496457892</v>
+        <v>1.013909622448145</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.033883101740673</v>
+        <v>1.034011983500225</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.03339940703843</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.033458926559775</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02087987730737</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9980894272611249</v>
+        <v>0.9981402981417385</v>
       </c>
       <c r="D24">
-        <v>1.020233047298901</v>
+        <v>1.019912700229432</v>
       </c>
       <c r="E24">
-        <v>1.007851782602457</v>
+        <v>1.007902129261444</v>
       </c>
       <c r="F24">
-        <v>1.021240404256714</v>
+        <v>1.021234745945545</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046995909075787</v>
+        <v>1.046888307754196</v>
       </c>
       <c r="J24">
-        <v>1.025661221995658</v>
+        <v>1.025710124180532</v>
       </c>
       <c r="K24">
-        <v>1.033913926382947</v>
+        <v>1.033598923330568</v>
       </c>
       <c r="L24">
-        <v>1.021742401053267</v>
+        <v>1.021791881346477</v>
       </c>
       <c r="M24">
-        <v>1.034904506789329</v>
+        <v>1.034898942592794</v>
       </c>
       <c r="N24">
-        <v>1.012364516402484</v>
+        <v>1.014063282956697</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.036196953254928</v>
+        <v>1.036192549539928</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.035101687966432</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.034892814560637</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021285247110394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.004414433385096</v>
+        <v>1.004213742481029</v>
       </c>
       <c r="D25">
-        <v>1.024386828488826</v>
+        <v>1.023746115878146</v>
       </c>
       <c r="E25">
-        <v>1.013235170889733</v>
+        <v>1.013036101810548</v>
       </c>
       <c r="F25">
-        <v>1.025986680736145</v>
+        <v>1.025859554846176</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048788686582024</v>
+        <v>1.048500227533904</v>
       </c>
       <c r="J25">
-        <v>1.028794142089621</v>
+        <v>1.02860012478932</v>
       </c>
       <c r="K25">
-        <v>1.036618008438385</v>
+        <v>1.035986657595332</v>
       </c>
       <c r="L25">
-        <v>1.025631444306642</v>
+        <v>1.025435364351889</v>
       </c>
       <c r="M25">
-        <v>1.038194549197077</v>
+        <v>1.038069272289237</v>
       </c>
       <c r="N25">
-        <v>1.013427683393654</v>
+        <v>1.014792534449507</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.038800812134453</v>
+        <v>1.038701663620154</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.037010751492246</v>
+        <v>1.036577895610222</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021763013563075</v>
       </c>
     </row>
   </sheetData>
